--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7404"/>
+    <workbookView windowWidth="30720" windowHeight="13884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="225">
   <si>
     <t>序号</t>
   </si>
@@ -87,7 +87,19 @@
     <t>53环境python端迁移</t>
   </si>
   <si>
-    <t>项目集成xrebel</t>
+    <r>
+      <t>项目集成xrebel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>；协助压测</t>
+    </r>
   </si>
   <si>
     <t>汇总提醒</t>
@@ -191,6 +203,18 @@
   </si>
   <si>
     <t>redis第一节课程完成90%；笔记内容未整理;未完成算法内容</t>
+  </si>
+  <si>
+    <t>redis第一节课完成，笔记镇两个i</t>
+  </si>
+  <si>
+    <t>第一节课视频结束；笔记未整理</t>
+  </si>
+  <si>
+    <t>下班较晚</t>
+  </si>
+  <si>
+    <t>注意思考</t>
   </si>
   <si>
     <t>模块</t>
@@ -823,7 +847,7 @@
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="179" formatCode="[$-804]aaa;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,6 +947,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1849,10 +1880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,37 +1892,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1900,101 +1928,104 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2456,6 +2487,9 @@
     </xf>
     <xf numFmtId="58" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3886,10 +3920,10 @@
   </sheetPr>
   <dimension ref="A2:SS595"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4154,7 +4188,7 @@
       <c r="AB2" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="161" t="s">
+      <c r="AC2" s="162" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="141" t="s">
@@ -4262,7 +4296,7 @@
       <c r="BL2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="BM2" s="161" t="s">
+      <c r="BM2" s="162" t="s">
         <v>7</v>
       </c>
       <c r="BN2" s="141" t="s">
@@ -4319,7 +4353,7 @@
       <c r="CE2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="CF2" s="161" t="s">
+      <c r="CF2" s="162" t="s">
         <v>12</v>
       </c>
       <c r="CG2" s="141" t="s">
@@ -4358,7 +4392,7 @@
       <c r="CR2" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="CS2" s="161" t="s">
+      <c r="CS2" s="162" t="s">
         <v>11</v>
       </c>
       <c r="CT2" s="157" t="s">
@@ -4511,16 +4545,16 @@
       <c r="EQ2" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="ER2" s="163" t="s">
+      <c r="ER2" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="ES2" s="163" t="s">
+      <c r="ES2" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="ET2" s="163" t="s">
+      <c r="ET2" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="EU2" s="163" t="s">
+      <c r="EU2" s="164" t="s">
         <v>9</v>
       </c>
       <c r="EV2" s="141" t="s">
@@ -4718,13 +4752,13 @@
       <c r="HH2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="HI2" s="161" t="s">
+      <c r="HI2" s="162" t="s">
         <v>12</v>
       </c>
       <c r="HJ2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="HK2" s="165" t="s">
+      <c r="HK2" s="166" t="s">
         <v>7</v>
       </c>
       <c r="HL2" s="157" t="s">
@@ -4757,7 +4791,7 @@
       <c r="HU2" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="HV2" s="165" t="s">
+      <c r="HV2" s="166" t="s">
         <v>11</v>
       </c>
       <c r="HW2" s="157" t="s">
@@ -4766,31 +4800,31 @@
       <c r="HX2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="HY2" s="167" t="s">
+      <c r="HY2" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="HZ2" s="167" t="s">
+      <c r="HZ2" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="IA2" s="167" t="s">
+      <c r="IA2" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="IB2" s="167" t="s">
+      <c r="IB2" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="IC2" s="167" t="s">
+      <c r="IC2" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="ID2" s="167" t="s">
+      <c r="ID2" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="IE2" s="167" t="s">
+      <c r="IE2" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="IF2" s="167" t="s">
+      <c r="IF2" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="IG2" s="167" t="s">
+      <c r="IG2" s="168" t="s">
         <v>8</v>
       </c>
       <c r="IH2" s="141" t="s">
@@ -4916,13 +4950,13 @@
       <c r="JV2" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="JW2" s="163" t="s">
+      <c r="JW2" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="JX2" s="163" t="s">
+      <c r="JX2" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="JY2" s="163" t="s">
+      <c r="JY2" s="164" t="s">
         <v>10</v>
       </c>
       <c r="JZ2" s="157" t="s">
@@ -4931,10 +4965,10 @@
       <c r="KA2" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="KB2" s="163" t="s">
+      <c r="KB2" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="KC2" s="163" t="s">
+      <c r="KC2" s="164" t="s">
         <v>7</v>
       </c>
       <c r="KD2" s="141" t="s">
@@ -4949,7 +4983,7 @@
       <c r="KG2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="KH2" s="161" t="s">
+      <c r="KH2" s="162" t="s">
         <v>12</v>
       </c>
       <c r="KI2" s="141" t="s">
@@ -5387,16 +5421,16 @@
       <c r="PW2" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="PX2" s="163" t="s">
+      <c r="PX2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="PY2" s="163" t="s">
+      <c r="PY2" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="PZ2" s="161" t="s">
+      <c r="PZ2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="QA2" s="163" t="s">
+      <c r="QA2" s="164" t="s">
         <v>7</v>
       </c>
       <c r="QB2" s="141" t="s">
@@ -5426,25 +5460,25 @@
       <c r="QJ2" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="QK2" s="163" t="s">
+      <c r="QK2" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="QL2" s="165" t="s">
+      <c r="QL2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="QM2" s="163" t="s">
+      <c r="QM2" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="QN2" s="161" t="s">
+      <c r="QN2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="QO2" s="161" t="s">
+      <c r="QO2" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="QP2" s="161" t="s">
+      <c r="QP2" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="QQ2" s="161" t="s">
+      <c r="QQ2" s="162" t="s">
         <v>9</v>
       </c>
       <c r="QR2" s="141" t="s">
@@ -5677,7 +5711,7 @@
       <c r="AB3" s="159">
         <v>44528</v>
       </c>
-      <c r="AC3" s="162">
+      <c r="AC3" s="163">
         <v>44529</v>
       </c>
       <c r="AD3" s="150">
@@ -5702,13 +5736,13 @@
       <c r="BD3" s="157"/>
       <c r="BJ3" s="157"/>
       <c r="BK3" s="157"/>
-      <c r="BM3" s="161"/>
+      <c r="BM3" s="162"/>
       <c r="BQ3" s="157"/>
       <c r="BR3" s="157"/>
       <c r="BX3" s="157"/>
       <c r="BY3" s="157"/>
       <c r="CE3" s="157"/>
-      <c r="CF3" s="161"/>
+      <c r="CF3" s="162"/>
       <c r="CJ3" s="157"/>
       <c r="CK3" s="157"/>
       <c r="CL3" s="157"/>
@@ -5717,7 +5751,7 @@
       <c r="CO3" s="157"/>
       <c r="CP3" s="157"/>
       <c r="CQ3" s="157"/>
-      <c r="CS3" s="161"/>
+      <c r="CS3" s="162"/>
       <c r="CT3" s="157"/>
       <c r="CZ3" s="157"/>
       <c r="DA3" s="157"/>
@@ -5733,10 +5767,10 @@
       <c r="EJ3" s="157"/>
       <c r="EP3" s="157"/>
       <c r="EQ3" s="157"/>
-      <c r="ER3" s="163"/>
-      <c r="ES3" s="163"/>
-      <c r="ET3" s="163"/>
-      <c r="EU3" s="163"/>
+      <c r="ER3" s="164"/>
+      <c r="ES3" s="164"/>
+      <c r="ET3" s="164"/>
+      <c r="EU3" s="164"/>
       <c r="EW3" s="157"/>
       <c r="EX3" s="157"/>
       <c r="FD3" s="157"/>
@@ -5757,8 +5791,8 @@
       <c r="HA3" s="157"/>
       <c r="HB3" s="157"/>
       <c r="HH3" s="157"/>
-      <c r="HI3" s="161"/>
-      <c r="HK3" s="165"/>
+      <c r="HI3" s="162"/>
+      <c r="HK3" s="166"/>
       <c r="HL3" s="157"/>
       <c r="HM3" s="157"/>
       <c r="HN3" s="157"/>
@@ -5767,17 +5801,17 @@
       <c r="HQ3" s="157"/>
       <c r="HR3" s="157"/>
       <c r="HS3" s="157"/>
-      <c r="HV3" s="165"/>
+      <c r="HV3" s="166"/>
       <c r="HW3" s="157"/>
-      <c r="HY3" s="167"/>
-      <c r="HZ3" s="167"/>
-      <c r="IA3" s="167"/>
-      <c r="IB3" s="167"/>
-      <c r="IC3" s="167"/>
-      <c r="ID3" s="167"/>
-      <c r="IE3" s="167"/>
-      <c r="IF3" s="167"/>
-      <c r="IG3" s="167"/>
+      <c r="HY3" s="168"/>
+      <c r="HZ3" s="168"/>
+      <c r="IA3" s="168"/>
+      <c r="IB3" s="168"/>
+      <c r="IC3" s="168"/>
+      <c r="ID3" s="168"/>
+      <c r="IE3" s="168"/>
+      <c r="IF3" s="168"/>
+      <c r="IG3" s="168"/>
       <c r="IJ3" s="157"/>
       <c r="IK3" s="157"/>
       <c r="IQ3" s="157"/>
@@ -5791,15 +5825,15 @@
       <c r="JN3" s="157"/>
       <c r="JS3" s="157"/>
       <c r="JT3" s="157"/>
-      <c r="JW3" s="163"/>
-      <c r="JX3" s="163"/>
-      <c r="JY3" s="163"/>
+      <c r="JW3" s="164"/>
+      <c r="JX3" s="164"/>
+      <c r="JY3" s="164"/>
       <c r="JZ3" s="157"/>
       <c r="KA3" s="157"/>
-      <c r="KB3" s="163"/>
-      <c r="KC3" s="163"/>
+      <c r="KB3" s="164"/>
+      <c r="KC3" s="164"/>
       <c r="KG3" s="157"/>
-      <c r="KH3" s="161"/>
+      <c r="KH3" s="162"/>
       <c r="KN3" s="157"/>
       <c r="KO3" s="157"/>
       <c r="KP3" s="157"/>
@@ -5843,19 +5877,19 @@
       <c r="PK3" s="157"/>
       <c r="PQ3" s="157"/>
       <c r="PR3" s="157"/>
-      <c r="PX3" s="163"/>
-      <c r="PY3" s="163"/>
-      <c r="PZ3" s="161"/>
-      <c r="QA3" s="163"/>
+      <c r="PX3" s="164"/>
+      <c r="PY3" s="164"/>
+      <c r="PZ3" s="162"/>
+      <c r="QA3" s="164"/>
       <c r="QE3" s="157"/>
       <c r="QF3" s="157"/>
-      <c r="QK3" s="163"/>
-      <c r="QL3" s="165"/>
-      <c r="QM3" s="163"/>
-      <c r="QN3" s="161"/>
-      <c r="QO3" s="161"/>
-      <c r="QP3" s="161"/>
-      <c r="QQ3" s="161"/>
+      <c r="QK3" s="164"/>
+      <c r="QL3" s="166"/>
+      <c r="QM3" s="164"/>
+      <c r="QN3" s="162"/>
+      <c r="QO3" s="162"/>
+      <c r="QP3" s="162"/>
+      <c r="QQ3" s="162"/>
       <c r="QS3" s="157"/>
       <c r="QT3" s="157"/>
       <c r="QZ3" s="157"/>
@@ -5898,7 +5932,7 @@
       <c r="K4" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="143" t="s">
+      <c r="L4" s="160" t="s">
         <v>20</v>
       </c>
       <c r="BB4" s="141" t="s">
@@ -5989,189 +6023,189 @@
       <c r="I9" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="160"/>
-      <c r="N9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="AA9" s="161"/>
+      <c r="AB9" s="161"/>
       <c r="AC9" s="156"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
-      <c r="AO9" s="160"/>
-      <c r="AP9" s="160"/>
-      <c r="AV9" s="160"/>
-      <c r="AW9" s="160"/>
-      <c r="BC9" s="160"/>
-      <c r="BD9" s="160"/>
-      <c r="BJ9" s="160"/>
-      <c r="BK9" s="160"/>
+      <c r="AH9" s="161"/>
+      <c r="AI9" s="161"/>
+      <c r="AO9" s="161"/>
+      <c r="AP9" s="161"/>
+      <c r="AV9" s="161"/>
+      <c r="AW9" s="161"/>
+      <c r="BC9" s="161"/>
+      <c r="BD9" s="161"/>
+      <c r="BJ9" s="161"/>
+      <c r="BK9" s="161"/>
       <c r="BM9" s="156"/>
-      <c r="BQ9" s="160"/>
-      <c r="BR9" s="160"/>
-      <c r="BX9" s="160"/>
-      <c r="BY9" s="160"/>
-      <c r="CE9" s="160"/>
+      <c r="BQ9" s="161"/>
+      <c r="BR9" s="161"/>
+      <c r="BX9" s="161"/>
+      <c r="BY9" s="161"/>
+      <c r="CE9" s="161"/>
       <c r="CF9" s="156"/>
-      <c r="CJ9" s="160"/>
-      <c r="CK9" s="160"/>
-      <c r="CL9" s="160"/>
-      <c r="CM9" s="160"/>
-      <c r="CN9" s="160"/>
-      <c r="CO9" s="160"/>
-      <c r="CP9" s="160"/>
-      <c r="CQ9" s="160"/>
+      <c r="CJ9" s="161"/>
+      <c r="CK9" s="161"/>
+      <c r="CL9" s="161"/>
+      <c r="CM9" s="161"/>
+      <c r="CN9" s="161"/>
+      <c r="CO9" s="161"/>
+      <c r="CP9" s="161"/>
+      <c r="CQ9" s="161"/>
       <c r="CS9" s="156"/>
-      <c r="CT9" s="160"/>
-      <c r="CZ9" s="160"/>
-      <c r="DA9" s="160"/>
-      <c r="DG9" s="160"/>
-      <c r="DH9" s="160"/>
-      <c r="DN9" s="160"/>
-      <c r="DO9" s="160"/>
-      <c r="DU9" s="160"/>
-      <c r="DV9" s="160"/>
-      <c r="EB9" s="160"/>
-      <c r="EC9" s="160"/>
-      <c r="EI9" s="160"/>
-      <c r="EJ9" s="160"/>
-      <c r="EP9" s="160"/>
-      <c r="EQ9" s="160"/>
-      <c r="ER9" s="164"/>
-      <c r="ES9" s="164"/>
-      <c r="ET9" s="164"/>
-      <c r="EU9" s="164"/>
-      <c r="EW9" s="160"/>
-      <c r="EX9" s="160"/>
-      <c r="FD9" s="160"/>
-      <c r="FE9" s="160"/>
-      <c r="FK9" s="160"/>
-      <c r="FL9" s="160"/>
-      <c r="FR9" s="160"/>
-      <c r="FS9" s="160"/>
-      <c r="FX9" s="160"/>
-      <c r="FY9" s="160"/>
-      <c r="FZ9" s="160"/>
-      <c r="GF9" s="160"/>
-      <c r="GG9" s="160"/>
-      <c r="GM9" s="160"/>
-      <c r="GN9" s="160"/>
-      <c r="GT9" s="160"/>
-      <c r="GU9" s="160"/>
-      <c r="HA9" s="160"/>
-      <c r="HB9" s="160"/>
-      <c r="HH9" s="160"/>
+      <c r="CT9" s="161"/>
+      <c r="CZ9" s="161"/>
+      <c r="DA9" s="161"/>
+      <c r="DG9" s="161"/>
+      <c r="DH9" s="161"/>
+      <c r="DN9" s="161"/>
+      <c r="DO9" s="161"/>
+      <c r="DU9" s="161"/>
+      <c r="DV9" s="161"/>
+      <c r="EB9" s="161"/>
+      <c r="EC9" s="161"/>
+      <c r="EI9" s="161"/>
+      <c r="EJ9" s="161"/>
+      <c r="EP9" s="161"/>
+      <c r="EQ9" s="161"/>
+      <c r="ER9" s="165"/>
+      <c r="ES9" s="165"/>
+      <c r="ET9" s="165"/>
+      <c r="EU9" s="165"/>
+      <c r="EW9" s="161"/>
+      <c r="EX9" s="161"/>
+      <c r="FD9" s="161"/>
+      <c r="FE9" s="161"/>
+      <c r="FK9" s="161"/>
+      <c r="FL9" s="161"/>
+      <c r="FR9" s="161"/>
+      <c r="FS9" s="161"/>
+      <c r="FX9" s="161"/>
+      <c r="FY9" s="161"/>
+      <c r="FZ9" s="161"/>
+      <c r="GF9" s="161"/>
+      <c r="GG9" s="161"/>
+      <c r="GM9" s="161"/>
+      <c r="GN9" s="161"/>
+      <c r="GT9" s="161"/>
+      <c r="GU9" s="161"/>
+      <c r="HA9" s="161"/>
+      <c r="HB9" s="161"/>
+      <c r="HH9" s="161"/>
       <c r="HI9" s="156"/>
-      <c r="HK9" s="166"/>
-      <c r="HL9" s="160"/>
-      <c r="HM9" s="160"/>
-      <c r="HN9" s="160"/>
-      <c r="HO9" s="160"/>
-      <c r="HP9" s="160"/>
-      <c r="HQ9" s="160"/>
-      <c r="HR9" s="160"/>
-      <c r="HS9" s="160"/>
-      <c r="HV9" s="166"/>
-      <c r="HW9" s="160"/>
-      <c r="HY9" s="168"/>
-      <c r="HZ9" s="168"/>
-      <c r="IA9" s="168"/>
-      <c r="IB9" s="168"/>
-      <c r="IC9" s="168"/>
-      <c r="ID9" s="168"/>
-      <c r="IE9" s="168"/>
-      <c r="IF9" s="168"/>
-      <c r="IG9" s="168"/>
-      <c r="IJ9" s="160"/>
-      <c r="IK9" s="160"/>
-      <c r="IQ9" s="160"/>
-      <c r="IR9" s="160"/>
-      <c r="IX9" s="160"/>
-      <c r="IY9" s="160"/>
-      <c r="JE9" s="160"/>
-      <c r="JF9" s="160"/>
-      <c r="JL9" s="160"/>
-      <c r="JM9" s="160"/>
-      <c r="JN9" s="160"/>
-      <c r="JS9" s="160"/>
-      <c r="JT9" s="160"/>
-      <c r="JW9" s="164"/>
-      <c r="JX9" s="164"/>
-      <c r="JY9" s="164"/>
-      <c r="JZ9" s="160"/>
-      <c r="KA9" s="160"/>
-      <c r="KB9" s="164"/>
-      <c r="KC9" s="164"/>
-      <c r="KG9" s="160"/>
+      <c r="HK9" s="167"/>
+      <c r="HL9" s="161"/>
+      <c r="HM9" s="161"/>
+      <c r="HN9" s="161"/>
+      <c r="HO9" s="161"/>
+      <c r="HP9" s="161"/>
+      <c r="HQ9" s="161"/>
+      <c r="HR9" s="161"/>
+      <c r="HS9" s="161"/>
+      <c r="HV9" s="167"/>
+      <c r="HW9" s="161"/>
+      <c r="HY9" s="169"/>
+      <c r="HZ9" s="169"/>
+      <c r="IA9" s="169"/>
+      <c r="IB9" s="169"/>
+      <c r="IC9" s="169"/>
+      <c r="ID9" s="169"/>
+      <c r="IE9" s="169"/>
+      <c r="IF9" s="169"/>
+      <c r="IG9" s="169"/>
+      <c r="IJ9" s="161"/>
+      <c r="IK9" s="161"/>
+      <c r="IQ9" s="161"/>
+      <c r="IR9" s="161"/>
+      <c r="IX9" s="161"/>
+      <c r="IY9" s="161"/>
+      <c r="JE9" s="161"/>
+      <c r="JF9" s="161"/>
+      <c r="JL9" s="161"/>
+      <c r="JM9" s="161"/>
+      <c r="JN9" s="161"/>
+      <c r="JS9" s="161"/>
+      <c r="JT9" s="161"/>
+      <c r="JW9" s="165"/>
+      <c r="JX9" s="165"/>
+      <c r="JY9" s="165"/>
+      <c r="JZ9" s="161"/>
+      <c r="KA9" s="161"/>
+      <c r="KB9" s="165"/>
+      <c r="KC9" s="165"/>
+      <c r="KG9" s="161"/>
       <c r="KH9" s="156"/>
-      <c r="KN9" s="160"/>
-      <c r="KO9" s="160"/>
-      <c r="KP9" s="160"/>
-      <c r="KQ9" s="160"/>
-      <c r="KR9" s="160"/>
-      <c r="KV9" s="160"/>
-      <c r="LB9" s="160"/>
-      <c r="LC9" s="160"/>
-      <c r="LI9" s="160"/>
-      <c r="LJ9" s="160"/>
-      <c r="LP9" s="160"/>
-      <c r="LQ9" s="160"/>
-      <c r="LW9" s="160"/>
-      <c r="LX9" s="160"/>
-      <c r="MD9" s="160"/>
-      <c r="ME9" s="160"/>
-      <c r="MF9" s="160"/>
-      <c r="MK9" s="160"/>
-      <c r="ML9" s="160"/>
-      <c r="MR9" s="160"/>
-      <c r="MS9" s="160"/>
-      <c r="MY9" s="160"/>
-      <c r="MZ9" s="160"/>
-      <c r="NF9" s="160"/>
-      <c r="NG9" s="160"/>
-      <c r="NM9" s="160"/>
-      <c r="NN9" s="160"/>
-      <c r="NT9" s="160"/>
-      <c r="NU9" s="160"/>
-      <c r="OA9" s="160"/>
-      <c r="OB9" s="160"/>
-      <c r="OH9" s="160"/>
-      <c r="OI9" s="160"/>
-      <c r="OO9" s="160"/>
-      <c r="OP9" s="160"/>
-      <c r="OV9" s="160"/>
-      <c r="OW9" s="160"/>
-      <c r="PC9" s="160"/>
-      <c r="PD9" s="160"/>
-      <c r="PJ9" s="160"/>
-      <c r="PK9" s="160"/>
-      <c r="PQ9" s="160"/>
-      <c r="PR9" s="160"/>
-      <c r="PX9" s="164"/>
-      <c r="PY9" s="164"/>
+      <c r="KN9" s="161"/>
+      <c r="KO9" s="161"/>
+      <c r="KP9" s="161"/>
+      <c r="KQ9" s="161"/>
+      <c r="KR9" s="161"/>
+      <c r="KV9" s="161"/>
+      <c r="LB9" s="161"/>
+      <c r="LC9" s="161"/>
+      <c r="LI9" s="161"/>
+      <c r="LJ9" s="161"/>
+      <c r="LP9" s="161"/>
+      <c r="LQ9" s="161"/>
+      <c r="LW9" s="161"/>
+      <c r="LX9" s="161"/>
+      <c r="MD9" s="161"/>
+      <c r="ME9" s="161"/>
+      <c r="MF9" s="161"/>
+      <c r="MK9" s="161"/>
+      <c r="ML9" s="161"/>
+      <c r="MR9" s="161"/>
+      <c r="MS9" s="161"/>
+      <c r="MY9" s="161"/>
+      <c r="MZ9" s="161"/>
+      <c r="NF9" s="161"/>
+      <c r="NG9" s="161"/>
+      <c r="NM9" s="161"/>
+      <c r="NN9" s="161"/>
+      <c r="NT9" s="161"/>
+      <c r="NU9" s="161"/>
+      <c r="OA9" s="161"/>
+      <c r="OB9" s="161"/>
+      <c r="OH9" s="161"/>
+      <c r="OI9" s="161"/>
+      <c r="OO9" s="161"/>
+      <c r="OP9" s="161"/>
+      <c r="OV9" s="161"/>
+      <c r="OW9" s="161"/>
+      <c r="PC9" s="161"/>
+      <c r="PD9" s="161"/>
+      <c r="PJ9" s="161"/>
+      <c r="PK9" s="161"/>
+      <c r="PQ9" s="161"/>
+      <c r="PR9" s="161"/>
+      <c r="PX9" s="165"/>
+      <c r="PY9" s="165"/>
       <c r="PZ9" s="156"/>
-      <c r="QA9" s="164"/>
-      <c r="QE9" s="160"/>
-      <c r="QF9" s="160"/>
-      <c r="QK9" s="164"/>
-      <c r="QL9" s="166"/>
-      <c r="QM9" s="164"/>
+      <c r="QA9" s="165"/>
+      <c r="QE9" s="161"/>
+      <c r="QF9" s="161"/>
+      <c r="QK9" s="165"/>
+      <c r="QL9" s="167"/>
+      <c r="QM9" s="165"/>
       <c r="QN9" s="156"/>
       <c r="QO9" s="156"/>
       <c r="QP9" s="156"/>
       <c r="QQ9" s="156"/>
-      <c r="QS9" s="160"/>
-      <c r="QT9" s="160"/>
-      <c r="QZ9" s="160"/>
-      <c r="RA9" s="160"/>
-      <c r="RG9" s="160"/>
-      <c r="RH9" s="160"/>
-      <c r="RN9" s="160"/>
-      <c r="RO9" s="160"/>
-      <c r="RU9" s="160"/>
-      <c r="RV9" s="160"/>
-      <c r="SB9" s="160"/>
-      <c r="SC9" s="160"/>
+      <c r="QS9" s="161"/>
+      <c r="QT9" s="161"/>
+      <c r="QZ9" s="161"/>
+      <c r="RA9" s="161"/>
+      <c r="RG9" s="161"/>
+      <c r="RH9" s="161"/>
+      <c r="RN9" s="161"/>
+      <c r="RO9" s="161"/>
+      <c r="RU9" s="161"/>
+      <c r="RV9" s="161"/>
+      <c r="SB9" s="161"/>
+      <c r="SC9" s="161"/>
     </row>
     <row r="10" ht="40.05" customHeight="1" spans="1:6">
       <c r="A10" s="141"/>
@@ -6199,189 +6233,189 @@
         <v>31</v>
       </c>
       <c r="I11" s="156"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="AA11" s="161"/>
+      <c r="AB11" s="161"/>
       <c r="AC11" s="156"/>
-      <c r="AH11" s="160"/>
-      <c r="AI11" s="160"/>
-      <c r="AO11" s="160"/>
-      <c r="AP11" s="160"/>
-      <c r="AV11" s="160"/>
-      <c r="AW11" s="160"/>
-      <c r="BC11" s="160"/>
-      <c r="BD11" s="160"/>
-      <c r="BJ11" s="160"/>
-      <c r="BK11" s="160"/>
+      <c r="AH11" s="161"/>
+      <c r="AI11" s="161"/>
+      <c r="AO11" s="161"/>
+      <c r="AP11" s="161"/>
+      <c r="AV11" s="161"/>
+      <c r="AW11" s="161"/>
+      <c r="BC11" s="161"/>
+      <c r="BD11" s="161"/>
+      <c r="BJ11" s="161"/>
+      <c r="BK11" s="161"/>
       <c r="BM11" s="156"/>
-      <c r="BQ11" s="160"/>
-      <c r="BR11" s="160"/>
-      <c r="BX11" s="160"/>
-      <c r="BY11" s="160"/>
-      <c r="CE11" s="160"/>
+      <c r="BQ11" s="161"/>
+      <c r="BR11" s="161"/>
+      <c r="BX11" s="161"/>
+      <c r="BY11" s="161"/>
+      <c r="CE11" s="161"/>
       <c r="CF11" s="156"/>
-      <c r="CJ11" s="160"/>
-      <c r="CK11" s="160"/>
-      <c r="CL11" s="160"/>
-      <c r="CM11" s="160"/>
-      <c r="CN11" s="160"/>
-      <c r="CO11" s="160"/>
-      <c r="CP11" s="160"/>
-      <c r="CQ11" s="160"/>
+      <c r="CJ11" s="161"/>
+      <c r="CK11" s="161"/>
+      <c r="CL11" s="161"/>
+      <c r="CM11" s="161"/>
+      <c r="CN11" s="161"/>
+      <c r="CO11" s="161"/>
+      <c r="CP11" s="161"/>
+      <c r="CQ11" s="161"/>
       <c r="CS11" s="156"/>
-      <c r="CT11" s="160"/>
-      <c r="CZ11" s="160"/>
-      <c r="DA11" s="160"/>
-      <c r="DG11" s="160"/>
-      <c r="DH11" s="160"/>
-      <c r="DN11" s="160"/>
-      <c r="DO11" s="160"/>
-      <c r="DU11" s="160"/>
-      <c r="DV11" s="160"/>
-      <c r="EB11" s="160"/>
-      <c r="EC11" s="160"/>
-      <c r="EI11" s="160"/>
-      <c r="EJ11" s="160"/>
-      <c r="EP11" s="160"/>
-      <c r="EQ11" s="160"/>
-      <c r="ER11" s="164"/>
-      <c r="ES11" s="164"/>
-      <c r="ET11" s="164"/>
-      <c r="EU11" s="164"/>
-      <c r="EW11" s="160"/>
-      <c r="EX11" s="160"/>
-      <c r="FD11" s="160"/>
-      <c r="FE11" s="160"/>
-      <c r="FK11" s="160"/>
-      <c r="FL11" s="160"/>
-      <c r="FR11" s="160"/>
-      <c r="FS11" s="160"/>
-      <c r="FX11" s="160"/>
-      <c r="FY11" s="160"/>
-      <c r="FZ11" s="160"/>
-      <c r="GF11" s="160"/>
-      <c r="GG11" s="160"/>
-      <c r="GM11" s="160"/>
-      <c r="GN11" s="160"/>
-      <c r="GT11" s="160"/>
-      <c r="GU11" s="160"/>
-      <c r="HA11" s="160"/>
-      <c r="HB11" s="160"/>
-      <c r="HH11" s="160"/>
+      <c r="CT11" s="161"/>
+      <c r="CZ11" s="161"/>
+      <c r="DA11" s="161"/>
+      <c r="DG11" s="161"/>
+      <c r="DH11" s="161"/>
+      <c r="DN11" s="161"/>
+      <c r="DO11" s="161"/>
+      <c r="DU11" s="161"/>
+      <c r="DV11" s="161"/>
+      <c r="EB11" s="161"/>
+      <c r="EC11" s="161"/>
+      <c r="EI11" s="161"/>
+      <c r="EJ11" s="161"/>
+      <c r="EP11" s="161"/>
+      <c r="EQ11" s="161"/>
+      <c r="ER11" s="165"/>
+      <c r="ES11" s="165"/>
+      <c r="ET11" s="165"/>
+      <c r="EU11" s="165"/>
+      <c r="EW11" s="161"/>
+      <c r="EX11" s="161"/>
+      <c r="FD11" s="161"/>
+      <c r="FE11" s="161"/>
+      <c r="FK11" s="161"/>
+      <c r="FL11" s="161"/>
+      <c r="FR11" s="161"/>
+      <c r="FS11" s="161"/>
+      <c r="FX11" s="161"/>
+      <c r="FY11" s="161"/>
+      <c r="FZ11" s="161"/>
+      <c r="GF11" s="161"/>
+      <c r="GG11" s="161"/>
+      <c r="GM11" s="161"/>
+      <c r="GN11" s="161"/>
+      <c r="GT11" s="161"/>
+      <c r="GU11" s="161"/>
+      <c r="HA11" s="161"/>
+      <c r="HB11" s="161"/>
+      <c r="HH11" s="161"/>
       <c r="HI11" s="156"/>
-      <c r="HK11" s="166"/>
-      <c r="HL11" s="160"/>
-      <c r="HM11" s="160"/>
-      <c r="HN11" s="160"/>
-      <c r="HO11" s="160"/>
-      <c r="HP11" s="160"/>
-      <c r="HQ11" s="160"/>
-      <c r="HR11" s="160"/>
-      <c r="HS11" s="160"/>
-      <c r="HV11" s="166"/>
-      <c r="HW11" s="160"/>
-      <c r="HY11" s="168"/>
-      <c r="HZ11" s="168"/>
-      <c r="IA11" s="168"/>
-      <c r="IB11" s="168"/>
-      <c r="IC11" s="168"/>
-      <c r="ID11" s="168"/>
-      <c r="IE11" s="168"/>
-      <c r="IF11" s="168"/>
-      <c r="IG11" s="168"/>
-      <c r="IJ11" s="160"/>
-      <c r="IK11" s="160"/>
-      <c r="IQ11" s="160"/>
-      <c r="IR11" s="160"/>
-      <c r="IX11" s="160"/>
-      <c r="IY11" s="160"/>
-      <c r="JE11" s="160"/>
-      <c r="JF11" s="160"/>
-      <c r="JL11" s="160"/>
-      <c r="JM11" s="160"/>
-      <c r="JN11" s="160"/>
-      <c r="JS11" s="160"/>
-      <c r="JT11" s="160"/>
-      <c r="JW11" s="164"/>
-      <c r="JX11" s="164"/>
-      <c r="JY11" s="164"/>
-      <c r="JZ11" s="160"/>
-      <c r="KA11" s="160"/>
-      <c r="KB11" s="164"/>
-      <c r="KC11" s="164"/>
-      <c r="KG11" s="160"/>
+      <c r="HK11" s="167"/>
+      <c r="HL11" s="161"/>
+      <c r="HM11" s="161"/>
+      <c r="HN11" s="161"/>
+      <c r="HO11" s="161"/>
+      <c r="HP11" s="161"/>
+      <c r="HQ11" s="161"/>
+      <c r="HR11" s="161"/>
+      <c r="HS11" s="161"/>
+      <c r="HV11" s="167"/>
+      <c r="HW11" s="161"/>
+      <c r="HY11" s="169"/>
+      <c r="HZ11" s="169"/>
+      <c r="IA11" s="169"/>
+      <c r="IB11" s="169"/>
+      <c r="IC11" s="169"/>
+      <c r="ID11" s="169"/>
+      <c r="IE11" s="169"/>
+      <c r="IF11" s="169"/>
+      <c r="IG11" s="169"/>
+      <c r="IJ11" s="161"/>
+      <c r="IK11" s="161"/>
+      <c r="IQ11" s="161"/>
+      <c r="IR11" s="161"/>
+      <c r="IX11" s="161"/>
+      <c r="IY11" s="161"/>
+      <c r="JE11" s="161"/>
+      <c r="JF11" s="161"/>
+      <c r="JL11" s="161"/>
+      <c r="JM11" s="161"/>
+      <c r="JN11" s="161"/>
+      <c r="JS11" s="161"/>
+      <c r="JT11" s="161"/>
+      <c r="JW11" s="165"/>
+      <c r="JX11" s="165"/>
+      <c r="JY11" s="165"/>
+      <c r="JZ11" s="161"/>
+      <c r="KA11" s="161"/>
+      <c r="KB11" s="165"/>
+      <c r="KC11" s="165"/>
+      <c r="KG11" s="161"/>
       <c r="KH11" s="156"/>
-      <c r="KN11" s="160"/>
-      <c r="KO11" s="160"/>
-      <c r="KP11" s="160"/>
-      <c r="KQ11" s="160"/>
-      <c r="KR11" s="160"/>
-      <c r="KV11" s="160"/>
-      <c r="LB11" s="160"/>
-      <c r="LC11" s="160"/>
-      <c r="LI11" s="160"/>
-      <c r="LJ11" s="160"/>
-      <c r="LP11" s="160"/>
-      <c r="LQ11" s="160"/>
-      <c r="LW11" s="160"/>
-      <c r="LX11" s="160"/>
-      <c r="MD11" s="160"/>
-      <c r="ME11" s="160"/>
-      <c r="MF11" s="160"/>
-      <c r="MK11" s="160"/>
-      <c r="ML11" s="160"/>
-      <c r="MR11" s="160"/>
-      <c r="MS11" s="160"/>
-      <c r="MY11" s="160"/>
-      <c r="MZ11" s="160"/>
-      <c r="NF11" s="160"/>
-      <c r="NG11" s="160"/>
-      <c r="NM11" s="160"/>
-      <c r="NN11" s="160"/>
-      <c r="NT11" s="160"/>
-      <c r="NU11" s="160"/>
-      <c r="OA11" s="160"/>
-      <c r="OB11" s="160"/>
-      <c r="OH11" s="160"/>
-      <c r="OI11" s="160"/>
-      <c r="OO11" s="160"/>
-      <c r="OP11" s="160"/>
-      <c r="OV11" s="160"/>
-      <c r="OW11" s="160"/>
-      <c r="PC11" s="160"/>
-      <c r="PD11" s="160"/>
-      <c r="PJ11" s="160"/>
-      <c r="PK11" s="160"/>
-      <c r="PQ11" s="160"/>
-      <c r="PR11" s="160"/>
-      <c r="PX11" s="164"/>
-      <c r="PY11" s="164"/>
+      <c r="KN11" s="161"/>
+      <c r="KO11" s="161"/>
+      <c r="KP11" s="161"/>
+      <c r="KQ11" s="161"/>
+      <c r="KR11" s="161"/>
+      <c r="KV11" s="161"/>
+      <c r="LB11" s="161"/>
+      <c r="LC11" s="161"/>
+      <c r="LI11" s="161"/>
+      <c r="LJ11" s="161"/>
+      <c r="LP11" s="161"/>
+      <c r="LQ11" s="161"/>
+      <c r="LW11" s="161"/>
+      <c r="LX11" s="161"/>
+      <c r="MD11" s="161"/>
+      <c r="ME11" s="161"/>
+      <c r="MF11" s="161"/>
+      <c r="MK11" s="161"/>
+      <c r="ML11" s="161"/>
+      <c r="MR11" s="161"/>
+      <c r="MS11" s="161"/>
+      <c r="MY11" s="161"/>
+      <c r="MZ11" s="161"/>
+      <c r="NF11" s="161"/>
+      <c r="NG11" s="161"/>
+      <c r="NM11" s="161"/>
+      <c r="NN11" s="161"/>
+      <c r="NT11" s="161"/>
+      <c r="NU11" s="161"/>
+      <c r="OA11" s="161"/>
+      <c r="OB11" s="161"/>
+      <c r="OH11" s="161"/>
+      <c r="OI11" s="161"/>
+      <c r="OO11" s="161"/>
+      <c r="OP11" s="161"/>
+      <c r="OV11" s="161"/>
+      <c r="OW11" s="161"/>
+      <c r="PC11" s="161"/>
+      <c r="PD11" s="161"/>
+      <c r="PJ11" s="161"/>
+      <c r="PK11" s="161"/>
+      <c r="PQ11" s="161"/>
+      <c r="PR11" s="161"/>
+      <c r="PX11" s="165"/>
+      <c r="PY11" s="165"/>
       <c r="PZ11" s="156"/>
-      <c r="QA11" s="164"/>
-      <c r="QE11" s="160"/>
-      <c r="QF11" s="160"/>
-      <c r="QK11" s="164"/>
-      <c r="QL11" s="166"/>
-      <c r="QM11" s="164"/>
+      <c r="QA11" s="165"/>
+      <c r="QE11" s="161"/>
+      <c r="QF11" s="161"/>
+      <c r="QK11" s="165"/>
+      <c r="QL11" s="167"/>
+      <c r="QM11" s="165"/>
       <c r="QN11" s="156"/>
       <c r="QO11" s="156"/>
       <c r="QP11" s="156"/>
       <c r="QQ11" s="156"/>
-      <c r="QS11" s="160"/>
-      <c r="QT11" s="160"/>
-      <c r="QZ11" s="160"/>
-      <c r="RA11" s="160"/>
-      <c r="RG11" s="160"/>
-      <c r="RH11" s="160"/>
-      <c r="RN11" s="160"/>
-      <c r="RO11" s="160"/>
-      <c r="RU11" s="160"/>
-      <c r="RV11" s="160"/>
-      <c r="SB11" s="160"/>
-      <c r="SC11" s="160"/>
+      <c r="QS11" s="161"/>
+      <c r="QT11" s="161"/>
+      <c r="QZ11" s="161"/>
+      <c r="RA11" s="161"/>
+      <c r="RG11" s="161"/>
+      <c r="RH11" s="161"/>
+      <c r="RN11" s="161"/>
+      <c r="RO11" s="161"/>
+      <c r="RU11" s="161"/>
+      <c r="RV11" s="161"/>
+      <c r="SB11" s="161"/>
+      <c r="SC11" s="161"/>
     </row>
     <row r="12" ht="40.05" customHeight="1" spans="1:6">
       <c r="A12" s="141"/>
@@ -6411,189 +6445,189 @@
       <c r="I13" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="161"/>
+      <c r="AA13" s="161"/>
+      <c r="AB13" s="161"/>
       <c r="AC13" s="156"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AO13" s="160"/>
-      <c r="AP13" s="160"/>
-      <c r="AV13" s="160"/>
-      <c r="AW13" s="160"/>
-      <c r="BC13" s="160"/>
-      <c r="BD13" s="160"/>
-      <c r="BJ13" s="160"/>
-      <c r="BK13" s="160"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="161"/>
+      <c r="AO13" s="161"/>
+      <c r="AP13" s="161"/>
+      <c r="AV13" s="161"/>
+      <c r="AW13" s="161"/>
+      <c r="BC13" s="161"/>
+      <c r="BD13" s="161"/>
+      <c r="BJ13" s="161"/>
+      <c r="BK13" s="161"/>
       <c r="BM13" s="156"/>
-      <c r="BQ13" s="160"/>
-      <c r="BR13" s="160"/>
-      <c r="BX13" s="160"/>
-      <c r="BY13" s="160"/>
-      <c r="CE13" s="160"/>
+      <c r="BQ13" s="161"/>
+      <c r="BR13" s="161"/>
+      <c r="BX13" s="161"/>
+      <c r="BY13" s="161"/>
+      <c r="CE13" s="161"/>
       <c r="CF13" s="156"/>
-      <c r="CJ13" s="160"/>
-      <c r="CK13" s="160"/>
-      <c r="CL13" s="160"/>
-      <c r="CM13" s="160"/>
-      <c r="CN13" s="160"/>
-      <c r="CO13" s="160"/>
-      <c r="CP13" s="160"/>
-      <c r="CQ13" s="160"/>
+      <c r="CJ13" s="161"/>
+      <c r="CK13" s="161"/>
+      <c r="CL13" s="161"/>
+      <c r="CM13" s="161"/>
+      <c r="CN13" s="161"/>
+      <c r="CO13" s="161"/>
+      <c r="CP13" s="161"/>
+      <c r="CQ13" s="161"/>
       <c r="CS13" s="156"/>
-      <c r="CT13" s="160"/>
-      <c r="CZ13" s="160"/>
-      <c r="DA13" s="160"/>
-      <c r="DG13" s="160"/>
-      <c r="DH13" s="160"/>
-      <c r="DN13" s="160"/>
-      <c r="DO13" s="160"/>
-      <c r="DU13" s="160"/>
-      <c r="DV13" s="160"/>
-      <c r="EB13" s="160"/>
-      <c r="EC13" s="160"/>
-      <c r="EI13" s="160"/>
-      <c r="EJ13" s="160"/>
-      <c r="EP13" s="160"/>
-      <c r="EQ13" s="160"/>
-      <c r="ER13" s="164"/>
-      <c r="ES13" s="164"/>
-      <c r="ET13" s="164"/>
-      <c r="EU13" s="164"/>
-      <c r="EW13" s="160"/>
-      <c r="EX13" s="160"/>
-      <c r="FD13" s="160"/>
-      <c r="FE13" s="160"/>
-      <c r="FK13" s="160"/>
-      <c r="FL13" s="160"/>
-      <c r="FR13" s="160"/>
-      <c r="FS13" s="160"/>
-      <c r="FX13" s="160"/>
-      <c r="FY13" s="160"/>
-      <c r="FZ13" s="160"/>
-      <c r="GF13" s="160"/>
-      <c r="GG13" s="160"/>
-      <c r="GM13" s="160"/>
-      <c r="GN13" s="160"/>
-      <c r="GT13" s="160"/>
-      <c r="GU13" s="160"/>
-      <c r="HA13" s="160"/>
-      <c r="HB13" s="160"/>
-      <c r="HH13" s="160"/>
+      <c r="CT13" s="161"/>
+      <c r="CZ13" s="161"/>
+      <c r="DA13" s="161"/>
+      <c r="DG13" s="161"/>
+      <c r="DH13" s="161"/>
+      <c r="DN13" s="161"/>
+      <c r="DO13" s="161"/>
+      <c r="DU13" s="161"/>
+      <c r="DV13" s="161"/>
+      <c r="EB13" s="161"/>
+      <c r="EC13" s="161"/>
+      <c r="EI13" s="161"/>
+      <c r="EJ13" s="161"/>
+      <c r="EP13" s="161"/>
+      <c r="EQ13" s="161"/>
+      <c r="ER13" s="165"/>
+      <c r="ES13" s="165"/>
+      <c r="ET13" s="165"/>
+      <c r="EU13" s="165"/>
+      <c r="EW13" s="161"/>
+      <c r="EX13" s="161"/>
+      <c r="FD13" s="161"/>
+      <c r="FE13" s="161"/>
+      <c r="FK13" s="161"/>
+      <c r="FL13" s="161"/>
+      <c r="FR13" s="161"/>
+      <c r="FS13" s="161"/>
+      <c r="FX13" s="161"/>
+      <c r="FY13" s="161"/>
+      <c r="FZ13" s="161"/>
+      <c r="GF13" s="161"/>
+      <c r="GG13" s="161"/>
+      <c r="GM13" s="161"/>
+      <c r="GN13" s="161"/>
+      <c r="GT13" s="161"/>
+      <c r="GU13" s="161"/>
+      <c r="HA13" s="161"/>
+      <c r="HB13" s="161"/>
+      <c r="HH13" s="161"/>
       <c r="HI13" s="156"/>
-      <c r="HK13" s="166"/>
-      <c r="HL13" s="160"/>
-      <c r="HM13" s="160"/>
-      <c r="HN13" s="160"/>
-      <c r="HO13" s="160"/>
-      <c r="HP13" s="160"/>
-      <c r="HQ13" s="160"/>
-      <c r="HR13" s="160"/>
-      <c r="HS13" s="160"/>
-      <c r="HV13" s="166"/>
-      <c r="HW13" s="160"/>
-      <c r="HY13" s="168"/>
-      <c r="HZ13" s="168"/>
-      <c r="IA13" s="168"/>
-      <c r="IB13" s="168"/>
-      <c r="IC13" s="168"/>
-      <c r="ID13" s="168"/>
-      <c r="IE13" s="168"/>
-      <c r="IF13" s="168"/>
-      <c r="IG13" s="168"/>
-      <c r="IJ13" s="160"/>
-      <c r="IK13" s="160"/>
-      <c r="IQ13" s="160"/>
-      <c r="IR13" s="160"/>
-      <c r="IX13" s="160"/>
-      <c r="IY13" s="160"/>
-      <c r="JE13" s="160"/>
-      <c r="JF13" s="160"/>
-      <c r="JL13" s="160"/>
-      <c r="JM13" s="160"/>
-      <c r="JN13" s="160"/>
-      <c r="JS13" s="160"/>
-      <c r="JT13" s="160"/>
-      <c r="JW13" s="164"/>
-      <c r="JX13" s="164"/>
-      <c r="JY13" s="164"/>
-      <c r="JZ13" s="160"/>
-      <c r="KA13" s="160"/>
-      <c r="KB13" s="164"/>
-      <c r="KC13" s="164"/>
-      <c r="KG13" s="160"/>
+      <c r="HK13" s="167"/>
+      <c r="HL13" s="161"/>
+      <c r="HM13" s="161"/>
+      <c r="HN13" s="161"/>
+      <c r="HO13" s="161"/>
+      <c r="HP13" s="161"/>
+      <c r="HQ13" s="161"/>
+      <c r="HR13" s="161"/>
+      <c r="HS13" s="161"/>
+      <c r="HV13" s="167"/>
+      <c r="HW13" s="161"/>
+      <c r="HY13" s="169"/>
+      <c r="HZ13" s="169"/>
+      <c r="IA13" s="169"/>
+      <c r="IB13" s="169"/>
+      <c r="IC13" s="169"/>
+      <c r="ID13" s="169"/>
+      <c r="IE13" s="169"/>
+      <c r="IF13" s="169"/>
+      <c r="IG13" s="169"/>
+      <c r="IJ13" s="161"/>
+      <c r="IK13" s="161"/>
+      <c r="IQ13" s="161"/>
+      <c r="IR13" s="161"/>
+      <c r="IX13" s="161"/>
+      <c r="IY13" s="161"/>
+      <c r="JE13" s="161"/>
+      <c r="JF13" s="161"/>
+      <c r="JL13" s="161"/>
+      <c r="JM13" s="161"/>
+      <c r="JN13" s="161"/>
+      <c r="JS13" s="161"/>
+      <c r="JT13" s="161"/>
+      <c r="JW13" s="165"/>
+      <c r="JX13" s="165"/>
+      <c r="JY13" s="165"/>
+      <c r="JZ13" s="161"/>
+      <c r="KA13" s="161"/>
+      <c r="KB13" s="165"/>
+      <c r="KC13" s="165"/>
+      <c r="KG13" s="161"/>
       <c r="KH13" s="156"/>
-      <c r="KN13" s="160"/>
-      <c r="KO13" s="160"/>
-      <c r="KP13" s="160"/>
-      <c r="KQ13" s="160"/>
-      <c r="KR13" s="160"/>
-      <c r="KV13" s="160"/>
-      <c r="LB13" s="160"/>
-      <c r="LC13" s="160"/>
-      <c r="LI13" s="160"/>
-      <c r="LJ13" s="160"/>
-      <c r="LP13" s="160"/>
-      <c r="LQ13" s="160"/>
-      <c r="LW13" s="160"/>
-      <c r="LX13" s="160"/>
-      <c r="MD13" s="160"/>
-      <c r="ME13" s="160"/>
-      <c r="MF13" s="160"/>
-      <c r="MK13" s="160"/>
-      <c r="ML13" s="160"/>
-      <c r="MR13" s="160"/>
-      <c r="MS13" s="160"/>
-      <c r="MY13" s="160"/>
-      <c r="MZ13" s="160"/>
-      <c r="NF13" s="160"/>
-      <c r="NG13" s="160"/>
-      <c r="NM13" s="160"/>
-      <c r="NN13" s="160"/>
-      <c r="NT13" s="160"/>
-      <c r="NU13" s="160"/>
-      <c r="OA13" s="160"/>
-      <c r="OB13" s="160"/>
-      <c r="OH13" s="160"/>
-      <c r="OI13" s="160"/>
-      <c r="OO13" s="160"/>
-      <c r="OP13" s="160"/>
-      <c r="OV13" s="160"/>
-      <c r="OW13" s="160"/>
-      <c r="PC13" s="160"/>
-      <c r="PD13" s="160"/>
-      <c r="PJ13" s="160"/>
-      <c r="PK13" s="160"/>
-      <c r="PQ13" s="160"/>
-      <c r="PR13" s="160"/>
-      <c r="PX13" s="164"/>
-      <c r="PY13" s="164"/>
+      <c r="KN13" s="161"/>
+      <c r="KO13" s="161"/>
+      <c r="KP13" s="161"/>
+      <c r="KQ13" s="161"/>
+      <c r="KR13" s="161"/>
+      <c r="KV13" s="161"/>
+      <c r="LB13" s="161"/>
+      <c r="LC13" s="161"/>
+      <c r="LI13" s="161"/>
+      <c r="LJ13" s="161"/>
+      <c r="LP13" s="161"/>
+      <c r="LQ13" s="161"/>
+      <c r="LW13" s="161"/>
+      <c r="LX13" s="161"/>
+      <c r="MD13" s="161"/>
+      <c r="ME13" s="161"/>
+      <c r="MF13" s="161"/>
+      <c r="MK13" s="161"/>
+      <c r="ML13" s="161"/>
+      <c r="MR13" s="161"/>
+      <c r="MS13" s="161"/>
+      <c r="MY13" s="161"/>
+      <c r="MZ13" s="161"/>
+      <c r="NF13" s="161"/>
+      <c r="NG13" s="161"/>
+      <c r="NM13" s="161"/>
+      <c r="NN13" s="161"/>
+      <c r="NT13" s="161"/>
+      <c r="NU13" s="161"/>
+      <c r="OA13" s="161"/>
+      <c r="OB13" s="161"/>
+      <c r="OH13" s="161"/>
+      <c r="OI13" s="161"/>
+      <c r="OO13" s="161"/>
+      <c r="OP13" s="161"/>
+      <c r="OV13" s="161"/>
+      <c r="OW13" s="161"/>
+      <c r="PC13" s="161"/>
+      <c r="PD13" s="161"/>
+      <c r="PJ13" s="161"/>
+      <c r="PK13" s="161"/>
+      <c r="PQ13" s="161"/>
+      <c r="PR13" s="161"/>
+      <c r="PX13" s="165"/>
+      <c r="PY13" s="165"/>
       <c r="PZ13" s="156"/>
-      <c r="QA13" s="164"/>
-      <c r="QE13" s="160"/>
-      <c r="QF13" s="160"/>
-      <c r="QK13" s="164"/>
-      <c r="QL13" s="166"/>
-      <c r="QM13" s="164"/>
+      <c r="QA13" s="165"/>
+      <c r="QE13" s="161"/>
+      <c r="QF13" s="161"/>
+      <c r="QK13" s="165"/>
+      <c r="QL13" s="167"/>
+      <c r="QM13" s="165"/>
       <c r="QN13" s="156"/>
       <c r="QO13" s="156"/>
       <c r="QP13" s="156"/>
       <c r="QQ13" s="156"/>
-      <c r="QS13" s="160"/>
-      <c r="QT13" s="160"/>
-      <c r="QZ13" s="160"/>
-      <c r="RA13" s="160"/>
-      <c r="RG13" s="160"/>
-      <c r="RH13" s="160"/>
-      <c r="RN13" s="160"/>
-      <c r="RO13" s="160"/>
-      <c r="RU13" s="160"/>
-      <c r="RV13" s="160"/>
-      <c r="SB13" s="160"/>
-      <c r="SC13" s="160"/>
+      <c r="QS13" s="161"/>
+      <c r="QT13" s="161"/>
+      <c r="QZ13" s="161"/>
+      <c r="RA13" s="161"/>
+      <c r="RG13" s="161"/>
+      <c r="RH13" s="161"/>
+      <c r="RN13" s="161"/>
+      <c r="RO13" s="161"/>
+      <c r="RU13" s="161"/>
+      <c r="RV13" s="161"/>
+      <c r="SB13" s="161"/>
+      <c r="SC13" s="161"/>
     </row>
     <row r="14" ht="40.05" customHeight="1" spans="1:10">
       <c r="A14" s="141"/>
@@ -7335,8 +7369,8 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G21:G22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
@@ -7560,12 +7594,24 @@
       <c r="C13" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="134"/>
+      <c r="D13" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="125">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="134" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" ht="15.85" customHeight="1" spans="1:9">
       <c r="A14" s="124"/>
@@ -8452,27 +8498,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -8483,7 +8529,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="63" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -8497,36 +8543,36 @@
         <v>11</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="66">
         <v>44479</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="70"/>
       <c r="I4" s="65" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K4" s="67" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L4" s="87" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M4" s="68" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N4" s="88" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:14">
@@ -8544,14 +8590,14 @@
         <v>44482</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="90" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:14">
@@ -8563,32 +8609,32 @@
         <v>44486</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="89">
         <v>44485</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:14">
@@ -8600,28 +8646,28 @@
         <v>44490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="79" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="89">
         <v>44489</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="79" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:14">
@@ -8633,32 +8679,32 @@
         <v>44493</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="89">
         <v>44492</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:14">
@@ -8670,28 +8716,28 @@
         <v>44497</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="89">
         <v>44496</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="79" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:14">
@@ -8703,32 +8749,32 @@
         <v>44500</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="89">
         <v>44499</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:14">
@@ -8740,28 +8786,28 @@
         <v>44504</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="89">
         <v>44503</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:14">
@@ -8773,32 +8819,32 @@
         <v>44507</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="89">
         <v>44506</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="25.7" customHeight="1" spans="1:14">
@@ -8810,28 +8856,28 @@
         <v>44511</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="89">
         <v>44510</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M13" s="98"/>
       <c r="N13" s="99" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:14">
@@ -8843,29 +8889,29 @@
         <v>44514</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="89">
         <v>44513</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N14" s="78"/>
     </row>
@@ -8878,28 +8924,28 @@
         <v>44518</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="85" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="94">
         <v>44517</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M15" s="100"/>
       <c r="N15" s="101" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:7">
@@ -8907,22 +8953,22 @@
         <v>23</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C16" s="66">
         <v>44521</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:7">
@@ -8934,14 +8980,14 @@
         <v>44525</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="90" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:7">
@@ -8953,16 +8999,16 @@
         <v>44528</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:7">
@@ -8974,14 +9020,14 @@
         <v>44532</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:7">
@@ -8993,16 +9039,16 @@
         <v>44535</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:7">
@@ -9014,14 +9060,14 @@
         <v>44539</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:7">
@@ -9033,16 +9079,16 @@
         <v>44542</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" ht="30.75" spans="1:7">
@@ -9054,14 +9100,14 @@
         <v>44546</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:7">
@@ -9073,10 +9119,10 @@
         <v>44549</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="93"/>
@@ -9090,10 +9136,10 @@
         <v>44556</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="97"/>
@@ -9130,22 +9176,22 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -9161,53 +9207,53 @@
     <row r="2" ht="34.05" customHeight="1" spans="1:21">
       <c r="A2" s="39"/>
       <c r="B2" s="46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="46" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -9271,7 +9317,7 @@
         <v>-164</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
@@ -9335,7 +9381,7 @@
         <v>-129</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
@@ -9647,7 +9693,7 @@
         <v>-138</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -9947,7 +9993,7 @@
         <v>-166</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10336,7 +10382,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:15">
       <c r="A1" s="39" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="40">
         <v>44264</v>
@@ -10354,29 +10400,29 @@
         <v>44268</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:15">
       <c r="A2" s="39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" s="39">
         <v>6</v>
@@ -10398,13 +10444,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L2" s="39">
         <v>259</v>
@@ -10417,7 +10463,7 @@
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:15">
       <c r="A3" s="39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B3" s="39">
         <v>10</v>
@@ -10435,16 +10481,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L3" s="39">
         <v>65</v>
@@ -10457,7 +10503,7 @@
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:15">
       <c r="A4" s="39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" s="39">
         <f>B2*B3</f>
@@ -10491,7 +10537,7 @@
         <v>6900</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L4" s="39">
         <f>L2*L3</f>
@@ -10512,13 +10558,13 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:15">
       <c r="A5" s="41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10528,19 +10574,19 @@
       <c r="I5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -10564,68 +10610,68 @@
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:15">
       <c r="A9" s="39" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" s="40">
         <v>44300</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:15">
       <c r="A10" s="39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B10" s="39">
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G10" s="39">
         <v>1</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L10" s="44">
         <v>259</v>
@@ -10638,31 +10684,31 @@
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:15">
       <c r="A11" s="39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B11" s="39">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G11" s="39">
         <v>8</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L11" s="44">
         <v>65</v>
@@ -10675,7 +10721,7 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:15">
       <c r="A12" s="39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B12" s="39">
         <f>B10*B11</f>
@@ -10689,7 +10735,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" s="39">
         <v>8</v>
@@ -10702,7 +10748,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L12" s="44">
         <f>L10*L11</f>
@@ -10724,16 +10770,16 @@
     <row r="13" ht="35" customHeight="1" spans="11:15">
       <c r="K13" s="44"/>
       <c r="L13" s="44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -10771,37 +10817,37 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:14">
@@ -10809,16 +10855,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -10827,13 +10873,13 @@
         <v>943</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L2" s="33">
         <f>40*6</f>
@@ -10849,19 +10895,19 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F3" s="35">
         <v>3</v>
@@ -10883,19 +10929,19 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" s="33">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
@@ -10917,19 +10963,19 @@
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:10">
       <c r="A5" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="33">
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F5" s="35">
         <v>1</v>
@@ -10951,19 +10997,19 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -10973,30 +11019,30 @@
         <v>1886</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:10">
       <c r="A7" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F7" s="35">
         <v>1</v>
@@ -11006,30 +11052,30 @@
         <v>943</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:10">
       <c r="A8" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F8" s="35">
         <v>1</v>
@@ -11039,30 +11085,30 @@
         <v>943</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:10">
       <c r="A9" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B9" s="33">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -11084,7 +11130,7 @@
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11129,13 +11175,13 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -11499,7 +11545,7 @@
     </row>
     <row r="33" ht="15" spans="1:5">
       <c r="A33" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="14"/>
@@ -11542,12 +11588,12 @@
     </row>
     <row r="506" spans="452:452">
       <c r="QJ506" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="537" spans="452:452">
       <c r="QJ537" s="31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="539" spans="452:452">
@@ -11602,34 +11648,34 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F2" s="9">
         <v>176</v>
@@ -11641,13 +11687,13 @@
     <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F3" s="9">
         <v>71</v>
@@ -11659,13 +11705,13 @@
     <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F4" s="9">
         <v>48</v>
@@ -11677,13 +11723,13 @@
     <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="9">
         <f>SUBTOTAL(9,F2:F4)</f>
@@ -11697,7 +11743,7 @@
     <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>26</v>
@@ -11706,16 +11752,16 @@
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>26</v>
@@ -11724,44 +11770,44 @@
     <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F11" s="9">
         <v>10</v>
@@ -11780,13 +11826,13 @@
     <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F12" s="9">
         <v>7</v>
@@ -11805,13 +11851,13 @@
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F13" s="9">
         <v>6</v>
@@ -11830,90 +11876,90 @@
     <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F15" s="9">
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A19" s="9"/>
       <c r="B19" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>26</v>
@@ -11922,16 +11968,16 @@
     <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>26</v>
@@ -11940,97 +11986,97 @@
     <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A27" s="9"/>
       <c r="B27" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>26</v>
@@ -12039,16 +12085,16 @@
     <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A33" s="9"/>
       <c r="B33" s="13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>26</v>
@@ -12057,7 +12103,7 @@
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="13" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>26</v>
@@ -12065,22 +12111,22 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="230">
   <si>
     <t>序号</t>
   </si>
@@ -88,6 +88,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
       <t>项目集成xrebel</t>
     </r>
     <r>
@@ -100,6 +107,17 @@
       </rPr>
       <t>；协助压测</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.新增因子不再触发回测和计算
+2.因子检测触发回测逻辑修改
+</t>
+  </si>
+  <si>
+    <t>1.因子回测内容相关调整</t>
+  </si>
+  <si>
+    <t>自定义因子回测</t>
   </si>
   <si>
     <t>汇总提醒</t>
@@ -215,6 +233,12 @@
   </si>
   <si>
     <t>注意思考</t>
+  </si>
+  <si>
+    <t>面试题+算法题</t>
+  </si>
+  <si>
+    <t>算法训练营题目重写；面试题规划</t>
   </si>
   <si>
     <t>模块</t>
@@ -838,14 +862,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaa;@"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="[$-804]aaa;@"/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -959,11 +983,17 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -982,26 +1012,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,16 +1020,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,11 +1050,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1050,6 +1060,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,14 +1079,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1077,9 +1086,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,7 +1095,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,7 +1118,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,7 +1232,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,49 +1316,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,55 +1346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,11 +1799,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1799,26 +1838,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1838,11 +1862,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1857,21 +1896,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1880,148 +1904,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2094,10 +2118,10 @@
     <xf numFmtId="58" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2148,7 +2172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2227,7 +2251,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2242,7 +2266,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2254,7 +2278,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2266,13 +2290,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,7 +2335,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2336,7 +2360,7 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2344,10 +2368,10 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2359,7 +2383,7 @@
     <xf numFmtId="10" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2371,7 +2395,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2422,7 +2446,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2621,7 +2645,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.399975585192419"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2635,7 +2659,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="5" tint="0.399975585192419"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3923,7 +3947,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3937,7 +3961,9 @@
     <col min="9" max="9" width="9" style="145" customWidth="1"/>
     <col min="10" max="12" width="9" style="143" customWidth="1"/>
     <col min="13" max="14" width="9" style="146" customWidth="1"/>
-    <col min="15" max="19" width="9" style="143" customWidth="1"/>
+    <col min="15" max="15" width="22.7777777777778" style="143" customWidth="1"/>
+    <col min="16" max="16" width="12.7777777777778" style="143" customWidth="1"/>
+    <col min="17" max="19" width="9" style="143" customWidth="1"/>
     <col min="20" max="21" width="9" style="146" customWidth="1"/>
     <col min="22" max="26" width="9" style="143" customWidth="1"/>
     <col min="27" max="28" width="9" style="146" customWidth="1"/>
@@ -5935,17 +5961,26 @@
       <c r="L4" s="160" t="s">
         <v>20</v>
       </c>
+      <c r="O4" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="143" t="s">
+        <v>23</v>
+      </c>
       <c r="BB4" s="141" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BI4" s="141" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BP4" s="141" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BW4" s="141" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:75">
@@ -5953,10 +5988,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="151" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="143" t="s">
         <v>15</v>
@@ -5967,7 +6002,7 @@
       <c r="F5" s="152"/>
       <c r="I5" s="151"/>
       <c r="K5" s="143" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB5" s="141"/>
       <c r="BI5" s="141"/>
@@ -6003,13 +6038,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="154" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="154" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" s="155">
         <v>44501</v>
@@ -6018,10 +6053,10 @@
         <v>44509</v>
       </c>
       <c r="G9" s="156" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I9" s="156" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M9" s="161"/>
       <c r="N9" s="161"/>
@@ -6217,20 +6252,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="142" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="154" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="142" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="155">
         <v>44501</v>
       </c>
       <c r="F11" s="155"/>
       <c r="G11" s="156" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I11" s="156"/>
       <c r="M11" s="161"/>
@@ -6427,23 +6462,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="154" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="155">
         <v>44501</v>
       </c>
       <c r="F13" s="155"/>
       <c r="G13" s="156" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I13" s="156" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M13" s="161"/>
       <c r="N13" s="161"/>
@@ -7370,7 +7405,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
@@ -7388,31 +7423,31 @@
   <sheetData>
     <row r="1" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="109" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="111" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="114" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I1" s="112" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
@@ -7428,7 +7463,7 @@
     </row>
     <row r="3" ht="15.85" customHeight="1" spans="1:9">
       <c r="A3" s="118" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="119">
         <v>44501</v>
@@ -7572,16 +7607,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12" s="125">
         <v>0.6</v>
       </c>
       <c r="G12" s="123" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="134"/>
@@ -7595,22 +7630,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F13" s="125">
         <v>0.4</v>
       </c>
       <c r="G13" s="123" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.85" customHeight="1" spans="1:9">
@@ -7666,7 +7701,9 @@
       <c r="C17" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="126"/>
+      <c r="D17" s="126" t="s">
+        <v>54</v>
+      </c>
       <c r="E17" s="126"/>
       <c r="F17" s="125"/>
       <c r="G17" s="123"/>
@@ -7696,7 +7733,9 @@
       <c r="C19" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="126"/>
+      <c r="D19" s="126" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="126"/>
       <c r="F19" s="125"/>
       <c r="G19" s="123"/>
@@ -8440,24 +8479,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",E1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" operator="between" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",E1)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F$1:F$1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
-      <formula>0.99</formula>
-      <formula>0.8</formula>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>0.8</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+      <formula>0.99</formula>
+      <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8498,27 +8537,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -8529,7 +8568,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="63" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -8543,36 +8582,36 @@
         <v>11</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C4" s="66">
         <v>44479</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="70"/>
       <c r="I4" s="65" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K4" s="67" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L4" s="87" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M4" s="68" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N4" s="88" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:14">
@@ -8590,14 +8629,14 @@
         <v>44482</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="90" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:14">
@@ -8609,32 +8648,32 @@
         <v>44486</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="89">
         <v>44485</v>
       </c>
       <c r="K6" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>63</v>
-      </c>
       <c r="N6" s="79" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:14">
@@ -8646,28 +8685,28 @@
         <v>44490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="79" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="89">
         <v>44489</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="79" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:14">
@@ -8679,32 +8718,32 @@
         <v>44493</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="89">
         <v>44492</v>
       </c>
       <c r="K8" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="78" t="s">
-        <v>63</v>
-      </c>
       <c r="N8" s="79" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:14">
@@ -8716,28 +8755,28 @@
         <v>44497</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="89">
         <v>44496</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="79" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:14">
@@ -8749,32 +8788,32 @@
         <v>44500</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="89">
         <v>44499</v>
       </c>
       <c r="K10" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="78" t="s">
-        <v>63</v>
-      </c>
       <c r="N10" s="79" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:14">
@@ -8786,28 +8825,28 @@
         <v>44504</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="89">
         <v>44503</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:14">
@@ -8819,32 +8858,32 @@
         <v>44507</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="89">
         <v>44506</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" ht="25.7" customHeight="1" spans="1:14">
@@ -8856,28 +8895,28 @@
         <v>44511</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="89">
         <v>44510</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M13" s="98"/>
       <c r="N13" s="99" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:14">
@@ -8889,29 +8928,29 @@
         <v>44514</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="89">
         <v>44513</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N14" s="78"/>
     </row>
@@ -8924,28 +8963,28 @@
         <v>44518</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="85" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="94">
         <v>44517</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M15" s="100"/>
       <c r="N15" s="101" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:7">
@@ -8953,22 +8992,22 @@
         <v>23</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C16" s="66">
         <v>44521</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:7">
@@ -8980,14 +9019,14 @@
         <v>44525</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="90" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:7">
@@ -8999,16 +9038,16 @@
         <v>44528</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:7">
@@ -9020,14 +9059,14 @@
         <v>44532</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:7">
@@ -9039,16 +9078,16 @@
         <v>44535</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:7">
@@ -9060,14 +9099,14 @@
         <v>44539</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:7">
@@ -9079,16 +9118,16 @@
         <v>44542</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" ht="30.75" spans="1:7">
@@ -9100,14 +9139,14 @@
         <v>44546</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:7">
@@ -9119,10 +9158,10 @@
         <v>44549</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="93"/>
@@ -9136,10 +9175,10 @@
         <v>44556</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="97"/>
@@ -9176,22 +9215,22 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -9207,53 +9246,53 @@
     <row r="2" ht="34.05" customHeight="1" spans="1:21">
       <c r="A2" s="39"/>
       <c r="B2" s="46" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="46" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -9317,7 +9356,7 @@
         <v>-164</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
@@ -9381,7 +9420,7 @@
         <v>-129</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
@@ -9693,7 +9732,7 @@
         <v>-138</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -9993,7 +10032,7 @@
         <v>-166</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10382,7 +10421,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:15">
       <c r="A1" s="39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B1" s="40">
         <v>44264</v>
@@ -10400,29 +10439,29 @@
         <v>44268</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:15">
       <c r="A2" s="39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B2" s="39">
         <v>6</v>
@@ -10444,13 +10483,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L2" s="39">
         <v>259</v>
@@ -10463,7 +10502,7 @@
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:15">
       <c r="A3" s="39" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" s="39">
         <v>10</v>
@@ -10481,16 +10520,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L3" s="39">
         <v>65</v>
@@ -10503,7 +10542,7 @@
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:15">
       <c r="A4" s="39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="39">
         <f>B2*B3</f>
@@ -10537,7 +10576,7 @@
         <v>6900</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L4" s="39">
         <f>L2*L3</f>
@@ -10558,13 +10597,13 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:15">
       <c r="A5" s="41" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10574,19 +10613,19 @@
       <c r="I5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>119</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>114</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -10610,68 +10649,68 @@
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:15">
       <c r="A9" s="39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B9" s="40">
         <v>44300</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:15">
       <c r="A10" s="39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B10" s="39">
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G10" s="39">
         <v>1</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L10" s="44">
         <v>259</v>
@@ -10684,31 +10723,31 @@
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:15">
       <c r="A11" s="39" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B11" s="39">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G11" s="39">
         <v>8</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L11" s="44">
         <v>65</v>
@@ -10721,7 +10760,7 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:15">
       <c r="A12" s="39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B12" s="39">
         <f>B10*B11</f>
@@ -10735,7 +10774,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G12" s="39">
         <v>8</v>
@@ -10748,7 +10787,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L12" s="44">
         <f>L10*L11</f>
@@ -10770,16 +10809,16 @@
     <row r="13" ht="35" customHeight="1" spans="11:15">
       <c r="K13" s="44"/>
       <c r="L13" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="44" t="s">
-        <v>114</v>
-      </c>
       <c r="O13" s="44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -10817,37 +10856,37 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:14">
@@ -10855,16 +10894,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -10873,13 +10912,13 @@
         <v>943</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L2" s="33">
         <f>40*6</f>
@@ -10895,19 +10934,19 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F3" s="35">
         <v>3</v>
@@ -10929,19 +10968,19 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B4" s="33">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
@@ -10963,19 +11002,19 @@
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:10">
       <c r="A5" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B5" s="33">
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F5" s="35">
         <v>1</v>
@@ -10997,19 +11036,19 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -11019,30 +11058,30 @@
         <v>1886</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:10">
       <c r="A7" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F7" s="35">
         <v>1</v>
@@ -11052,30 +11091,30 @@
         <v>943</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:10">
       <c r="A8" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F8" s="35">
         <v>1</v>
@@ -11085,30 +11124,30 @@
         <v>943</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:10">
       <c r="A9" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B9" s="33">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -11130,7 +11169,7 @@
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11175,13 +11214,13 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -11545,7 +11584,7 @@
     </row>
     <row r="33" ht="15" spans="1:5">
       <c r="A33" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="14"/>
@@ -11588,12 +11627,12 @@
     </row>
     <row r="506" spans="452:452">
       <c r="QJ506" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="537" spans="452:452">
       <c r="QJ537" s="31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="539" spans="452:452">
@@ -11648,34 +11687,34 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F2" s="9">
         <v>176</v>
@@ -11687,13 +11726,13 @@
     <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F3" s="9">
         <v>71</v>
@@ -11705,13 +11744,13 @@
     <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F4" s="9">
         <v>48</v>
@@ -11723,13 +11762,13 @@
     <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F5" s="9">
         <f>SUBTOTAL(9,F2:F4)</f>
@@ -11743,71 +11782,71 @@
     <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F11" s="9">
         <v>10</v>
@@ -11826,13 +11865,13 @@
     <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F12" s="9">
         <v>7</v>
@@ -11851,13 +11890,13 @@
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F13" s="9">
         <v>6</v>
@@ -11876,257 +11915,257 @@
     <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F15" s="9">
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A19" s="9"/>
       <c r="B19" s="12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A27" s="9"/>
       <c r="B27" s="13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="13" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A33" s="9"/>
       <c r="B33" s="13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="13" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="231">
   <si>
     <t>序号</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>算法训练营题目重写；面试题规划</t>
+  </si>
+  <si>
+    <t>三数之和，两数之和算法题；马哥分享的tcp文章</t>
   </si>
   <si>
     <t>模块</t>
@@ -864,8 +867,8 @@
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="[$-804]aaa;@"/>
@@ -984,14 +987,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,8 +1000,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,6 +1047,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1042,9 +1070,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,16 +1082,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,6 +1097,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1086,47 +1112,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,19 +1235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1265,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,7 +1307,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,85 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,30 +1803,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1838,11 +1817,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1862,17 +1847,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,10 +1907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,136 +1919,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7405,7 +7408,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
@@ -7750,7 +7753,9 @@
       <c r="C20" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="126"/>
+      <c r="D20" s="126" t="s">
+        <v>56</v>
+      </c>
       <c r="E20" s="126"/>
       <c r="F20" s="125"/>
       <c r="G20" s="123"/>
@@ -8537,27 +8542,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -8568,7 +8573,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -8582,36 +8587,36 @@
         <v>11</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="66">
         <v>44479</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="70"/>
       <c r="I4" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>64</v>
-      </c>
       <c r="M4" s="68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N4" s="88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:14">
@@ -8629,14 +8634,14 @@
         <v>44482</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:14">
@@ -8648,32 +8653,32 @@
         <v>44486</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="89">
         <v>44485</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:14">
@@ -8685,28 +8690,28 @@
         <v>44490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="89">
         <v>44489</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:14">
@@ -8718,32 +8723,32 @@
         <v>44493</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="89">
         <v>44492</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:14">
@@ -8755,28 +8760,28 @@
         <v>44497</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="89">
         <v>44496</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:14">
@@ -8788,32 +8793,32 @@
         <v>44500</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="89">
         <v>44499</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:14">
@@ -8825,28 +8830,28 @@
         <v>44504</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="89">
         <v>44503</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:14">
@@ -8858,32 +8863,32 @@
         <v>44507</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="89">
         <v>44506</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" ht="25.7" customHeight="1" spans="1:14">
@@ -8895,28 +8900,28 @@
         <v>44511</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="89">
         <v>44510</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="98"/>
       <c r="N13" s="99" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:14">
@@ -8928,29 +8933,29 @@
         <v>44514</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="89">
         <v>44513</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N14" s="78"/>
     </row>
@@ -8963,28 +8968,28 @@
         <v>44518</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="94">
         <v>44517</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M15" s="100"/>
       <c r="N15" s="101" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:7">
@@ -8992,22 +8997,22 @@
         <v>23</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="66">
         <v>44521</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:7">
@@ -9019,14 +9024,14 @@
         <v>44525</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="90" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:7">
@@ -9038,16 +9043,16 @@
         <v>44528</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:7">
@@ -9059,14 +9064,14 @@
         <v>44532</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:7">
@@ -9078,16 +9083,16 @@
         <v>44535</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:7">
@@ -9099,14 +9104,14 @@
         <v>44539</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:7">
@@ -9118,16 +9123,16 @@
         <v>44542</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" ht="30.75" spans="1:7">
@@ -9139,14 +9144,14 @@
         <v>44546</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:7">
@@ -9158,10 +9163,10 @@
         <v>44549</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="93"/>
@@ -9175,10 +9180,10 @@
         <v>44556</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="97"/>
@@ -9215,22 +9220,22 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -9246,53 +9251,53 @@
     <row r="2" ht="34.05" customHeight="1" spans="1:21">
       <c r="A2" s="39"/>
       <c r="B2" s="46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -9356,7 +9361,7 @@
         <v>-164</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
@@ -9420,7 +9425,7 @@
         <v>-129</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
@@ -9732,7 +9737,7 @@
         <v>-138</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -10032,7 +10037,7 @@
         <v>-166</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10421,7 +10426,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:15">
       <c r="A1" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="40">
         <v>44264</v>
@@ -10439,29 +10444,29 @@
         <v>44268</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:15">
       <c r="A2" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="39">
         <v>6</v>
@@ -10483,13 +10488,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" s="39">
         <v>259</v>
@@ -10502,7 +10507,7 @@
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:15">
       <c r="A3" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="39">
         <v>10</v>
@@ -10520,16 +10525,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L3" s="39">
         <v>65</v>
@@ -10542,7 +10547,7 @@
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:15">
       <c r="A4" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="39">
         <f>B2*B3</f>
@@ -10576,7 +10581,7 @@
         <v>6900</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="39">
         <f>L2*L3</f>
@@ -10597,13 +10602,13 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:15">
       <c r="A5" s="41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10613,19 +10618,19 @@
       <c r="I5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -10649,68 +10654,68 @@
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:15">
       <c r="A9" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="40">
         <v>44300</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:15">
       <c r="A10" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="39">
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>116</v>
       </c>
       <c r="G10" s="39">
         <v>1</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L10" s="44">
         <v>259</v>
@@ -10723,31 +10728,31 @@
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:15">
       <c r="A11" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="39">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G11" s="39">
         <v>8</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" s="44">
         <v>65</v>
@@ -10760,7 +10765,7 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:15">
       <c r="A12" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" s="39">
         <f>B10*B11</f>
@@ -10774,7 +10779,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" s="39">
         <v>8</v>
@@ -10787,7 +10792,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" s="44">
         <f>L10*L11</f>
@@ -10809,16 +10814,16 @@
     <row r="13" ht="35" customHeight="1" spans="11:15">
       <c r="K13" s="44"/>
       <c r="L13" s="44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -10856,37 +10861,37 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>131</v>
-      </c>
       <c r="N1" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:14">
@@ -10894,16 +10899,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -10912,13 +10917,13 @@
         <v>943</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L2" s="33">
         <f>40*6</f>
@@ -10934,19 +10939,19 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3" s="35">
         <v>3</v>
@@ -10968,19 +10973,19 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="33">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
@@ -11002,19 +11007,19 @@
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:10">
       <c r="A5" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" s="33">
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="35">
         <v>1</v>
@@ -11036,19 +11041,19 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -11058,30 +11063,30 @@
         <v>1886</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:10">
       <c r="A7" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F7" s="35">
         <v>1</v>
@@ -11091,30 +11096,30 @@
         <v>943</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:10">
       <c r="A8" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F8" s="35">
         <v>1</v>
@@ -11124,30 +11129,30 @@
         <v>943</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:10">
       <c r="A9" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" s="33">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -11169,7 +11174,7 @@
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11214,13 +11219,13 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -11584,7 +11589,7 @@
     </row>
     <row r="33" ht="15" spans="1:5">
       <c r="A33" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="14"/>
@@ -11627,12 +11632,12 @@
     </row>
     <row r="506" spans="452:452">
       <c r="QJ506" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="537" spans="452:452">
       <c r="QJ537" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="539" spans="452:452">
@@ -11687,34 +11692,34 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F2" s="9">
         <v>176</v>
@@ -11726,13 +11731,13 @@
     <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" s="9">
         <v>71</v>
@@ -11744,13 +11749,13 @@
     <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F4" s="9">
         <v>48</v>
@@ -11762,13 +11767,13 @@
     <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" s="9">
         <f>SUBTOTAL(9,F2:F4)</f>
@@ -11782,7 +11787,7 @@
     <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>29</v>
@@ -11791,16 +11796,16 @@
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>29</v>
@@ -11809,44 +11814,44 @@
     <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F11" s="9">
         <v>10</v>
@@ -11865,13 +11870,13 @@
     <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F12" s="9">
         <v>7</v>
@@ -11890,13 +11895,13 @@
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F13" s="9">
         <v>6</v>
@@ -11915,90 +11920,90 @@
     <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F15" s="9">
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A19" s="9"/>
       <c r="B19" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>29</v>
@@ -12007,16 +12012,16 @@
     <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>29</v>
@@ -12025,97 +12030,97 @@
     <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A27" s="9"/>
       <c r="B27" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>29</v>
@@ -12124,16 +12129,16 @@
     <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A33" s="9"/>
       <c r="B33" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>29</v>
@@ -12142,7 +12147,7 @@
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>29</v>
@@ -12150,22 +12155,22 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12140" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="13884"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="244">
   <si>
     <t>序号</t>
   </si>
@@ -130,6 +130,33 @@
     <t>按照优化方式测试估值数据导入性能</t>
   </si>
   <si>
+    <t>量化功能改造</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>很久以前</t>
+  </si>
+  <si>
+    <t>开发环境首页行情接口修改;
+数据库脚本备份；
+因子回测功能测试;
+行情中心接口路径改造;
+开发环境配合演示测试;
+前端代码提交部署</t>
+  </si>
+  <si>
+    <t>演示环境调试；测试因子回测功能</t>
+  </si>
+  <si>
+    <t>交易图示接口更改</t>
+  </si>
+  <si>
+    <t>1.浙商量化统一认证
+2.交易图示接口开发与测试</t>
+  </si>
+  <si>
     <t>客户情况跟进-信达-王璇
 了解客户情况，是否有根据新规有什么动作</t>
   </si>
@@ -187,6 +214,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>11月OKR
 备忘录/关键词：
 1</t>
@@ -250,6 +284,15 @@
       </rPr>
       <t>链表的算法题(课后习题)/</t>
     </r>
+  </si>
+  <si>
+    <t>excel固定一列问题；预习今晚的算法题</t>
+  </si>
+  <si>
+    <t>队列以及栈课程</t>
+  </si>
+  <si>
+    <t>队列以及栈课程(包括算法题)</t>
   </si>
   <si>
     <t>三数之和,两数之和</t>
@@ -876,16 +919,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="179" formatCode="[$-804]aaa;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +1041,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1005,7 +1063,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,32 +1076,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,44 +1121,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,7 +1153,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1132,25 +1168,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1246,7 +1294,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,31 +1402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,91 +1420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,47 +1652,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1710,7 +1717,35 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1729,6 +1764,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1822,6 +1870,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1831,17 +1909,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1861,36 +1935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1900,13 +1944,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1915,151 +1963,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2082,17 +2130,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2102,12 +2156,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2117,6 +2165,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2129,8 +2180,11 @@
     <xf numFmtId="58" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2141,12 +2195,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2186,19 +2234,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2247,6 +2295,9 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2265,106 +2316,103 @@
     <xf numFmtId="179" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2374,7 +2422,7 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2382,43 +2430,67 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2427,30 +2499,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2461,7 +2509,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2497,38 +2545,38 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2560,55 +2608,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3654,8 +3702,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8170545" y="485775"/>
-        <a:ext cx="3931920" cy="2743200"/>
+        <a:off x="8474075" y="485775"/>
+        <a:ext cx="4091940" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3953,34 +4001,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:SS595"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.06730769230769" style="144" customWidth="1"/>
-    <col min="2" max="2" width="34.0673076923077" style="145" customWidth="1"/>
-    <col min="3" max="3" width="7.66346153846154" style="145" customWidth="1"/>
-    <col min="4" max="6" width="10.7980769230769" style="144" customWidth="1"/>
+    <col min="1" max="1" width="6.06481481481481" style="144" customWidth="1"/>
+    <col min="2" max="2" width="34.0648148148148" style="145" customWidth="1"/>
+    <col min="3" max="3" width="7.66666666666667" style="145" customWidth="1"/>
+    <col min="4" max="6" width="10.7962962962963" style="144" customWidth="1"/>
     <col min="7" max="7" width="9" style="146" customWidth="1"/>
-    <col min="8" max="8" width="10.7307692307692" style="144" customWidth="1"/>
+    <col min="8" max="8" width="10.7314814814815" style="144" customWidth="1"/>
     <col min="9" max="9" width="9" style="146" customWidth="1"/>
     <col min="10" max="12" width="9" style="144" customWidth="1"/>
     <col min="13" max="14" width="9" style="147" customWidth="1"/>
-    <col min="15" max="15" width="22.7788461538462" style="144" customWidth="1"/>
-    <col min="16" max="16" width="12.7788461538462" style="144" customWidth="1"/>
+    <col min="15" max="15" width="22.7777777777778" style="144" customWidth="1"/>
+    <col min="16" max="16" width="12.7777777777778" style="144" customWidth="1"/>
     <col min="17" max="19" width="9" style="144" customWidth="1"/>
     <col min="20" max="21" width="9" style="147" customWidth="1"/>
-    <col min="22" max="26" width="9" style="144" customWidth="1"/>
+    <col min="22" max="22" width="19.8981481481481" style="144" customWidth="1"/>
+    <col min="23" max="23" width="23.6574074074074" style="144" customWidth="1"/>
+    <col min="24" max="24" width="9" style="144" customWidth="1"/>
+    <col min="25" max="25" width="18.5555555555556" style="144" customWidth="1"/>
+    <col min="26" max="26" width="9" style="144" customWidth="1"/>
     <col min="27" max="28" width="9" style="147" customWidth="1"/>
     <col min="29" max="29" width="9" style="146" customWidth="1"/>
     <col min="30" max="33" width="9" style="144" customWidth="1"/>
@@ -3990,7 +4044,7 @@
     <col min="43" max="47" width="9" style="144" customWidth="1"/>
     <col min="48" max="49" width="9" style="147" customWidth="1"/>
     <col min="50" max="52" width="9" style="144" customWidth="1"/>
-    <col min="53" max="53" width="9.33653846153846" style="144" customWidth="1"/>
+    <col min="53" max="53" width="9.33333333333333" style="144" customWidth="1"/>
     <col min="54" max="54" width="9" style="144" customWidth="1"/>
     <col min="55" max="56" width="9" style="147" customWidth="1"/>
     <col min="57" max="61" width="9" style="144" customWidth="1"/>
@@ -4072,7 +4126,7 @@
     <col min="290" max="292" width="9" style="144" customWidth="1"/>
     <col min="293" max="293" width="9" style="147" customWidth="1"/>
     <col min="294" max="294" width="9" style="146" customWidth="1"/>
-    <col min="295" max="295" width="9.33653846153846" style="144" customWidth="1"/>
+    <col min="295" max="295" width="9.33333333333333" style="144" customWidth="1"/>
     <col min="296" max="299" width="9" style="144" customWidth="1"/>
     <col min="300" max="304" width="9" style="147" customWidth="1"/>
     <col min="305" max="307" width="9" style="144" customWidth="1"/>
@@ -4084,7 +4138,7 @@
     <col min="323" max="327" width="9" style="144" customWidth="1"/>
     <col min="328" max="329" width="9" style="147" customWidth="1"/>
     <col min="330" max="331" width="9" style="144" customWidth="1"/>
-    <col min="332" max="332" width="9.33653846153846" style="144" customWidth="1"/>
+    <col min="332" max="332" width="9.33333333333333" style="144" customWidth="1"/>
     <col min="333" max="334" width="9" style="144" customWidth="1"/>
     <col min="335" max="336" width="9" style="147" customWidth="1"/>
     <col min="337" max="341" width="9" style="144" customWidth="1"/>
@@ -4100,7 +4154,7 @@
     <col min="372" max="376" width="9" style="144" customWidth="1"/>
     <col min="377" max="378" width="9" style="147" customWidth="1"/>
     <col min="379" max="379" width="9" style="144" customWidth="1"/>
-    <col min="380" max="380" width="9.33653846153846" style="144" customWidth="1"/>
+    <col min="380" max="380" width="9.33333333333333" style="144" customWidth="1"/>
     <col min="381" max="383" width="9" style="144" customWidth="1"/>
     <col min="384" max="385" width="9" style="147" customWidth="1"/>
     <col min="386" max="390" width="9" style="144" customWidth="1"/>
@@ -4181,10 +4235,10 @@
       <c r="L2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="160" t="s">
+      <c r="M2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="160" t="s">
+      <c r="N2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="142" t="s">
@@ -4202,10 +4256,10 @@
       <c r="S2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="160" t="s">
+      <c r="T2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="160" t="s">
+      <c r="U2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="V2" s="142" t="s">
@@ -4223,10 +4277,10 @@
       <c r="Z2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="160" t="s">
+      <c r="AA2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="160" t="s">
+      <c r="AB2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="AC2" s="163" t="s">
@@ -4244,10 +4298,10 @@
       <c r="AG2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="160" t="s">
+      <c r="AH2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="160" t="s">
+      <c r="AI2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="AJ2" s="142" t="s">
@@ -4265,10 +4319,10 @@
       <c r="AN2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="160" t="s">
+      <c r="AO2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="160" t="s">
+      <c r="AP2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="AQ2" s="142" t="s">
@@ -4286,10 +4340,10 @@
       <c r="AU2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" s="160" t="s">
+      <c r="AV2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" s="160" t="s">
+      <c r="AW2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="AX2" s="142" t="s">
@@ -4307,10 +4361,10 @@
       <c r="BB2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="BC2" s="160" t="s">
+      <c r="BC2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BD2" s="160" t="s">
+      <c r="BD2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="BE2" s="142" t="s">
@@ -4328,10 +4382,10 @@
       <c r="BI2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="BJ2" s="160" t="s">
+      <c r="BJ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BK2" s="160" t="s">
+      <c r="BK2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="BL2" s="142" t="s">
@@ -4349,10 +4403,10 @@
       <c r="BP2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="BQ2" s="160" t="s">
+      <c r="BQ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BR2" s="160" t="s">
+      <c r="BR2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="BS2" s="142" t="s">
@@ -4370,10 +4424,10 @@
       <c r="BW2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="BX2" s="160" t="s">
+      <c r="BX2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="160" t="s">
+      <c r="BY2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="BZ2" s="142" t="s">
@@ -4391,7 +4445,7 @@
       <c r="CD2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="CE2" s="160" t="s">
+      <c r="CE2" s="158" t="s">
         <v>11</v>
       </c>
       <c r="CF2" s="163" t="s">
@@ -4406,28 +4460,28 @@
       <c r="CI2" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="CJ2" s="160" t="s">
+      <c r="CJ2" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="CK2" s="160" t="s">
+      <c r="CK2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="CL2" s="160" t="s">
+      <c r="CL2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="CM2" s="160" t="s">
+      <c r="CM2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="CN2" s="160" t="s">
+      <c r="CN2" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="CO2" s="160" t="s">
+      <c r="CO2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="CP2" s="160" t="s">
+      <c r="CP2" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="CQ2" s="160" t="s">
+      <c r="CQ2" s="158" t="s">
         <v>9</v>
       </c>
       <c r="CR2" s="142" t="s">
@@ -4436,7 +4490,7 @@
       <c r="CS2" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="CT2" s="160" t="s">
+      <c r="CT2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="CU2" s="142" t="s">
@@ -4454,10 +4508,10 @@
       <c r="CY2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="CZ2" s="160" t="s">
+      <c r="CZ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="DA2" s="160" t="s">
+      <c r="DA2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="DB2" s="142" t="s">
@@ -4475,10 +4529,10 @@
       <c r="DF2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="DG2" s="160" t="s">
+      <c r="DG2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="DH2" s="160" t="s">
+      <c r="DH2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="DI2" s="142" t="s">
@@ -4496,10 +4550,10 @@
       <c r="DM2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="DN2" s="160" t="s">
+      <c r="DN2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="DO2" s="160" t="s">
+      <c r="DO2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="DP2" s="142" t="s">
@@ -4517,10 +4571,10 @@
       <c r="DT2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="160" t="s">
+      <c r="DU2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="DV2" s="160" t="s">
+      <c r="DV2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="DW2" s="142" t="s">
@@ -4538,10 +4592,10 @@
       <c r="EA2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="EB2" s="160" t="s">
+      <c r="EB2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="EC2" s="160" t="s">
+      <c r="EC2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="ED2" s="142" t="s">
@@ -4559,10 +4613,10 @@
       <c r="EH2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="EI2" s="160" t="s">
+      <c r="EI2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="EJ2" s="160" t="s">
+      <c r="EJ2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="EK2" s="142" t="s">
@@ -4580,10 +4634,10 @@
       <c r="EO2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="EP2" s="160" t="s">
+      <c r="EP2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="EQ2" s="160" t="s">
+      <c r="EQ2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="ER2" s="165" t="s">
@@ -4601,10 +4655,10 @@
       <c r="EV2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="EW2" s="160" t="s">
+      <c r="EW2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="EX2" s="160" t="s">
+      <c r="EX2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="EY2" s="142" t="s">
@@ -4622,10 +4676,10 @@
       <c r="FC2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="FD2" s="160" t="s">
+      <c r="FD2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="FE2" s="160" t="s">
+      <c r="FE2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="FF2" s="142" t="s">
@@ -4643,10 +4697,10 @@
       <c r="FJ2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="FK2" s="160" t="s">
+      <c r="FK2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="FL2" s="160" t="s">
+      <c r="FL2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="FM2" s="142" t="s">
@@ -4664,10 +4718,10 @@
       <c r="FQ2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="FR2" s="160" t="s">
+      <c r="FR2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="FS2" s="160" t="s">
+      <c r="FS2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="FT2" s="142" t="s">
@@ -4682,13 +4736,13 @@
       <c r="FW2" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="FX2" s="160" t="s">
+      <c r="FX2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="FY2" s="160" t="s">
+      <c r="FY2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="FZ2" s="160" t="s">
+      <c r="FZ2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="GA2" s="142" t="s">
@@ -4706,10 +4760,10 @@
       <c r="GE2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="GF2" s="160" t="s">
+      <c r="GF2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="GG2" s="160" t="s">
+      <c r="GG2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="GH2" s="142" t="s">
@@ -4727,10 +4781,10 @@
       <c r="GL2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="GM2" s="160" t="s">
+      <c r="GM2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="GN2" s="160" t="s">
+      <c r="GN2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="GO2" s="142" t="s">
@@ -4748,10 +4802,10 @@
       <c r="GS2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="GT2" s="160" t="s">
+      <c r="GT2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="GU2" s="160" t="s">
+      <c r="GU2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="GV2" s="142" t="s">
@@ -4769,10 +4823,10 @@
       <c r="GZ2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="HA2" s="160" t="s">
+      <c r="HA2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="HB2" s="160" t="s">
+      <c r="HB2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="HC2" s="142" t="s">
@@ -4790,7 +4844,7 @@
       <c r="HG2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="HH2" s="160" t="s">
+      <c r="HH2" s="158" t="s">
         <v>11</v>
       </c>
       <c r="HI2" s="163" t="s">
@@ -4802,28 +4856,28 @@
       <c r="HK2" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="HL2" s="160" t="s">
+      <c r="HL2" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="HM2" s="160" t="s">
+      <c r="HM2" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="HN2" s="160" t="s">
+      <c r="HN2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="HO2" s="160" t="s">
+      <c r="HO2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="HP2" s="160" t="s">
+      <c r="HP2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="HQ2" s="160" t="s">
+      <c r="HQ2" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="HR2" s="160" t="s">
+      <c r="HR2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="HS2" s="160" t="s">
+      <c r="HS2" s="158" t="s">
         <v>8</v>
       </c>
       <c r="HT2" s="142" t="s">
@@ -4835,7 +4889,7 @@
       <c r="HV2" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="HW2" s="160" t="s">
+      <c r="HW2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="HX2" s="142" t="s">
@@ -4874,10 +4928,10 @@
       <c r="II2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="IJ2" s="160" t="s">
+      <c r="IJ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="IK2" s="160" t="s">
+      <c r="IK2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="IL2" s="142" t="s">
@@ -4895,10 +4949,10 @@
       <c r="IP2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="IQ2" s="160" t="s">
+      <c r="IQ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="IR2" s="160" t="s">
+      <c r="IR2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="IS2" s="142" t="s">
@@ -4916,10 +4970,10 @@
       <c r="IW2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="IX2" s="160" t="s">
+      <c r="IX2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="IY2" s="160" t="s">
+      <c r="IY2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="IZ2" s="142" t="s">
@@ -4937,10 +4991,10 @@
       <c r="JD2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="JE2" s="160" t="s">
+      <c r="JE2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="JF2" s="160" t="s">
+      <c r="JF2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="JG2" s="142" t="s">
@@ -4958,13 +5012,13 @@
       <c r="JK2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="JL2" s="160" t="s">
+      <c r="JL2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="JM2" s="160" t="s">
+      <c r="JM2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="JN2" s="160" t="s">
+      <c r="JN2" s="158" t="s">
         <v>6</v>
       </c>
       <c r="JO2" s="142" t="s">
@@ -4979,10 +5033,10 @@
       <c r="JR2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="JS2" s="160" t="s">
+      <c r="JS2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="JT2" s="160" t="s">
+      <c r="JT2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="JU2" s="142" t="s">
@@ -5000,10 +5054,10 @@
       <c r="JY2" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="JZ2" s="160" t="s">
+      <c r="JZ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="KA2" s="160" t="s">
+      <c r="KA2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="KB2" s="165" t="s">
@@ -5021,7 +5075,7 @@
       <c r="KF2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="KG2" s="160" t="s">
+      <c r="KG2" s="158" t="s">
         <v>11</v>
       </c>
       <c r="KH2" s="163" t="s">
@@ -5042,19 +5096,19 @@
       <c r="KM2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="KN2" s="160" t="s">
+      <c r="KN2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="KO2" s="160" t="s">
+      <c r="KO2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="KP2" s="160" t="s">
+      <c r="KP2" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="KQ2" s="160" t="s">
+      <c r="KQ2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="KR2" s="160" t="s">
+      <c r="KR2" s="158" t="s">
         <v>8</v>
       </c>
       <c r="KS2" s="142" t="s">
@@ -5066,7 +5120,7 @@
       <c r="KU2" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="KV2" s="160" t="s">
+      <c r="KV2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="KW2" s="142" t="s">
@@ -5084,10 +5138,10 @@
       <c r="LA2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="LB2" s="160" t="s">
+      <c r="LB2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="LC2" s="160" t="s">
+      <c r="LC2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="LD2" s="142" t="s">
@@ -5105,10 +5159,10 @@
       <c r="LH2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="LI2" s="160" t="s">
+      <c r="LI2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="LJ2" s="160" t="s">
+      <c r="LJ2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="LK2" s="142" t="s">
@@ -5126,10 +5180,10 @@
       <c r="LO2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="LP2" s="160" t="s">
+      <c r="LP2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="LQ2" s="160" t="s">
+      <c r="LQ2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="LR2" s="142" t="s">
@@ -5147,10 +5201,10 @@
       <c r="LV2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="LW2" s="160" t="s">
+      <c r="LW2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="LX2" s="160" t="s">
+      <c r="LX2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="LY2" s="142" t="s">
@@ -5168,13 +5222,13 @@
       <c r="MC2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="MD2" s="160" t="s">
+      <c r="MD2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="ME2" s="160" t="s">
+      <c r="ME2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="MF2" s="160" t="s">
+      <c r="MF2" s="158" t="s">
         <v>6</v>
       </c>
       <c r="MG2" s="142" t="s">
@@ -5189,10 +5243,10 @@
       <c r="MJ2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="MK2" s="160" t="s">
+      <c r="MK2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="ML2" s="160" t="s">
+      <c r="ML2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="MM2" s="142" t="s">
@@ -5210,10 +5264,10 @@
       <c r="MQ2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="MR2" s="160" t="s">
+      <c r="MR2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="MS2" s="160" t="s">
+      <c r="MS2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="MT2" s="142" t="s">
@@ -5231,10 +5285,10 @@
       <c r="MX2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="MY2" s="160" t="s">
+      <c r="MY2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="MZ2" s="160" t="s">
+      <c r="MZ2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="NA2" s="142" t="s">
@@ -5252,10 +5306,10 @@
       <c r="NE2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="NF2" s="160" t="s">
+      <c r="NF2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="NG2" s="160" t="s">
+      <c r="NG2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="NH2" s="142" t="s">
@@ -5273,10 +5327,10 @@
       <c r="NL2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="NM2" s="160" t="s">
+      <c r="NM2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="NN2" s="160" t="s">
+      <c r="NN2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="NO2" s="142" t="s">
@@ -5294,10 +5348,10 @@
       <c r="NS2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="NT2" s="160" t="s">
+      <c r="NT2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="NU2" s="160" t="s">
+      <c r="NU2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="NV2" s="142" t="s">
@@ -5315,10 +5369,10 @@
       <c r="NZ2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="OA2" s="160" t="s">
+      <c r="OA2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="OB2" s="160" t="s">
+      <c r="OB2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="OC2" s="142" t="s">
@@ -5336,10 +5390,10 @@
       <c r="OG2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="OH2" s="160" t="s">
+      <c r="OH2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="OI2" s="160" t="s">
+      <c r="OI2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="OJ2" s="142" t="s">
@@ -5357,10 +5411,10 @@
       <c r="ON2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="OO2" s="160" t="s">
+      <c r="OO2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="OP2" s="160" t="s">
+      <c r="OP2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="OQ2" s="142" t="s">
@@ -5378,10 +5432,10 @@
       <c r="OU2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="OV2" s="160" t="s">
+      <c r="OV2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="OW2" s="160" t="s">
+      <c r="OW2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="OX2" s="142" t="s">
@@ -5399,10 +5453,10 @@
       <c r="PB2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="PC2" s="160" t="s">
+      <c r="PC2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="PD2" s="160" t="s">
+      <c r="PD2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="PE2" s="142" t="s">
@@ -5420,10 +5474,10 @@
       <c r="PI2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="PJ2" s="160" t="s">
+      <c r="PJ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="PK2" s="160" t="s">
+      <c r="PK2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="PL2" s="142" t="s">
@@ -5441,10 +5495,10 @@
       <c r="PP2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="PQ2" s="160" t="s">
+      <c r="PQ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="PR2" s="160" t="s">
+      <c r="PR2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="PS2" s="142" t="s">
@@ -5483,10 +5537,10 @@
       <c r="QD2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="QE2" s="160" t="s">
+      <c r="QE2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="QF2" s="160" t="s">
+      <c r="QF2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="QG2" s="142" t="s">
@@ -5525,10 +5579,10 @@
       <c r="QR2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="QS2" s="160" t="s">
+      <c r="QS2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="QT2" s="160" t="s">
+      <c r="QT2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="QU2" s="142" t="s">
@@ -5546,10 +5600,10 @@
       <c r="QY2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="QZ2" s="160" t="s">
+      <c r="QZ2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="RA2" s="160" t="s">
+      <c r="RA2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="RB2" s="142" t="s">
@@ -5567,10 +5621,10 @@
       <c r="RF2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="RG2" s="160" t="s">
+      <c r="RG2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="RH2" s="160" t="s">
+      <c r="RH2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="RI2" s="142" t="s">
@@ -5588,10 +5642,10 @@
       <c r="RM2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="RN2" s="160" t="s">
+      <c r="RN2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="RO2" s="160" t="s">
+      <c r="RO2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="RP2" s="142" t="s">
@@ -5609,10 +5663,10 @@
       <c r="RT2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="RU2" s="160" t="s">
+      <c r="RU2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="RV2" s="160" t="s">
+      <c r="RV2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="RW2" s="142" t="s">
@@ -5630,10 +5684,10 @@
       <c r="SA2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="SB2" s="160" t="s">
+      <c r="SB2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="SC2" s="160" t="s">
+      <c r="SC2" s="158" t="s">
         <v>12</v>
       </c>
       <c r="SD2" s="142" t="s">
@@ -5686,164 +5740,164 @@
       </c>
     </row>
     <row r="3" s="142" customFormat="1" ht="18" customHeight="1" spans="7:497">
-      <c r="G3" s="154">
+      <c r="G3" s="151">
         <v>44501</v>
       </c>
-      <c r="H3" s="154">
+      <c r="H3" s="151">
         <v>44508</v>
       </c>
-      <c r="I3" s="154">
+      <c r="I3" s="151">
         <v>44509</v>
       </c>
-      <c r="J3" s="158">
+      <c r="J3" s="159">
         <v>44510</v>
       </c>
-      <c r="K3" s="154">
+      <c r="K3" s="151">
         <v>44511</v>
       </c>
-      <c r="L3" s="154">
+      <c r="L3" s="151">
         <v>44512</v>
       </c>
-      <c r="M3" s="161">
+      <c r="M3" s="160">
         <v>44513</v>
       </c>
-      <c r="N3" s="161">
+      <c r="N3" s="160">
         <v>44514</v>
       </c>
-      <c r="O3" s="154">
+      <c r="O3" s="151">
         <v>44515</v>
       </c>
-      <c r="P3" s="154">
+      <c r="P3" s="151">
         <v>44516</v>
       </c>
-      <c r="Q3" s="154">
+      <c r="Q3" s="151">
         <v>44517</v>
       </c>
-      <c r="R3" s="154">
+      <c r="R3" s="151">
         <v>44518</v>
       </c>
-      <c r="S3" s="154">
+      <c r="S3" s="151">
         <v>44519</v>
       </c>
-      <c r="T3" s="161">
+      <c r="T3" s="160">
         <v>44520</v>
       </c>
-      <c r="U3" s="161">
+      <c r="U3" s="160">
         <v>44521</v>
       </c>
-      <c r="V3" s="154">
+      <c r="V3" s="151">
         <v>44522</v>
       </c>
-      <c r="W3" s="154">
+      <c r="W3" s="151">
         <v>44523</v>
       </c>
-      <c r="X3" s="154">
+      <c r="X3" s="151">
         <v>44524</v>
       </c>
-      <c r="Y3" s="154">
+      <c r="Y3" s="151">
         <v>44525</v>
       </c>
-      <c r="Z3" s="154">
+      <c r="Z3" s="151">
         <v>44526</v>
       </c>
-      <c r="AA3" s="161">
+      <c r="AA3" s="160">
         <v>44527</v>
       </c>
-      <c r="AB3" s="161">
+      <c r="AB3" s="160">
         <v>44528</v>
       </c>
       <c r="AC3" s="164">
         <v>44529</v>
       </c>
-      <c r="AD3" s="154">
+      <c r="AD3" s="151">
         <v>44530</v>
       </c>
-      <c r="AE3" s="154">
+      <c r="AE3" s="151">
         <v>44531</v>
       </c>
-      <c r="AF3" s="154">
+      <c r="AF3" s="151">
         <v>44532</v>
       </c>
-      <c r="AG3" s="154">
+      <c r="AG3" s="151">
         <v>44533</v>
       </c>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AV3" s="160"/>
-      <c r="AW3" s="160"/>
-      <c r="BC3" s="160"/>
-      <c r="BD3" s="160"/>
-      <c r="BJ3" s="160"/>
-      <c r="BK3" s="160"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AO3" s="158"/>
+      <c r="AP3" s="158"/>
+      <c r="AV3" s="158"/>
+      <c r="AW3" s="158"/>
+      <c r="BC3" s="158"/>
+      <c r="BD3" s="158"/>
+      <c r="BJ3" s="158"/>
+      <c r="BK3" s="158"/>
       <c r="BM3" s="163"/>
-      <c r="BQ3" s="160"/>
-      <c r="BR3" s="160"/>
-      <c r="BX3" s="160"/>
-      <c r="BY3" s="160"/>
-      <c r="CE3" s="160"/>
+      <c r="BQ3" s="158"/>
+      <c r="BR3" s="158"/>
+      <c r="BX3" s="158"/>
+      <c r="BY3" s="158"/>
+      <c r="CE3" s="158"/>
       <c r="CF3" s="163"/>
-      <c r="CJ3" s="160"/>
-      <c r="CK3" s="160"/>
-      <c r="CL3" s="160"/>
-      <c r="CM3" s="160"/>
-      <c r="CN3" s="160"/>
-      <c r="CO3" s="160"/>
-      <c r="CP3" s="160"/>
-      <c r="CQ3" s="160"/>
+      <c r="CJ3" s="158"/>
+      <c r="CK3" s="158"/>
+      <c r="CL3" s="158"/>
+      <c r="CM3" s="158"/>
+      <c r="CN3" s="158"/>
+      <c r="CO3" s="158"/>
+      <c r="CP3" s="158"/>
+      <c r="CQ3" s="158"/>
       <c r="CS3" s="163"/>
-      <c r="CT3" s="160"/>
-      <c r="CZ3" s="160"/>
-      <c r="DA3" s="160"/>
-      <c r="DG3" s="160"/>
-      <c r="DH3" s="160"/>
-      <c r="DN3" s="160"/>
-      <c r="DO3" s="160"/>
-      <c r="DU3" s="160"/>
-      <c r="DV3" s="160"/>
-      <c r="EB3" s="160"/>
-      <c r="EC3" s="160"/>
-      <c r="EI3" s="160"/>
-      <c r="EJ3" s="160"/>
-      <c r="EP3" s="160"/>
-      <c r="EQ3" s="160"/>
+      <c r="CT3" s="158"/>
+      <c r="CZ3" s="158"/>
+      <c r="DA3" s="158"/>
+      <c r="DG3" s="158"/>
+      <c r="DH3" s="158"/>
+      <c r="DN3" s="158"/>
+      <c r="DO3" s="158"/>
+      <c r="DU3" s="158"/>
+      <c r="DV3" s="158"/>
+      <c r="EB3" s="158"/>
+      <c r="EC3" s="158"/>
+      <c r="EI3" s="158"/>
+      <c r="EJ3" s="158"/>
+      <c r="EP3" s="158"/>
+      <c r="EQ3" s="158"/>
       <c r="ER3" s="165"/>
       <c r="ES3" s="165"/>
       <c r="ET3" s="165"/>
       <c r="EU3" s="165"/>
-      <c r="EW3" s="160"/>
-      <c r="EX3" s="160"/>
-      <c r="FD3" s="160"/>
-      <c r="FE3" s="160"/>
-      <c r="FK3" s="160"/>
-      <c r="FL3" s="160"/>
-      <c r="FR3" s="160"/>
-      <c r="FS3" s="160"/>
-      <c r="FX3" s="160"/>
-      <c r="FY3" s="160"/>
-      <c r="FZ3" s="160"/>
-      <c r="GF3" s="160"/>
-      <c r="GG3" s="160"/>
-      <c r="GM3" s="160"/>
-      <c r="GN3" s="160"/>
-      <c r="GT3" s="160"/>
-      <c r="GU3" s="160"/>
-      <c r="HA3" s="160"/>
-      <c r="HB3" s="160"/>
-      <c r="HH3" s="160"/>
+      <c r="EW3" s="158"/>
+      <c r="EX3" s="158"/>
+      <c r="FD3" s="158"/>
+      <c r="FE3" s="158"/>
+      <c r="FK3" s="158"/>
+      <c r="FL3" s="158"/>
+      <c r="FR3" s="158"/>
+      <c r="FS3" s="158"/>
+      <c r="FX3" s="158"/>
+      <c r="FY3" s="158"/>
+      <c r="FZ3" s="158"/>
+      <c r="GF3" s="158"/>
+      <c r="GG3" s="158"/>
+      <c r="GM3" s="158"/>
+      <c r="GN3" s="158"/>
+      <c r="GT3" s="158"/>
+      <c r="GU3" s="158"/>
+      <c r="HA3" s="158"/>
+      <c r="HB3" s="158"/>
+      <c r="HH3" s="158"/>
       <c r="HI3" s="163"/>
       <c r="HK3" s="167"/>
-      <c r="HL3" s="160"/>
-      <c r="HM3" s="160"/>
-      <c r="HN3" s="160"/>
-      <c r="HO3" s="160"/>
-      <c r="HP3" s="160"/>
-      <c r="HQ3" s="160"/>
-      <c r="HR3" s="160"/>
-      <c r="HS3" s="160"/>
+      <c r="HL3" s="158"/>
+      <c r="HM3" s="158"/>
+      <c r="HN3" s="158"/>
+      <c r="HO3" s="158"/>
+      <c r="HP3" s="158"/>
+      <c r="HQ3" s="158"/>
+      <c r="HR3" s="158"/>
+      <c r="HS3" s="158"/>
       <c r="HV3" s="167"/>
-      <c r="HW3" s="160"/>
+      <c r="HW3" s="158"/>
       <c r="HY3" s="169"/>
       <c r="HZ3" s="169"/>
       <c r="IA3" s="169"/>
@@ -5853,77 +5907,77 @@
       <c r="IE3" s="169"/>
       <c r="IF3" s="169"/>
       <c r="IG3" s="169"/>
-      <c r="IJ3" s="160"/>
-      <c r="IK3" s="160"/>
-      <c r="IQ3" s="160"/>
-      <c r="IR3" s="160"/>
-      <c r="IX3" s="160"/>
-      <c r="IY3" s="160"/>
-      <c r="JE3" s="160"/>
-      <c r="JF3" s="160"/>
-      <c r="JL3" s="160"/>
-      <c r="JM3" s="160"/>
-      <c r="JN3" s="160"/>
-      <c r="JS3" s="160"/>
-      <c r="JT3" s="160"/>
+      <c r="IJ3" s="158"/>
+      <c r="IK3" s="158"/>
+      <c r="IQ3" s="158"/>
+      <c r="IR3" s="158"/>
+      <c r="IX3" s="158"/>
+      <c r="IY3" s="158"/>
+      <c r="JE3" s="158"/>
+      <c r="JF3" s="158"/>
+      <c r="JL3" s="158"/>
+      <c r="JM3" s="158"/>
+      <c r="JN3" s="158"/>
+      <c r="JS3" s="158"/>
+      <c r="JT3" s="158"/>
       <c r="JW3" s="165"/>
       <c r="JX3" s="165"/>
       <c r="JY3" s="165"/>
-      <c r="JZ3" s="160"/>
-      <c r="KA3" s="160"/>
+      <c r="JZ3" s="158"/>
+      <c r="KA3" s="158"/>
       <c r="KB3" s="165"/>
       <c r="KC3" s="165"/>
-      <c r="KG3" s="160"/>
+      <c r="KG3" s="158"/>
       <c r="KH3" s="163"/>
-      <c r="KN3" s="160"/>
-      <c r="KO3" s="160"/>
-      <c r="KP3" s="160"/>
-      <c r="KQ3" s="160"/>
-      <c r="KR3" s="160"/>
-      <c r="KV3" s="160"/>
-      <c r="LB3" s="160"/>
-      <c r="LC3" s="160"/>
-      <c r="LI3" s="160"/>
-      <c r="LJ3" s="160"/>
-      <c r="LP3" s="160"/>
-      <c r="LQ3" s="160"/>
-      <c r="LW3" s="160"/>
-      <c r="LX3" s="160"/>
-      <c r="MD3" s="160"/>
-      <c r="ME3" s="160"/>
-      <c r="MF3" s="160"/>
-      <c r="MK3" s="160"/>
-      <c r="ML3" s="160"/>
-      <c r="MR3" s="160"/>
-      <c r="MS3" s="160"/>
-      <c r="MY3" s="160"/>
-      <c r="MZ3" s="160"/>
-      <c r="NF3" s="160"/>
-      <c r="NG3" s="160"/>
-      <c r="NM3" s="160"/>
-      <c r="NN3" s="160"/>
-      <c r="NT3" s="160"/>
-      <c r="NU3" s="160"/>
-      <c r="OA3" s="160"/>
-      <c r="OB3" s="160"/>
-      <c r="OH3" s="160"/>
-      <c r="OI3" s="160"/>
-      <c r="OO3" s="160"/>
-      <c r="OP3" s="160"/>
-      <c r="OV3" s="160"/>
-      <c r="OW3" s="160"/>
-      <c r="PC3" s="160"/>
-      <c r="PD3" s="160"/>
-      <c r="PJ3" s="160"/>
-      <c r="PK3" s="160"/>
-      <c r="PQ3" s="160"/>
-      <c r="PR3" s="160"/>
+      <c r="KN3" s="158"/>
+      <c r="KO3" s="158"/>
+      <c r="KP3" s="158"/>
+      <c r="KQ3" s="158"/>
+      <c r="KR3" s="158"/>
+      <c r="KV3" s="158"/>
+      <c r="LB3" s="158"/>
+      <c r="LC3" s="158"/>
+      <c r="LI3" s="158"/>
+      <c r="LJ3" s="158"/>
+      <c r="LP3" s="158"/>
+      <c r="LQ3" s="158"/>
+      <c r="LW3" s="158"/>
+      <c r="LX3" s="158"/>
+      <c r="MD3" s="158"/>
+      <c r="ME3" s="158"/>
+      <c r="MF3" s="158"/>
+      <c r="MK3" s="158"/>
+      <c r="ML3" s="158"/>
+      <c r="MR3" s="158"/>
+      <c r="MS3" s="158"/>
+      <c r="MY3" s="158"/>
+      <c r="MZ3" s="158"/>
+      <c r="NF3" s="158"/>
+      <c r="NG3" s="158"/>
+      <c r="NM3" s="158"/>
+      <c r="NN3" s="158"/>
+      <c r="NT3" s="158"/>
+      <c r="NU3" s="158"/>
+      <c r="OA3" s="158"/>
+      <c r="OB3" s="158"/>
+      <c r="OH3" s="158"/>
+      <c r="OI3" s="158"/>
+      <c r="OO3" s="158"/>
+      <c r="OP3" s="158"/>
+      <c r="OV3" s="158"/>
+      <c r="OW3" s="158"/>
+      <c r="PC3" s="158"/>
+      <c r="PD3" s="158"/>
+      <c r="PJ3" s="158"/>
+      <c r="PK3" s="158"/>
+      <c r="PQ3" s="158"/>
+      <c r="PR3" s="158"/>
       <c r="PX3" s="165"/>
       <c r="PY3" s="165"/>
       <c r="PZ3" s="163"/>
       <c r="QA3" s="165"/>
-      <c r="QE3" s="160"/>
-      <c r="QF3" s="160"/>
+      <c r="QE3" s="158"/>
+      <c r="QF3" s="158"/>
       <c r="QK3" s="165"/>
       <c r="QL3" s="167"/>
       <c r="QM3" s="165"/>
@@ -5931,36 +5985,36 @@
       <c r="QO3" s="163"/>
       <c r="QP3" s="163"/>
       <c r="QQ3" s="163"/>
-      <c r="QS3" s="160"/>
-      <c r="QT3" s="160"/>
-      <c r="QZ3" s="160"/>
-      <c r="RA3" s="160"/>
-      <c r="RG3" s="160"/>
-      <c r="RH3" s="160"/>
-      <c r="RN3" s="160"/>
-      <c r="RO3" s="160"/>
-      <c r="RU3" s="160"/>
-      <c r="RV3" s="160"/>
-      <c r="SB3" s="160"/>
-      <c r="SC3" s="160"/>
+      <c r="QS3" s="158"/>
+      <c r="QT3" s="158"/>
+      <c r="QZ3" s="158"/>
+      <c r="RA3" s="158"/>
+      <c r="RG3" s="158"/>
+      <c r="RH3" s="158"/>
+      <c r="RN3" s="158"/>
+      <c r="RO3" s="158"/>
+      <c r="RU3" s="158"/>
+      <c r="RV3" s="158"/>
+      <c r="SB3" s="158"/>
+      <c r="SC3" s="158"/>
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:75">
       <c r="A4" s="142">
         <v>1</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="152" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="155">
+      <c r="E4" s="153">
         <v>44508</v>
       </c>
-      <c r="F4" s="155"/>
+      <c r="F4" s="153"/>
       <c r="H4" s="146" t="s">
         <v>16</v>
       </c>
@@ -5973,7 +6027,7 @@
       <c r="K4" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="159" t="s">
+      <c r="L4" s="161" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="144" t="s">
@@ -5998,24 +6052,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="39" customHeight="1" spans="1:75">
+    <row r="5" ht="57.6" spans="1:75">
       <c r="A5" s="142">
         <v>2</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="152" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="155">
+      <c r="E5" s="153">
         <v>44509</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="I5" s="151"/>
+      <c r="F5" s="153"/>
+      <c r="I5" s="152"/>
       <c r="K5" s="144" t="s">
         <v>27</v>
       </c>
@@ -6024,42 +6078,63 @@
       <c r="BP5" s="142"/>
       <c r="BW5" s="142"/>
     </row>
-    <row r="6" ht="39" customHeight="1" spans="1:10">
+    <row r="6" ht="43" customHeight="1" spans="1:25">
       <c r="A6" s="142">
         <v>3</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
+      <c r="B6" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="153"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="V6" s="144" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="144" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="144" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="144" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" ht="40.05" customHeight="1" spans="1:8">
       <c r="A7" s="142"/>
-      <c r="B7" s="151"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
+      <c r="B7" s="152"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
       <c r="H7" s="146"/>
     </row>
     <row r="8" ht="40.05" customHeight="1" spans="1:6">
       <c r="A8" s="142"/>
-      <c r="B8" s="151"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
+      <c r="B8" s="152"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
     </row>
     <row r="9" s="143" customFormat="1" ht="40.05" hidden="1" customHeight="1" spans="1:497">
-      <c r="A9" s="152">
+      <c r="A9" s="154">
         <v>6</v>
       </c>
-      <c r="B9" s="153" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="153" t="s">
-        <v>29</v>
+      <c r="B9" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="155" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" s="156">
         <v>44501</v>
@@ -6068,10 +6143,10 @@
         <v>44509</v>
       </c>
       <c r="G9" s="157" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I9" s="157" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M9" s="162"/>
       <c r="N9" s="162"/>
@@ -6259,28 +6334,28 @@
     </row>
     <row r="10" ht="40.05" customHeight="1" spans="1:6">
       <c r="A10" s="142"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
     </row>
     <row r="11" s="143" customFormat="1" ht="40.05" hidden="1" customHeight="1" spans="1:497">
-      <c r="A11" s="152">
+      <c r="A11" s="154">
         <v>8</v>
       </c>
-      <c r="B11" s="153" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="153" t="s">
-        <v>29</v>
+      <c r="B11" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="156">
         <v>44501</v>
       </c>
       <c r="F11" s="156"/>
       <c r="G11" s="157" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I11" s="157"/>
       <c r="M11" s="162"/>
@@ -6469,31 +6544,31 @@
     </row>
     <row r="12" ht="40.05" customHeight="1" spans="1:6">
       <c r="A12" s="142"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
     </row>
     <row r="13" s="143" customFormat="1" ht="40.05" hidden="1" customHeight="1" spans="1:497">
-      <c r="A13" s="152">
+      <c r="A13" s="154">
         <v>10</v>
       </c>
-      <c r="B13" s="153" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="153" t="s">
-        <v>29</v>
+      <c r="B13" s="155" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="155" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" s="156">
         <v>44501</v>
       </c>
       <c r="F13" s="156"/>
       <c r="G13" s="157" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I13" s="157" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M13" s="162"/>
       <c r="N13" s="162"/>
@@ -7282,6 +7357,7 @@
         <filter val="进行中"/>
       </filters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
@@ -7403,1058 +7479,1066 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.79807692307692" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.3365384615385" style="105" customWidth="1"/>
-    <col min="2" max="3" width="10.125" style="106" customWidth="1"/>
-    <col min="4" max="4" width="51.7980769230769" style="105" customWidth="1"/>
-    <col min="5" max="5" width="20.2019230769231" style="107" customWidth="1"/>
-    <col min="6" max="6" width="13.6057692307692" style="108" customWidth="1"/>
-    <col min="7" max="7" width="21.7980769230769" style="105" customWidth="1"/>
-    <col min="8" max="8" width="28.0673076923077" style="105" customWidth="1"/>
-    <col min="9" max="9" width="30.7307692307692" style="105" customWidth="1"/>
-    <col min="10" max="16384" width="9.79807692307692" style="105"/>
+    <col min="1" max="1" width="21.3333333333333" style="105" customWidth="1"/>
+    <col min="2" max="3" width="10.1296296296296" style="106" customWidth="1"/>
+    <col min="4" max="4" width="51.7962962962963" style="105" customWidth="1"/>
+    <col min="5" max="5" width="20.2037037037037" style="107" customWidth="1"/>
+    <col min="6" max="6" width="13.6018518518519" style="108" customWidth="1"/>
+    <col min="7" max="7" width="21.7962962962963" style="105" customWidth="1"/>
+    <col min="8" max="8" width="28.0648148148148" style="105" customWidth="1"/>
+    <col min="9" max="9" width="30.7314814814815" style="105" customWidth="1"/>
+    <col min="10" max="16384" width="9.7962962962963" style="105"/>
   </cols>
   <sheetData>
     <row r="1" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="109" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C1" s="111" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="E1" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="114" t="s">
+        <v>49</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I1" s="112" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A2" s="109"/>
       <c r="B2" s="110"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A3" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="116">
+      <c r="A3" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="119">
         <v>44501</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="134"/>
     </row>
     <row r="4" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A4" s="118"/>
-      <c r="B4" s="116">
+      <c r="A4" s="124"/>
+      <c r="B4" s="119">
         <v>44502</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
       <c r="I4" s="134"/>
     </row>
     <row r="5" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A5" s="118"/>
-      <c r="B5" s="116">
+      <c r="A5" s="124"/>
+      <c r="B5" s="119">
         <v>44503</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="134"/>
     </row>
     <row r="6" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A6" s="118"/>
-      <c r="B6" s="116">
+      <c r="A6" s="124"/>
+      <c r="B6" s="119">
         <v>44504</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
       <c r="I6" s="134"/>
     </row>
     <row r="7" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A7" s="118"/>
-      <c r="B7" s="116">
+      <c r="A7" s="124"/>
+      <c r="B7" s="119">
         <v>44505</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
       <c r="I7" s="134"/>
     </row>
     <row r="8" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A8" s="118"/>
-      <c r="B8" s="116">
+      <c r="A8" s="124"/>
+      <c r="B8" s="119">
         <v>44506</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
       <c r="I8" s="134"/>
     </row>
     <row r="9" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A9" s="118"/>
-      <c r="B9" s="116">
+      <c r="A9" s="124"/>
+      <c r="B9" s="119">
         <v>44507</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
       <c r="I9" s="134"/>
     </row>
     <row r="10" s="103" customFormat="1" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A10" s="118"/>
-      <c r="B10" s="116">
+      <c r="A10" s="124"/>
+      <c r="B10" s="119">
         <v>44508</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
       <c r="I10" s="135"/>
     </row>
     <row r="11" s="103" customFormat="1" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A11" s="118"/>
-      <c r="B11" s="116">
+      <c r="A11" s="124"/>
+      <c r="B11" s="119">
         <v>44509</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
       <c r="I11" s="135"/>
     </row>
-    <row r="12" ht="51" spans="1:9">
-      <c r="A12" s="118"/>
-      <c r="B12" s="116">
+    <row r="12" ht="43.2" spans="1:9">
+      <c r="A12" s="124"/>
+      <c r="B12" s="119">
         <v>44510</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="131">
+      <c r="D12" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="125">
         <v>0.6</v>
       </c>
-      <c r="G12" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="119"/>
+      <c r="G12" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="126"/>
       <c r="I12" s="134"/>
     </row>
     <row r="13" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A13" s="118"/>
-      <c r="B13" s="116">
+      <c r="A13" s="124"/>
+      <c r="B13" s="119">
         <v>44511</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="131">
+      <c r="D13" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="125">
         <v>0.4</v>
       </c>
-      <c r="G13" s="122" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="119" t="s">
-        <v>52</v>
+      <c r="G13" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="126" t="s">
+        <v>59</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A14" s="118"/>
-      <c r="B14" s="116">
+      <c r="A14" s="124"/>
+      <c r="B14" s="119">
         <v>44512</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="119"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="134"/>
     </row>
     <row r="15" s="104" customFormat="1" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A15" s="118"/>
-      <c r="B15" s="116">
+      <c r="A15" s="124"/>
+      <c r="B15" s="119">
         <v>44513</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="119"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="134"/>
     </row>
     <row r="16" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A16" s="118"/>
-      <c r="B16" s="116">
+      <c r="A16" s="124"/>
+      <c r="B16" s="119">
         <v>44514</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="119"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="134"/>
     </row>
     <row r="17" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A17" s="118"/>
-      <c r="B17" s="116">
+      <c r="A17" s="124"/>
+      <c r="B17" s="119">
         <v>44515</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="119"/>
+      <c r="D17" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="126"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="126"/>
       <c r="I17" s="134"/>
     </row>
     <row r="18" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A18" s="118"/>
-      <c r="B18" s="116">
+      <c r="A18" s="124"/>
+      <c r="B18" s="119">
         <v>44516</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="119"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="126"/>
       <c r="I18" s="134"/>
     </row>
-    <row r="19" ht="17" spans="1:9">
-      <c r="A19" s="118"/>
-      <c r="B19" s="116">
+    <row r="19" spans="1:9">
+      <c r="A19" s="124"/>
+      <c r="B19" s="119">
         <v>44517</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
+      <c r="D19" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="126"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
     </row>
     <row r="20" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A20" s="118"/>
-      <c r="B20" s="116">
+      <c r="A20" s="124"/>
+      <c r="B20" s="119">
         <v>44518</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="119"/>
+      <c r="D20" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="126"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="126"/>
       <c r="I20" s="136" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A21" s="118"/>
-      <c r="B21" s="116">
+      <c r="A21" s="124"/>
+      <c r="B21" s="119">
         <v>44519</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="133"/>
+      <c r="D21" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="126"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="129"/>
       <c r="I21" s="134"/>
     </row>
     <row r="22" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A22" s="118"/>
-      <c r="B22" s="116">
+      <c r="A22" s="124"/>
+      <c r="B22" s="119">
         <v>44520</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="133"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="129"/>
       <c r="I22" s="134"/>
     </row>
     <row r="23" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A23" s="118"/>
-      <c r="B23" s="116">
+      <c r="A23" s="124"/>
+      <c r="B23" s="119">
         <v>44521</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="133"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="129"/>
       <c r="I23" s="134"/>
     </row>
     <row r="24" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A24" s="118"/>
-      <c r="B24" s="116">
+      <c r="A24" s="124"/>
+      <c r="B24" s="119">
         <v>44522</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="133"/>
+      <c r="D24" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="126"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="129"/>
       <c r="I24" s="134"/>
     </row>
     <row r="25" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A25" s="118"/>
-      <c r="B25" s="116">
+      <c r="A25" s="124"/>
+      <c r="B25" s="119">
         <v>44523</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="119"/>
+      <c r="D25" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="126"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="126"/>
       <c r="I25" s="134"/>
     </row>
     <row r="26" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A26" s="118"/>
-      <c r="B26" s="116">
+      <c r="A26" s="124"/>
+      <c r="B26" s="119">
         <v>44524</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="119"/>
+      <c r="D26" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="126"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="126"/>
       <c r="I26" s="134"/>
     </row>
     <row r="27" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A27" s="118"/>
-      <c r="B27" s="116">
+      <c r="A27" s="124"/>
+      <c r="B27" s="119">
         <v>44525</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="119"/>
+      <c r="D27" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="126"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="126"/>
       <c r="I27" s="134"/>
     </row>
     <row r="28" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A28" s="118"/>
-      <c r="B28" s="116">
+      <c r="A28" s="124"/>
+      <c r="B28" s="119">
         <v>44526</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="119"/>
+      <c r="D28" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="126"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="126"/>
       <c r="I28" s="134"/>
     </row>
     <row r="29" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A29" s="118"/>
-      <c r="B29" s="116">
+      <c r="A29" s="124"/>
+      <c r="B29" s="119">
         <v>44527</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="119"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="126"/>
       <c r="I29" s="134"/>
     </row>
     <row r="30" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A30" s="118"/>
-      <c r="B30" s="116">
+      <c r="A30" s="124"/>
+      <c r="B30" s="119">
         <v>44528</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="119"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="134"/>
     </row>
     <row r="31" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A31" s="118"/>
-      <c r="B31" s="116">
+      <c r="A31" s="124"/>
+      <c r="B31" s="119">
         <v>44529</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="119"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="126"/>
       <c r="I31" s="134"/>
     </row>
     <row r="32" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A32" s="118"/>
-      <c r="B32" s="116">
+      <c r="A32" s="124"/>
+      <c r="B32" s="119">
         <v>44530</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="119"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="126"/>
       <c r="I32" s="134"/>
     </row>
     <row r="33" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A33" s="118"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="119"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="126"/>
       <c r="I33" s="134"/>
     </row>
     <row r="34" ht="15.85" hidden="1" customHeight="1" spans="1:9">
-      <c r="A34" s="121"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="119"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="126"/>
       <c r="I34" s="134"/>
     </row>
     <row r="35" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A35" s="123"/>
-      <c r="B35" s="116">
+      <c r="A35" s="131"/>
+      <c r="B35" s="119">
         <v>44531</v>
       </c>
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
       <c r="I35" s="134"/>
     </row>
     <row r="36" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A36" s="124"/>
-      <c r="B36" s="116">
+      <c r="A36" s="132"/>
+      <c r="B36" s="119">
         <v>44532</v>
       </c>
-      <c r="C36" s="116" t="s">
+      <c r="C36" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
       <c r="I36" s="134"/>
     </row>
     <row r="37" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A37" s="124"/>
-      <c r="B37" s="116">
+      <c r="A37" s="132"/>
+      <c r="B37" s="119">
         <v>44533</v>
       </c>
-      <c r="C37" s="116" t="s">
+      <c r="C37" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
       <c r="I37" s="134"/>
     </row>
     <row r="38" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A38" s="124"/>
-      <c r="B38" s="116">
+      <c r="A38" s="132"/>
+      <c r="B38" s="119">
         <v>44534</v>
       </c>
-      <c r="C38" s="116" t="s">
+      <c r="C38" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="117"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
       <c r="I38" s="134"/>
     </row>
     <row r="39" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A39" s="124"/>
-      <c r="B39" s="116">
+      <c r="A39" s="132"/>
+      <c r="B39" s="119">
         <v>44535</v>
       </c>
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
       <c r="I39" s="134"/>
     </row>
     <row r="40" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A40" s="124"/>
-      <c r="B40" s="116">
+      <c r="A40" s="132"/>
+      <c r="B40" s="119">
         <v>44536</v>
       </c>
-      <c r="C40" s="116" t="s">
+      <c r="C40" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="117"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
       <c r="I40" s="134"/>
     </row>
     <row r="41" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A41" s="124"/>
-      <c r="B41" s="116">
+      <c r="A41" s="132"/>
+      <c r="B41" s="119">
         <v>44537</v>
       </c>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="117"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
       <c r="I41" s="134"/>
     </row>
     <row r="42" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A42" s="125"/>
-      <c r="B42" s="116">
+      <c r="A42" s="133"/>
+      <c r="B42" s="119">
         <v>44538</v>
       </c>
-      <c r="C42" s="116" t="s">
+      <c r="C42" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
       <c r="I42" s="134"/>
     </row>
     <row r="43" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A43" s="125"/>
-      <c r="B43" s="116">
+      <c r="A43" s="133"/>
+      <c r="B43" s="119">
         <v>44539</v>
       </c>
-      <c r="C43" s="116" t="s">
+      <c r="C43" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
       <c r="I43" s="134"/>
     </row>
     <row r="44" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A44" s="124"/>
-      <c r="B44" s="116">
+      <c r="A44" s="132"/>
+      <c r="B44" s="119">
         <v>44540</v>
       </c>
-      <c r="C44" s="116" t="s">
+      <c r="C44" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
       <c r="I44" s="134"/>
     </row>
     <row r="45" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A45" s="124"/>
-      <c r="B45" s="116">
+      <c r="A45" s="132"/>
+      <c r="B45" s="119">
         <v>44541</v>
       </c>
-      <c r="C45" s="116" t="s">
+      <c r="C45" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
       <c r="I45" s="134"/>
     </row>
     <row r="46" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A46" s="124"/>
-      <c r="B46" s="116">
+      <c r="A46" s="132"/>
+      <c r="B46" s="119">
         <v>44542</v>
       </c>
-      <c r="C46" s="116" t="s">
+      <c r="C46" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
       <c r="I46" s="134"/>
     </row>
     <row r="47" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A47" s="118"/>
-      <c r="B47" s="116">
+      <c r="A47" s="124"/>
+      <c r="B47" s="119">
         <v>44543</v>
       </c>
-      <c r="C47" s="116" t="s">
+      <c r="C47" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="122"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
       <c r="I47" s="134"/>
     </row>
     <row r="48" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A48" s="124"/>
-      <c r="B48" s="116">
+      <c r="A48" s="132"/>
+      <c r="B48" s="119">
         <v>44544</v>
       </c>
-      <c r="C48" s="116" t="s">
+      <c r="C48" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
       <c r="I48" s="134"/>
     </row>
     <row r="49" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A49" s="124"/>
-      <c r="B49" s="116">
+      <c r="A49" s="132"/>
+      <c r="B49" s="119">
         <v>44545</v>
       </c>
-      <c r="C49" s="116" t="s">
+      <c r="C49" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
       <c r="I49" s="134"/>
     </row>
     <row r="50" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A50" s="124"/>
-      <c r="B50" s="116">
+      <c r="A50" s="132"/>
+      <c r="B50" s="119">
         <v>44546</v>
       </c>
-      <c r="C50" s="116" t="s">
+      <c r="C50" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
       <c r="I50" s="134"/>
     </row>
     <row r="51" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A51" s="124"/>
-      <c r="B51" s="116">
+      <c r="A51" s="132"/>
+      <c r="B51" s="119">
         <v>44547</v>
       </c>
-      <c r="C51" s="116" t="s">
+      <c r="C51" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
       <c r="I51" s="134"/>
     </row>
     <row r="52" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A52" s="124"/>
-      <c r="B52" s="116">
+      <c r="A52" s="132"/>
+      <c r="B52" s="119">
         <v>44548</v>
       </c>
-      <c r="C52" s="116" t="s">
+      <c r="C52" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
       <c r="I52" s="134"/>
     </row>
     <row r="53" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A53" s="124"/>
-      <c r="B53" s="116">
+      <c r="A53" s="132"/>
+      <c r="B53" s="119">
         <v>44549</v>
       </c>
-      <c r="C53" s="116" t="s">
+      <c r="C53" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
       <c r="I53" s="134"/>
     </row>
     <row r="54" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A54" s="124"/>
-      <c r="B54" s="116">
+      <c r="A54" s="132"/>
+      <c r="B54" s="119">
         <v>44550</v>
       </c>
-      <c r="C54" s="116" t="s">
+      <c r="C54" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="122"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
       <c r="I54" s="134"/>
     </row>
     <row r="55" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A55" s="124"/>
-      <c r="B55" s="116">
+      <c r="A55" s="132"/>
+      <c r="B55" s="119">
         <v>44551</v>
       </c>
-      <c r="C55" s="116" t="s">
+      <c r="C55" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
       <c r="I55" s="134"/>
     </row>
     <row r="56" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A56" s="124"/>
-      <c r="B56" s="116">
+      <c r="A56" s="132"/>
+      <c r="B56" s="119">
         <v>44552</v>
       </c>
-      <c r="C56" s="116" t="s">
+      <c r="C56" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
       <c r="I56" s="134"/>
     </row>
     <row r="57" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A57" s="124"/>
-      <c r="B57" s="116">
+      <c r="A57" s="132"/>
+      <c r="B57" s="119">
         <v>44553</v>
       </c>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
       <c r="I57" s="134"/>
     </row>
     <row r="58" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A58" s="124"/>
-      <c r="B58" s="116">
+      <c r="A58" s="132"/>
+      <c r="B58" s="119">
         <v>44554</v>
       </c>
-      <c r="C58" s="116" t="s">
+      <c r="C58" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="123"/>
       <c r="I58" s="134"/>
     </row>
     <row r="59" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A59" s="124"/>
-      <c r="B59" s="116">
+      <c r="A59" s="132"/>
+      <c r="B59" s="119">
         <v>44555</v>
       </c>
-      <c r="C59" s="116" t="s">
+      <c r="C59" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
       <c r="I59" s="134"/>
     </row>
     <row r="60" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A60" s="124"/>
-      <c r="B60" s="116">
+      <c r="A60" s="132"/>
+      <c r="B60" s="119">
         <v>44556</v>
       </c>
-      <c r="C60" s="116" t="s">
+      <c r="C60" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="123"/>
+      <c r="H60" s="123"/>
       <c r="I60" s="134"/>
     </row>
     <row r="61" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A61" s="124"/>
-      <c r="B61" s="116">
+      <c r="A61" s="132"/>
+      <c r="B61" s="119">
         <v>44557</v>
       </c>
-      <c r="C61" s="116" t="s">
+      <c r="C61" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
       <c r="I61" s="134"/>
     </row>
     <row r="62" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A62" s="124"/>
-      <c r="B62" s="116">
+      <c r="A62" s="132"/>
+      <c r="B62" s="119">
         <v>44558</v>
       </c>
-      <c r="C62" s="116" t="s">
+      <c r="C62" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
       <c r="I62" s="134"/>
     </row>
     <row r="63" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A63" s="124"/>
-      <c r="B63" s="116">
+      <c r="A63" s="132"/>
+      <c r="B63" s="119">
         <v>44559</v>
       </c>
-      <c r="C63" s="116" t="s">
+      <c r="C63" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="123"/>
       <c r="I63" s="134"/>
     </row>
     <row r="64" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A64" s="124"/>
-      <c r="B64" s="116">
+      <c r="A64" s="132"/>
+      <c r="B64" s="119">
         <v>44560</v>
       </c>
-      <c r="C64" s="116" t="s">
+      <c r="C64" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="131"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="123"/>
       <c r="I64" s="134"/>
     </row>
     <row r="65" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A65" s="124"/>
-      <c r="B65" s="116">
+      <c r="A65" s="132"/>
+      <c r="B65" s="119">
         <v>44561</v>
       </c>
-      <c r="C65" s="116" t="s">
+      <c r="C65" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
       <c r="I65" s="134"/>
     </row>
     <row r="66" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A66" s="124"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="122"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="131"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122"/>
+      <c r="A66" s="132"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="123"/>
       <c r="I66" s="134"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="137"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="122"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="123"/>
+      <c r="H67" s="123"/>
       <c r="I67" s="134"/>
     </row>
     <row r="68" spans="1:8">
@@ -8517,7 +8601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -8525,22 +8609,22 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.79807692307692" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.79807692307692" style="58"/>
-    <col min="2" max="2" width="10.0673076923077" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.7307692307692" style="58" customWidth="1"/>
-    <col min="4" max="4" width="9.79807692307692" style="58"/>
-    <col min="5" max="5" width="15.7980769230769" style="58" customWidth="1"/>
-    <col min="6" max="6" width="32.3365384615385" style="58" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="58" customWidth="1"/>
-    <col min="8" max="9" width="9.79807692307692" style="58"/>
-    <col min="10" max="10" width="12.7980769230769" style="58" customWidth="1"/>
-    <col min="11" max="11" width="9.79807692307692" style="58"/>
-    <col min="12" max="12" width="12.5288461538462" style="58" customWidth="1"/>
-    <col min="13" max="13" width="24.125" style="58" customWidth="1"/>
-    <col min="14" max="14" width="30.7980769230769" style="58" customWidth="1"/>
-    <col min="15" max="16384" width="9.79807692307692" style="58"/>
+    <col min="1" max="1" width="9.7962962962963" style="58"/>
+    <col min="2" max="2" width="10.0648148148148" style="58" customWidth="1"/>
+    <col min="3" max="3" width="13.7314814814815" style="58" customWidth="1"/>
+    <col min="4" max="4" width="9.7962962962963" style="58"/>
+    <col min="5" max="5" width="15.7962962962963" style="58" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" style="58" customWidth="1"/>
+    <col min="7" max="7" width="30.1296296296296" style="58" customWidth="1"/>
+    <col min="8" max="9" width="9.7962962962963" style="58"/>
+    <col min="10" max="10" width="12.7962962962963" style="58" customWidth="1"/>
+    <col min="11" max="11" width="9.7962962962963" style="58"/>
+    <col min="12" max="12" width="12.5277777777778" style="58" customWidth="1"/>
+    <col min="13" max="13" width="24.1296296296296" style="58" customWidth="1"/>
+    <col min="14" max="14" width="30.7962962962963" style="58" customWidth="1"/>
+    <col min="15" max="16384" width="9.7962962962963" style="58"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:7">
@@ -8548,648 +8632,648 @@
         <v>0</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A2" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="A2" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="A3" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A4" s="63">
+      <c r="A4" s="64">
         <v>11</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="65">
+      <c r="B4" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="66">
         <v>44479</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="I4" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="91" t="s">
-        <v>72</v>
+      <c r="D4" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="I4" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A5" s="63">
+      <c r="A5" s="64">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="74">
+      <c r="B5" s="65"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="89">
         <v>44482</v>
       </c>
-      <c r="K5" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="92" t="s">
-        <v>75</v>
+      <c r="K5" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="73"/>
+      <c r="N5" s="90" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A6" s="63">
+      <c r="A6" s="64">
         <v>13</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="67">
+      <c r="B6" s="65"/>
+      <c r="C6" s="71">
         <v>44486</v>
       </c>
-      <c r="D6" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="74">
+      <c r="D6" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="89">
         <v>44485</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:14">
+      <c r="A7" s="64">
+        <v>14</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="71">
+        <v>44490</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="89">
+        <v>44489</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:14">
+      <c r="A8" s="64">
+        <v>15</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="71">
+        <v>44493</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="86" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A7" s="63">
-        <v>14</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="67">
-        <v>44490</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86" t="s">
+      <c r="E8" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="74">
-        <v>44489</v>
-      </c>
-      <c r="K7" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="86" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A8" s="63">
-        <v>15</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="67">
-        <v>44493</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="74">
+      <c r="F8" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="65"/>
+      <c r="J8" s="89">
         <v>44492</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" ht="24.95" customHeight="1" spans="1:14">
+      <c r="A9" s="64">
+        <v>16</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="71">
+        <v>44497</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="65"/>
+      <c r="J9" s="89">
+        <v>44496</v>
+      </c>
+      <c r="K9" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:14">
+      <c r="A10" s="64">
+        <v>17</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="71">
+        <v>44500</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="86" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A9" s="63">
-        <v>16</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="67">
-        <v>44497</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86" t="s">
+      <c r="E10" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="74">
-        <v>44496</v>
-      </c>
-      <c r="K9" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A10" s="63">
-        <v>17</v>
-      </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="67">
-        <v>44500</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="74">
+      <c r="F10" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="89">
         <v>44499</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:14">
+      <c r="A11" s="64">
+        <v>18</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="71">
+        <v>44504</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="89">
+        <v>44503</v>
+      </c>
+      <c r="K11" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="78"/>
+      <c r="N11" s="79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:14">
+      <c r="A12" s="64">
+        <v>19</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="71">
+        <v>44507</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="86" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A11" s="63">
-        <v>18</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="67">
-        <v>44504</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="74">
-        <v>44503</v>
-      </c>
-      <c r="K11" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A12" s="63">
-        <v>19</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="67">
-        <v>44507</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="74">
+      <c r="E12" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="65"/>
+      <c r="J12" s="89">
         <v>44506</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" ht="25.7" customHeight="1" spans="1:14">
+      <c r="A13" s="64">
+        <v>20</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="71">
+        <v>44511</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="65"/>
+      <c r="J13" s="89">
+        <v>44510</v>
+      </c>
+      <c r="K13" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="98"/>
+      <c r="N13" s="99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" ht="24.95" customHeight="1" spans="1:14">
+      <c r="A14" s="64">
+        <v>21</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="71">
+        <v>44514</v>
+      </c>
+      <c r="D14" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="85" t="s">
+      <c r="E14" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="65"/>
+      <c r="J14" s="89">
+        <v>44513</v>
+      </c>
+      <c r="K14" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="78"/>
+    </row>
+    <row r="15" ht="24.95" customHeight="1" spans="1:14">
+      <c r="A15" s="64">
+        <v>22</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="81">
+        <v>44518</v>
+      </c>
+      <c r="D15" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="86" t="s">
+      <c r="E15" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="65"/>
+      <c r="J15" s="94">
+        <v>44517</v>
+      </c>
+      <c r="K15" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="100"/>
+      <c r="N15" s="101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:7">
+      <c r="A16" s="64">
+        <v>23</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="66">
+        <v>44521</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:7">
+      <c r="A17" s="64">
+        <v>24</v>
+      </c>
+      <c r="B17" s="86"/>
+      <c r="C17" s="89">
+        <v>44525</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" ht="25.7" customHeight="1" spans="1:14">
-      <c r="A13" s="63">
-        <v>20</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="67">
-        <v>44511</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="74">
-        <v>44510</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="100" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A14" s="63">
-        <v>21</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="67">
-        <v>44514</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="85" t="s">
+      <c r="E17" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="F17" s="73"/>
+      <c r="G17" s="90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:7">
+      <c r="A18" s="64">
+        <v>25</v>
+      </c>
+      <c r="B18" s="86"/>
+      <c r="C18" s="89">
+        <v>44528</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:7">
+      <c r="A19" s="64">
+        <v>26</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="89">
+        <v>44532</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="74">
-        <v>44513</v>
-      </c>
-      <c r="K14" s="69" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:7">
+      <c r="A20" s="64">
+        <v>27</v>
+      </c>
+      <c r="B20" s="86"/>
+      <c r="C20" s="89">
+        <v>44535</v>
+      </c>
+      <c r="D20" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="85" t="s">
+      <c r="E20" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:7">
+      <c r="A21" s="64">
+        <v>28</v>
+      </c>
+      <c r="B21" s="86"/>
+      <c r="C21" s="89">
+        <v>44539</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="85"/>
-    </row>
-    <row r="15" ht="24.95" customHeight="1" spans="1:14">
-      <c r="A15" s="63">
-        <v>22</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="71">
-        <v>44518</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="75">
-        <v>44517</v>
-      </c>
-      <c r="K15" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="98"/>
-      <c r="N15" s="101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" ht="17.55" spans="1:7">
-      <c r="A16" s="63">
-        <v>23</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="65">
-        <v>44521</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" ht="17.55" spans="1:7">
-      <c r="A17" s="63">
-        <v>24</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74">
-        <v>44525</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" ht="17.55" spans="1:7">
-      <c r="A18" s="63">
-        <v>25</v>
-      </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74">
-        <v>44528</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" ht="17.55" spans="1:7">
-      <c r="A19" s="63">
-        <v>26</v>
-      </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74">
-        <v>44532</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" ht="17.55" spans="1:7">
-      <c r="A20" s="63">
-        <v>27</v>
-      </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74">
-        <v>44535</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" ht="17.55" spans="1:7">
-      <c r="A21" s="63">
-        <v>28</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74">
-        <v>44539</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" ht="17.55" spans="1:7">
-      <c r="A22" s="63">
+      <c r="E21" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:7">
+      <c r="A22" s="64">
         <v>29</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74">
+      <c r="B22" s="86"/>
+      <c r="C22" s="89">
         <v>44542</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" ht="27.75" spans="1:7">
-      <c r="A23" s="63">
+      <c r="D22" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" ht="30.75" spans="1:7">
+      <c r="A23" s="64">
         <v>30</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="67">
+      <c r="B23" s="86"/>
+      <c r="C23" s="71">
         <v>44546</v>
       </c>
-      <c r="D23" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" ht="17.55" spans="1:7">
-      <c r="A24" s="63">
+      <c r="D23" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="78"/>
+      <c r="G23" s="79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:7">
+      <c r="A24" s="64">
         <v>31</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74">
+      <c r="B24" s="86"/>
+      <c r="C24" s="89">
         <v>44549</v>
       </c>
-      <c r="D24" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="95"/>
-    </row>
-    <row r="25" ht="17.55" spans="1:7">
-      <c r="A25" s="63">
+      <c r="D24" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:7">
+      <c r="A25" s="64">
         <v>32</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="75">
+      <c r="B25" s="86"/>
+      <c r="C25" s="94">
         <v>44556</v>
       </c>
-      <c r="D25" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="88" t="s">
-        <v>68</v>
+      <c r="D25" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>78</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="97"/>
@@ -9209,7 +9293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U43"/>
   <sheetViews>
@@ -9217,31 +9301,31 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="45"/>
-    <col min="2" max="16" width="11.2692307692308" customWidth="1"/>
-    <col min="17" max="17" width="12.2692307692308" customWidth="1"/>
+    <col min="2" max="16" width="11.2685185185185" customWidth="1"/>
+    <col min="17" max="17" width="12.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -9257,53 +9341,53 @@
     <row r="2" ht="34.05" customHeight="1" spans="1:21">
       <c r="A2" s="39"/>
       <c r="B2" s="46" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="46" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -9367,7 +9451,7 @@
         <v>-164</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
@@ -9431,7 +9515,7 @@
         <v>-129</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
@@ -9743,7 +9827,7 @@
         <v>-138</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -10043,7 +10127,7 @@
         <v>-166</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10227,173 +10311,173 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="42"/>
+      <c r="H22" s="43"/>
       <c r="J22" s="54"/>
     </row>
     <row r="23" spans="4:10">
-      <c r="D23" s="42"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="J23" s="54"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
-      <c r="H24" s="42"/>
+      <c r="H24" s="43"/>
       <c r="J24" s="54"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="42"/>
+      <c r="H25" s="43"/>
       <c r="J25" s="54"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="43"/>
       <c r="J26" s="54"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="J27" s="54"/>
     </row>
     <row r="28" spans="4:10">
-      <c r="D28" s="42"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="42"/>
+      <c r="H28" s="43"/>
       <c r="J28" s="54"/>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="42"/>
+      <c r="H29" s="43"/>
       <c r="J29" s="54"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="42"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="50"/>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="42"/>
+      <c r="H30" s="43"/>
       <c r="J30" s="54"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
-      <c r="H31" s="42"/>
+      <c r="H31" s="43"/>
       <c r="J31" s="54"/>
     </row>
     <row r="32" spans="4:10">
-      <c r="D32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
-      <c r="H32" s="42"/>
+      <c r="H32" s="43"/>
       <c r="J32" s="54"/>
     </row>
     <row r="33" spans="4:10">
-      <c r="D33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
-      <c r="H33" s="42"/>
+      <c r="H33" s="43"/>
       <c r="J33" s="54"/>
     </row>
     <row r="34" spans="4:10">
-      <c r="D34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
-      <c r="H34" s="42"/>
+      <c r="H34" s="43"/>
       <c r="J34" s="54"/>
     </row>
     <row r="35" spans="4:10">
-      <c r="D35" s="42"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
-      <c r="H35" s="42"/>
+      <c r="H35" s="43"/>
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="4:10">
-      <c r="D36" s="42"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
-      <c r="H36" s="42"/>
+      <c r="H36" s="43"/>
       <c r="J36" s="45"/>
     </row>
     <row r="37" spans="4:8">
-      <c r="D37" s="42"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
       <c r="G37" s="50"/>
-      <c r="H37" s="42"/>
+      <c r="H37" s="43"/>
     </row>
     <row r="38" spans="4:8">
-      <c r="D38" s="42"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="50"/>
-      <c r="H38" s="42"/>
+      <c r="H38" s="43"/>
     </row>
     <row r="39" spans="4:8">
-      <c r="D39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="50"/>
-      <c r="H39" s="42"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="4:8">
-      <c r="D40" s="42"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
-      <c r="H40" s="42"/>
+      <c r="H40" s="43"/>
     </row>
     <row r="41" spans="4:8">
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="4:8">
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="4:8">
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10411,7 +10495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -10419,20 +10503,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.8653846153846" customWidth="1"/>
+    <col min="1" max="1" width="12.8611111111111" customWidth="1"/>
     <col min="2" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.1296296296296" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="16.2692307692308" customWidth="1"/>
-    <col min="12" max="12" width="10.6057692307692" customWidth="1"/>
-    <col min="13" max="13" width="11.8653846153846" customWidth="1"/>
+    <col min="11" max="11" width="16.2685185185185" customWidth="1"/>
+    <col min="12" max="12" width="10.6018518518519" customWidth="1"/>
+    <col min="13" max="13" width="11.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:15">
       <c r="A1" s="39" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B1" s="40">
         <v>44264</v>
@@ -10450,29 +10534,29 @@
         <v>44268</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:15">
       <c r="A2" s="39" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B2" s="39">
         <v>6</v>
@@ -10494,18 +10578,18 @@
         <v>23</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L2" s="39">
         <v>259</v>
       </c>
-      <c r="M2" s="44">
+      <c r="M2" s="42">
         <v>422</v>
       </c>
       <c r="N2" s="39"/>
@@ -10513,7 +10597,7 @@
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:15">
       <c r="A3" s="39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B3" s="39">
         <v>10</v>
@@ -10531,21 +10615,21 @@
         <v>10</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L3" s="39">
         <v>65</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="42">
         <v>65</v>
       </c>
       <c r="N3" s="39"/>
@@ -10553,7 +10637,7 @@
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:15">
       <c r="A4" s="39" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B4" s="39">
         <f>B2*B3</f>
@@ -10587,13 +10671,13 @@
         <v>6900</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L4" s="39">
         <f>L2*L3</f>
         <v>16835</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="42">
         <f>M2*M3</f>
         <v>27430</v>
       </c>
@@ -10608,13 +10692,13 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:15">
       <c r="A5" s="41" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10624,154 +10708,154 @@
       <c r="I5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+        <v>139</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
     </row>
     <row r="7" spans="11:15">
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="11:15">
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:15">
       <c r="A9" s="39" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B9" s="40">
         <v>44300</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
+        <v>126</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:15">
       <c r="A10" s="39" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B10" s="39">
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G10" s="39">
         <v>1</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="43">
+        <v>131</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="44">
         <v>259</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="44">
         <v>76</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:15">
       <c r="A11" s="39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B11" s="39">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" s="39">
         <v>8</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="43">
+        <v>131</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="44">
         <v>65</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="44">
         <v>65</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:15">
       <c r="A12" s="39" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B12" s="39">
         <f>B10*B11</f>
@@ -10785,7 +10869,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G12" s="39">
         <v>8</v>
@@ -10797,39 +10881,39 @@
         <f>G12*H12</f>
         <v>240</v>
       </c>
-      <c r="K12" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="43">
+      <c r="K12" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="44">
         <f>L10*L11</f>
         <v>16835</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="44">
         <f>M10*M11</f>
         <v>4940</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="44">
         <f>7620*1.13</f>
         <v>8610.6</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="44">
         <f>SUM(L12:N12)</f>
         <v>30385.6</v>
       </c>
     </row>
     <row r="13" ht="35" customHeight="1" spans="11:15">
-      <c r="K13" s="43"/>
-      <c r="L13" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="N13" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>96</v>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -10843,7 +10927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
@@ -10851,13 +10935,13 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="5.125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="18.2692307692308" style="32" customWidth="1"/>
+    <col min="1" max="2" width="5.12962962962963" style="32" customWidth="1"/>
+    <col min="3" max="3" width="18.2685185185185" style="32" customWidth="1"/>
     <col min="4" max="4" width="9" style="32"/>
-    <col min="5" max="5" width="35.7307692307692" style="32" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="35.7314814814815" style="32" customWidth="1"/>
+    <col min="6" max="6" width="5.12962962962963" style="32" customWidth="1"/>
     <col min="7" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
@@ -10867,37 +10951,37 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E1" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>123</v>
-      </c>
       <c r="M1" s="33" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:14">
@@ -10905,16 +10989,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -10923,13 +11007,13 @@
         <v>943</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L2" s="33">
         <f>40*6</f>
@@ -10945,19 +11029,19 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F3" s="35">
         <v>3</v>
@@ -10979,19 +11063,19 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B4" s="33">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
@@ -11013,19 +11097,19 @@
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:10">
       <c r="A5" s="33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B5" s="33">
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F5" s="35">
         <v>1</v>
@@ -11047,19 +11131,19 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -11069,30 +11153,30 @@
         <v>1886</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:10">
       <c r="A7" s="33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F7" s="35">
         <v>1</v>
@@ -11102,30 +11186,30 @@
         <v>943</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:10">
       <c r="A8" s="33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F8" s="35">
         <v>1</v>
@@ -11135,30 +11219,30 @@
         <v>943</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:10">
       <c r="A9" s="33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B9" s="33">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -11180,7 +11264,7 @@
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11206,7 +11290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:QJ539"/>
   <sheetViews>
@@ -11214,29 +11298,29 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="8.79807692307692" customWidth="1"/>
-    <col min="5" max="5" width="8.79807692307692" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="12.6057692307692" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="8.7962962962963" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6018518518519" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6057692307692" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6018518518519" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="15">
         <v>44501</v>
       </c>
@@ -11245,9 +11329,9 @@
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="15">
         <v>44502</v>
       </c>
@@ -11256,9 +11340,9 @@
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="15">
         <v>44503</v>
       </c>
@@ -11267,9 +11351,9 @@
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="15" spans="1:5">
       <c r="A5" s="15">
         <v>44504</v>
       </c>
@@ -11278,9 +11362,9 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" s="15">
         <v>44505</v>
       </c>
@@ -11289,9 +11373,9 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="15" spans="1:5">
       <c r="A7" s="15">
         <v>44506</v>
       </c>
@@ -11300,9 +11384,9 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="15" spans="1:5">
       <c r="A8" s="15">
         <v>44507</v>
       </c>
@@ -11311,9 +11395,9 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="15" spans="1:5">
       <c r="A9" s="15">
         <v>44508</v>
       </c>
@@ -11322,9 +11406,9 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="15" spans="1:5">
       <c r="A10" s="15">
         <v>44509</v>
       </c>
@@ -11333,9 +11417,9 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="15" spans="1:5">
       <c r="A11" s="15">
         <v>44510</v>
       </c>
@@ -11344,9 +11428,9 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="15" spans="1:5">
       <c r="A12" s="15">
         <v>44511</v>
       </c>
@@ -11355,9 +11439,9 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="15" spans="1:5">
       <c r="A13" s="15">
         <v>44512</v>
       </c>
@@ -11366,9 +11450,9 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="15" spans="1:5">
       <c r="A14" s="15">
         <v>44513</v>
       </c>
@@ -11377,9 +11461,9 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="15" spans="1:5">
       <c r="A15" s="15">
         <v>44514</v>
       </c>
@@ -11388,9 +11472,9 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:13">
       <c r="A16" s="15">
         <v>44515</v>
       </c>
@@ -11399,13 +11483,13 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="25"/>
+      <c r="E16" s="17"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" ht="15.6" spans="1:13">
       <c r="A17" s="15">
         <v>44516</v>
       </c>
@@ -11414,13 +11498,13 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="17"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" ht="15.6" spans="1:13">
       <c r="A18" s="15">
         <v>44517</v>
       </c>
@@ -11429,13 +11513,13 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="17"/>
       <c r="J18" s="27"/>
       <c r="K18" s="28"/>
       <c r="L18" s="29"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" ht="15.6" spans="1:13">
       <c r="A19" s="15">
         <v>44518</v>
       </c>
@@ -11444,13 +11528,13 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="17"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" ht="15.6" spans="1:13">
       <c r="A20" s="15">
         <v>44519</v>
       </c>
@@ -11459,13 +11543,13 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="17"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="15" spans="1:5">
       <c r="A21" s="15">
         <v>44520</v>
       </c>
@@ -11474,9 +11558,9 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" ht="15" spans="1:5">
       <c r="A22" s="15">
         <v>44521</v>
       </c>
@@ -11485,9 +11569,9 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" ht="15" spans="1:5">
       <c r="A23" s="15">
         <v>44522</v>
       </c>
@@ -11496,9 +11580,9 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" ht="15" spans="1:5">
       <c r="A24" s="15">
         <v>44523</v>
       </c>
@@ -11507,9 +11591,9 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" ht="15" spans="1:5">
       <c r="A25" s="15">
         <v>44524</v>
       </c>
@@ -11518,9 +11602,9 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" ht="15" spans="1:5">
       <c r="A26" s="15">
         <v>44525</v>
       </c>
@@ -11529,9 +11613,9 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" ht="15" spans="1:5">
       <c r="A27" s="15">
         <v>44526</v>
       </c>
@@ -11540,9 +11624,9 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" ht="15" spans="1:5">
       <c r="A28" s="15">
         <v>44527</v>
       </c>
@@ -11551,9 +11635,9 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" ht="15" spans="1:5">
       <c r="A29" s="15">
         <v>44528</v>
       </c>
@@ -11562,9 +11646,9 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" ht="15" spans="1:5">
       <c r="A30" s="15">
         <v>44529</v>
       </c>
@@ -11573,9 +11657,9 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" ht="15" spans="1:5">
       <c r="A31" s="15">
         <v>44530</v>
       </c>
@@ -11584,66 +11668,66 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" ht="15" spans="1:5">
       <c r="A32" s="15"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="18"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" ht="15" spans="1:5">
+      <c r="A33" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+    <row r="34" ht="15" spans="1:5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" ht="15" spans="1:7">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" ht="15" spans="1:7">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="26"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="24"/>
+      <c r="A38" s="26"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="24"/>
+      <c r="A39" s="26"/>
     </row>
     <row r="506" spans="452:452">
       <c r="QJ506" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="537" spans="452:452">
       <c r="QJ537" s="31" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="539" spans="452:452">
@@ -11677,7 +11761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -11685,47 +11769,47 @@
       <selection activeCell="KV296" sqref="KV296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.2692307692308" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6057692307692" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.2685185185185" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.1296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6018518518519" style="3" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="8.86538461538461" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.8653846153846" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.86111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.8611111111111" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>168</v>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>29</v>
+      <c r="A2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F2" s="9">
         <v>176</v>
@@ -11735,15 +11819,15 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>29</v>
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F3" s="9">
         <v>71</v>
@@ -11753,15 +11837,15 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F4" s="9">
         <v>48</v>
@@ -11771,15 +11855,15 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>178</v>
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="F5" s="9">
         <f>SUBTOTAL(9,F2:F4)</f>
@@ -11791,73 +11875,73 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>181</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>184</v>
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>186</v>
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>188</v>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F11" s="9">
         <v>10</v>
@@ -11874,15 +11958,15 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F12" s="9">
         <v>7</v>
@@ -11899,15 +11983,15 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F13" s="9">
         <v>6</v>
@@ -11924,263 +12008,265 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
+      <c r="A15" s="10"/>
+      <c r="B15" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F15" s="9">
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
+      <c r="A16" s="10"/>
+      <c r="B16" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>201</v>
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
+      <c r="B19" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="9"/>
-      <c r="B20" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>207</v>
+      <c r="B20" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A21" s="9"/>
-      <c r="B21" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>29</v>
+      <c r="B21" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="9"/>
-      <c r="B22" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>210</v>
+      <c r="B22" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="9"/>
-      <c r="B23" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>210</v>
+      <c r="B23" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="9"/>
-      <c r="B24" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>207</v>
+      <c r="B24" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="9"/>
-      <c r="B25" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>210</v>
+      <c r="B25" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A26" s="9"/>
-      <c r="B26" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>215</v>
+      <c r="B26" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A27" s="9"/>
-      <c r="B27" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>217</v>
+      <c r="B27" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="9"/>
-      <c r="B28" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>219</v>
+      <c r="B28" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A29" s="9"/>
-      <c r="B29" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>221</v>
+      <c r="B29" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A30" s="9"/>
-      <c r="B30" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>221</v>
+      <c r="B30" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A31" s="9"/>
-      <c r="B31" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>221</v>
+      <c r="B31" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A32" s="9"/>
-      <c r="B32" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>29</v>
+      <c r="B32" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A33" s="9"/>
-      <c r="B33" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>226</v>
+      <c r="B33" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A34" s="9"/>
-      <c r="B34" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>29</v>
+      <c r="B34" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A35" s="9"/>
-      <c r="B35" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>29</v>
+      <c r="B35" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A37" s="9"/>
-      <c r="B37" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>233</v>
+      <c r="B37" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C37"/>
+  <autoFilter ref="A1:C37">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A35"/>

--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="247">
   <si>
     <t>序号</t>
   </si>
@@ -155,6 +155,15 @@
   <si>
     <t>1.浙商量化统一认证
 2.交易图示接口开发与测试</t>
+  </si>
+  <si>
+    <t>内部环境统一认证</t>
+  </si>
+  <si>
+    <t>浙商部署内容准备</t>
+  </si>
+  <si>
+    <t>整理不同环境对应关系的文档</t>
   </si>
   <si>
     <t>客户情况跟进-信达-王璇
@@ -273,6 +282,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Java IO和NIO ;三数之和,两数之和|</t>
     </r>
     <r>
@@ -295,7 +311,7 @@
     <t>队列以及栈课程(包括算法题)</t>
   </si>
   <si>
-    <t>三数之和,两数之和</t>
+    <t>三数之和,两数之和;队列以及栈课程</t>
   </si>
   <si>
     <t>模块</t>
@@ -920,13 +936,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaa;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="[$-804]aaa;@"/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1040,25 +1056,11 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1070,14 +1072,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,7 +1102,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,14 +1117,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,34 +1130,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1160,9 +1162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,15 +1185,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1294,25 +1310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,13 +1328,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1376,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,25 +1424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,30 +1443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,8 +1880,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,6 +1912,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1900,22 +1936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1938,23 +1969,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1966,10 +1982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1978,136 +1994,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2234,7 +2250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2313,7 +2329,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2328,7 +2344,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2340,7 +2356,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2352,13 +2368,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2397,7 +2413,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2422,7 +2438,7 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2430,10 +2446,10 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2445,7 +2461,7 @@
     <xf numFmtId="10" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2457,7 +2473,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2509,7 +2525,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4007,18 +4023,18 @@
   </sheetPr>
   <dimension ref="A2:SS595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.06481481481481" style="144" customWidth="1"/>
-    <col min="2" max="2" width="34.0648148148148" style="145" customWidth="1"/>
+    <col min="2" max="2" width="17.8888888888889" style="145" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" style="145" customWidth="1"/>
     <col min="4" max="6" width="10.7962962962963" style="144" customWidth="1"/>
     <col min="7" max="7" width="9" style="146" customWidth="1"/>
@@ -6078,7 +6094,7 @@
       <c r="BP5" s="142"/>
       <c r="BW5" s="142"/>
     </row>
-    <row r="6" ht="43" customHeight="1" spans="1:25">
+    <row r="6" ht="43" customHeight="1" spans="1:31">
       <c r="A6" s="142">
         <v>3</v>
       </c>
@@ -6108,6 +6124,15 @@
       </c>
       <c r="Y6" s="144" t="s">
         <v>34</v>
+      </c>
+      <c r="AC6" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" s="144" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="40.05" customHeight="1" spans="1:8">
@@ -6128,13 +6153,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="155" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="155" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" s="156">
         <v>44501</v>
@@ -6143,10 +6168,10 @@
         <v>44509</v>
       </c>
       <c r="G9" s="157" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9" s="157" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M9" s="162"/>
       <c r="N9" s="162"/>
@@ -6342,20 +6367,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="143" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="155" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="143" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="156">
         <v>44501</v>
       </c>
       <c r="F11" s="156"/>
       <c r="G11" s="157" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" s="157"/>
       <c r="M11" s="162"/>
@@ -6552,23 +6577,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="155" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" s="156">
         <v>44501</v>
       </c>
       <c r="F13" s="156"/>
       <c r="G13" s="157" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I13" s="157" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M13" s="162"/>
       <c r="N13" s="162"/>
@@ -7483,8 +7508,8 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
@@ -7502,31 +7527,31 @@
   <sheetData>
     <row r="1" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="109" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="111" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="114" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="112" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
@@ -7542,7 +7567,7 @@
     </row>
     <row r="3" ht="15.85" customHeight="1" spans="1:9">
       <c r="A3" s="118" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" s="119">
         <v>44501</v>
@@ -7686,16 +7711,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="125">
         <v>0.6</v>
       </c>
       <c r="G12" s="123" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="134"/>
@@ -7709,22 +7734,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F13" s="125">
         <v>0.4</v>
       </c>
       <c r="G13" s="123" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" ht="15.85" customHeight="1" spans="1:9">
@@ -7781,7 +7806,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E17" s="126"/>
       <c r="F17" s="125"/>
@@ -7813,7 +7838,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" s="126"/>
       <c r="F19" s="125"/>
@@ -7830,14 +7855,14 @@
         <v>9</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" s="126"/>
       <c r="F20" s="125"/>
       <c r="G20" s="123"/>
       <c r="H20" s="126"/>
       <c r="I20" s="136" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="15.85" customHeight="1" spans="1:9">
@@ -7849,7 +7874,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="126" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" s="126"/>
       <c r="F21" s="125"/>
@@ -7896,7 +7921,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="126" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E24" s="126"/>
       <c r="F24" s="125"/>
@@ -7913,7 +7938,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E25" s="126"/>
       <c r="F25" s="125"/>
@@ -7930,7 +7955,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="126" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E26" s="126"/>
       <c r="F26" s="125"/>
@@ -7947,7 +7972,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E27" s="126"/>
       <c r="F27" s="125"/>
@@ -7964,7 +7989,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E28" s="126"/>
       <c r="F28" s="125"/>
@@ -8632,27 +8657,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -8663,7 +8688,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="63" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -8677,36 +8702,36 @@
         <v>11</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="66">
         <v>44479</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="70"/>
       <c r="I4" s="65" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K4" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="87" t="s">
-        <v>78</v>
-      </c>
       <c r="M4" s="68" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N4" s="88" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:14">
@@ -8724,14 +8749,14 @@
         <v>44482</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="90" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:14">
@@ -8743,32 +8768,32 @@
         <v>44486</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="89">
         <v>44485</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:14">
@@ -8780,28 +8805,28 @@
         <v>44490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="79" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="89">
         <v>44489</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:14">
@@ -8813,32 +8838,32 @@
         <v>44493</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="89">
         <v>44492</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:14">
@@ -8850,28 +8875,28 @@
         <v>44497</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="89">
         <v>44496</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:14">
@@ -8883,32 +8908,32 @@
         <v>44500</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="89">
         <v>44499</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:14">
@@ -8920,28 +8945,28 @@
         <v>44504</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="89">
         <v>44503</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:14">
@@ -8953,32 +8978,32 @@
         <v>44507</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="89">
         <v>44506</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" ht="25.7" customHeight="1" spans="1:14">
@@ -8990,28 +9015,28 @@
         <v>44511</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="89">
         <v>44510</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M13" s="98"/>
       <c r="N13" s="99" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:14">
@@ -9023,29 +9048,29 @@
         <v>44514</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="89">
         <v>44513</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N14" s="78"/>
     </row>
@@ -9058,28 +9083,28 @@
         <v>44518</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="85" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="94">
         <v>44517</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M15" s="100"/>
       <c r="N15" s="101" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:7">
@@ -9087,22 +9112,22 @@
         <v>23</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C16" s="66">
         <v>44521</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:7">
@@ -9114,14 +9139,14 @@
         <v>44525</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:7">
@@ -9133,16 +9158,16 @@
         <v>44528</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:7">
@@ -9154,14 +9179,14 @@
         <v>44532</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:7">
@@ -9173,16 +9198,16 @@
         <v>44535</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:7">
@@ -9194,14 +9219,14 @@
         <v>44539</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:7">
@@ -9213,16 +9238,16 @@
         <v>44542</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" ht="30.75" spans="1:7">
@@ -9234,14 +9259,14 @@
         <v>44546</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:7">
@@ -9253,10 +9278,10 @@
         <v>44549</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="93"/>
@@ -9270,10 +9295,10 @@
         <v>44556</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="97"/>
@@ -9310,22 +9335,22 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -9341,53 +9366,53 @@
     <row r="2" ht="34.05" customHeight="1" spans="1:21">
       <c r="A2" s="39"/>
       <c r="B2" s="46" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -9451,7 +9476,7 @@
         <v>-164</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
@@ -9515,7 +9540,7 @@
         <v>-129</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
@@ -9827,7 +9852,7 @@
         <v>-138</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -10127,7 +10152,7 @@
         <v>-166</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10516,7 +10541,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:15">
       <c r="A1" s="39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B1" s="40">
         <v>44264</v>
@@ -10534,29 +10559,29 @@
         <v>44268</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:15">
       <c r="A2" s="39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B2" s="39">
         <v>6</v>
@@ -10578,13 +10603,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L2" s="39">
         <v>259</v>
@@ -10597,7 +10622,7 @@
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:15">
       <c r="A3" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B3" s="39">
         <v>10</v>
@@ -10615,16 +10640,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L3" s="39">
         <v>65</v>
@@ -10637,7 +10662,7 @@
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:15">
       <c r="A4" s="39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B4" s="39">
         <f>B2*B3</f>
@@ -10671,7 +10696,7 @@
         <v>6900</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L4" s="39">
         <f>L2*L3</f>
@@ -10692,13 +10717,13 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:15">
       <c r="A5" s="41" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10708,19 +10733,19 @@
       <c r="I5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -10744,68 +10769,68 @@
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:15">
       <c r="A9" s="39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B9" s="40">
         <v>44300</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:15">
       <c r="A10" s="39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B10" s="39">
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G10" s="39">
         <v>1</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L10" s="44">
         <v>259</v>
@@ -10818,31 +10843,31 @@
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:15">
       <c r="A11" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B11" s="39">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G11" s="39">
         <v>8</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L11" s="44">
         <v>65</v>
@@ -10855,7 +10880,7 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:15">
       <c r="A12" s="39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B12" s="39">
         <f>B10*B11</f>
@@ -10869,7 +10894,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G12" s="39">
         <v>8</v>
@@ -10882,7 +10907,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L12" s="44">
         <f>L10*L11</f>
@@ -10904,16 +10929,16 @@
     <row r="13" ht="35" customHeight="1" spans="11:15">
       <c r="K13" s="44"/>
       <c r="L13" s="44" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -10951,37 +10976,37 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:14">
@@ -10989,16 +11014,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -11007,13 +11032,13 @@
         <v>943</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L2" s="33">
         <f>40*6</f>
@@ -11029,19 +11054,19 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F3" s="35">
         <v>3</v>
@@ -11063,19 +11088,19 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B4" s="33">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
@@ -11097,19 +11122,19 @@
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:10">
       <c r="A5" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" s="33">
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F5" s="35">
         <v>1</v>
@@ -11131,19 +11156,19 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -11153,30 +11178,30 @@
         <v>1886</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:10">
       <c r="A7" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F7" s="35">
         <v>1</v>
@@ -11186,30 +11211,30 @@
         <v>943</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:10">
       <c r="A8" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" s="35">
         <v>1</v>
@@ -11219,30 +11244,30 @@
         <v>943</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:10">
       <c r="A9" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B9" s="33">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -11264,7 +11289,7 @@
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11309,13 +11334,13 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -11679,7 +11704,7 @@
     </row>
     <row r="33" ht="15" spans="1:5">
       <c r="A33" s="18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="14"/>
@@ -11722,12 +11747,12 @@
     </row>
     <row r="506" spans="452:452">
       <c r="QJ506" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="537" spans="452:452">
       <c r="QJ537" s="31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="539" spans="452:452">
@@ -11782,34 +11807,34 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="9">
         <v>176</v>
@@ -11821,13 +11846,13 @@
     <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F3" s="9">
         <v>71</v>
@@ -11839,13 +11864,13 @@
     <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F4" s="9">
         <v>48</v>
@@ -11857,13 +11882,13 @@
     <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F5" s="9">
         <f>SUBTOTAL(9,F2:F4)</f>
@@ -11877,71 +11902,71 @@
     <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F11" s="9">
         <v>10</v>
@@ -11960,13 +11985,13 @@
     <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F12" s="9">
         <v>7</v>
@@ -11985,13 +12010,13 @@
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F13" s="9">
         <v>6</v>
@@ -12010,257 +12035,257 @@
     <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F15" s="9">
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A19" s="9"/>
       <c r="B19" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A27" s="9"/>
       <c r="B27" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A33" s="9"/>
       <c r="B33" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="249">
   <si>
     <t>序号</t>
   </si>
@@ -163,7 +163,10 @@
     <t>浙商部署内容准备</t>
   </si>
   <si>
-    <t>整理不同环境对应关系的文档</t>
+    <t>整理不同环境对应关系的文档;1.3.2后台集成统一认证</t>
+  </si>
+  <si>
+    <t>前端页面统一认证；环境版本对应关系文档整理</t>
   </si>
   <si>
     <t>客户情况跟进-信达-王璇
@@ -282,13 +285,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Java IO和NIO ;三数之和,两数之和|</t>
     </r>
     <r>
@@ -312,6 +308,9 @@
   </si>
   <si>
     <t>三数之和,两数之和;队列以及栈课程</t>
+  </si>
+  <si>
+    <t>最小栈；队列以及栈课程；bigthing内容回顾，思考场景话术，并且思考是否有其他的有价值的场景</t>
   </si>
   <si>
     <t>模块</t>
@@ -935,11 +934,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="[$-804]aaa;@"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1056,29 +1055,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1093,54 +1069,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,6 +1085,75 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1162,14 +1161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,15 +1184,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,13 +1309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,55 +1333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,13 +1351,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,31 +1423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,22 +1876,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1912,30 +1906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1947,6 +1917,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1968,9 +1965,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1982,10 +1981,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,136 +1993,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4024,11 +4023,11 @@
   <dimension ref="A2:SS595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4053,7 +4052,9 @@
     <col min="26" max="26" width="9" style="144" customWidth="1"/>
     <col min="27" max="28" width="9" style="147" customWidth="1"/>
     <col min="29" max="29" width="9" style="146" customWidth="1"/>
-    <col min="30" max="33" width="9" style="144" customWidth="1"/>
+    <col min="30" max="30" width="9" style="144" customWidth="1"/>
+    <col min="31" max="31" width="24.7777777777778" style="144" customWidth="1"/>
+    <col min="32" max="33" width="9" style="144" customWidth="1"/>
     <col min="34" max="35" width="9" style="147" customWidth="1"/>
     <col min="36" max="40" width="9" style="144" customWidth="1"/>
     <col min="41" max="42" width="9" style="147" customWidth="1"/>
@@ -6094,7 +6095,7 @@
       <c r="BP5" s="142"/>
       <c r="BW5" s="142"/>
     </row>
-    <row r="6" ht="43" customHeight="1" spans="1:31">
+    <row r="6" ht="43" customHeight="1" spans="1:32">
       <c r="A6" s="142">
         <v>3</v>
       </c>
@@ -6133,6 +6134,9 @@
       </c>
       <c r="AE6" s="144" t="s">
         <v>37</v>
+      </c>
+      <c r="AF6" s="144" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="40.05" customHeight="1" spans="1:8">
@@ -6153,13 +6157,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="156">
         <v>44501</v>
@@ -6168,10 +6172,10 @@
         <v>44509</v>
       </c>
       <c r="G9" s="157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" s="157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="162"/>
       <c r="N9" s="162"/>
@@ -6367,20 +6371,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="156">
         <v>44501</v>
       </c>
       <c r="F11" s="156"/>
       <c r="G11" s="157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="157"/>
       <c r="M11" s="162"/>
@@ -6577,23 +6581,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="156">
         <v>44501</v>
       </c>
       <c r="F13" s="156"/>
       <c r="G13" s="157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" s="162"/>
       <c r="N13" s="162"/>
@@ -7508,8 +7512,8 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
@@ -7527,31 +7531,31 @@
   <sheetData>
     <row r="1" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
@@ -7567,7 +7571,7 @@
     </row>
     <row r="3" ht="15.85" customHeight="1" spans="1:9">
       <c r="A3" s="118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="119">
         <v>44501</v>
@@ -7711,16 +7715,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="125">
         <v>0.6</v>
       </c>
       <c r="G12" s="123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="134"/>
@@ -7734,22 +7738,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="125">
         <v>0.4</v>
       </c>
       <c r="G13" s="123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" ht="15.85" customHeight="1" spans="1:9">
@@ -7806,7 +7810,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="126"/>
       <c r="F17" s="125"/>
@@ -7838,7 +7842,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="126"/>
       <c r="F19" s="125"/>
@@ -7855,14 +7859,14 @@
         <v>9</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="126"/>
       <c r="F20" s="125"/>
       <c r="G20" s="123"/>
       <c r="H20" s="126"/>
       <c r="I20" s="136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="15.85" customHeight="1" spans="1:9">
@@ -7874,7 +7878,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="126" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="126"/>
       <c r="F21" s="125"/>
@@ -7921,7 +7925,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="126"/>
       <c r="F24" s="125"/>
@@ -7938,7 +7942,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="126"/>
       <c r="F25" s="125"/>
@@ -7955,7 +7959,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="126"/>
       <c r="F26" s="125"/>
@@ -7972,7 +7976,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="126"/>
       <c r="F27" s="125"/>
@@ -7989,7 +7993,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="126"/>
       <c r="F28" s="125"/>
@@ -8050,7 +8054,9 @@
       <c r="C32" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="126"/>
+      <c r="D32" s="126" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" s="126"/>
       <c r="F32" s="125"/>
       <c r="G32" s="123"/>
@@ -8657,27 +8663,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -8688,7 +8694,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -8702,36 +8708,36 @@
         <v>11</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="66">
         <v>44479</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="70"/>
       <c r="I4" s="65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>81</v>
-      </c>
       <c r="M4" s="68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N4" s="88" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:14">
@@ -8749,14 +8755,14 @@
         <v>44482</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:14">
@@ -8768,32 +8774,32 @@
         <v>44486</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="89">
         <v>44485</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:14">
@@ -8805,28 +8811,28 @@
         <v>44490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="89">
         <v>44489</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:14">
@@ -8838,32 +8844,32 @@
         <v>44493</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="89">
         <v>44492</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:14">
@@ -8875,28 +8881,28 @@
         <v>44497</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="89">
         <v>44496</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:14">
@@ -8908,32 +8914,32 @@
         <v>44500</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="89">
         <v>44499</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:14">
@@ -8945,28 +8951,28 @@
         <v>44504</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="89">
         <v>44503</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:14">
@@ -8978,32 +8984,32 @@
         <v>44507</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="89">
         <v>44506</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" ht="25.7" customHeight="1" spans="1:14">
@@ -9015,28 +9021,28 @@
         <v>44511</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="89">
         <v>44510</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M13" s="98"/>
       <c r="N13" s="99" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:14">
@@ -9048,29 +9054,29 @@
         <v>44514</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="89">
         <v>44513</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N14" s="78"/>
     </row>
@@ -9083,28 +9089,28 @@
         <v>44518</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="85" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="94">
         <v>44517</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M15" s="100"/>
       <c r="N15" s="101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:7">
@@ -9112,22 +9118,22 @@
         <v>23</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" s="66">
         <v>44521</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:7">
@@ -9139,14 +9145,14 @@
         <v>44525</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="90" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:7">
@@ -9158,16 +9164,16 @@
         <v>44528</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:7">
@@ -9179,14 +9185,14 @@
         <v>44532</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:7">
@@ -9198,16 +9204,16 @@
         <v>44535</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:7">
@@ -9219,14 +9225,14 @@
         <v>44539</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:7">
@@ -9238,16 +9244,16 @@
         <v>44542</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="30.75" spans="1:7">
@@ -9259,14 +9265,14 @@
         <v>44546</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:7">
@@ -9278,10 +9284,10 @@
         <v>44549</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="93"/>
@@ -9295,10 +9301,10 @@
         <v>44556</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="97"/>
@@ -9335,22 +9341,22 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -9366,53 +9372,53 @@
     <row r="2" ht="34.05" customHeight="1" spans="1:21">
       <c r="A2" s="39"/>
       <c r="B2" s="46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="46" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -9476,7 +9482,7 @@
         <v>-164</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
@@ -9540,7 +9546,7 @@
         <v>-129</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
@@ -9852,7 +9858,7 @@
         <v>-138</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -10152,7 +10158,7 @@
         <v>-166</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10541,7 +10547,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:15">
       <c r="A1" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="40">
         <v>44264</v>
@@ -10559,29 +10565,29 @@
         <v>44268</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:15">
       <c r="A2" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="39">
         <v>6</v>
@@ -10603,13 +10609,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L2" s="39">
         <v>259</v>
@@ -10622,7 +10628,7 @@
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:15">
       <c r="A3" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" s="39">
         <v>10</v>
@@ -10640,16 +10646,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L3" s="39">
         <v>65</v>
@@ -10662,7 +10668,7 @@
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:15">
       <c r="A4" s="39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" s="39">
         <f>B2*B3</f>
@@ -10696,7 +10702,7 @@
         <v>6900</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L4" s="39">
         <f>L2*L3</f>
@@ -10717,13 +10723,13 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:15">
       <c r="A5" s="41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10733,19 +10739,19 @@
       <c r="I5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -10769,68 +10775,68 @@
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:15">
       <c r="A9" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" s="40">
         <v>44300</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:15">
       <c r="A10" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B10" s="39">
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G10" s="39">
         <v>1</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" s="44">
         <v>259</v>
@@ -10843,31 +10849,31 @@
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:15">
       <c r="A11" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B11" s="39">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G11" s="39">
         <v>8</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L11" s="44">
         <v>65</v>
@@ -10880,7 +10886,7 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:15">
       <c r="A12" s="39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="39">
         <f>B10*B11</f>
@@ -10894,7 +10900,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G12" s="39">
         <v>8</v>
@@ -10907,7 +10913,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L12" s="44">
         <f>L10*L11</f>
@@ -10929,16 +10935,16 @@
     <row r="13" ht="35" customHeight="1" spans="11:15">
       <c r="K13" s="44"/>
       <c r="L13" s="44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -10976,37 +10982,37 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:14">
@@ -11014,16 +11020,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -11032,13 +11038,13 @@
         <v>943</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L2" s="33">
         <f>40*6</f>
@@ -11054,19 +11060,19 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F3" s="35">
         <v>3</v>
@@ -11088,19 +11094,19 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" s="33">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
@@ -11122,19 +11128,19 @@
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:10">
       <c r="A5" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B5" s="33">
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>159</v>
-      </c>
       <c r="E5" s="34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F5" s="35">
         <v>1</v>
@@ -11156,19 +11162,19 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -11178,30 +11184,30 @@
         <v>1886</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:10">
       <c r="A7" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F7" s="35">
         <v>1</v>
@@ -11211,30 +11217,30 @@
         <v>943</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:10">
       <c r="A8" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="35">
         <v>1</v>
@@ -11244,30 +11250,30 @@
         <v>943</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:10">
       <c r="A9" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B9" s="33">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -11289,7 +11295,7 @@
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11334,13 +11340,13 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -11704,7 +11710,7 @@
     </row>
     <row r="33" ht="15" spans="1:5">
       <c r="A33" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="14"/>
@@ -11747,12 +11753,12 @@
     </row>
     <row r="506" spans="452:452">
       <c r="QJ506" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="537" spans="452:452">
       <c r="QJ537" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="539" spans="452:452">
@@ -11807,34 +11813,34 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F2" s="9">
         <v>176</v>
@@ -11846,13 +11852,13 @@
     <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F3" s="9">
         <v>71</v>
@@ -11864,13 +11870,13 @@
     <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F4" s="9">
         <v>48</v>
@@ -11882,13 +11888,13 @@
     <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F5" s="9">
         <f>SUBTOTAL(9,F2:F4)</f>
@@ -11902,71 +11908,71 @@
     <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F11" s="9">
         <v>10</v>
@@ -11985,13 +11991,13 @@
     <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F12" s="9">
         <v>7</v>
@@ -12010,13 +12016,13 @@
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="9">
         <v>6</v>
@@ -12035,257 +12041,257 @@
     <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F15" s="9">
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A19" s="9"/>
       <c r="B19" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A27" s="9"/>
       <c r="B27" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A33" s="9"/>
       <c r="B33" s="13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13884"/>
+    <workbookView windowWidth="19200" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
-    <sheet name="11月OKR" sheetId="2" r:id="rId2"/>
+    <sheet name="2021-OKR" sheetId="2" r:id="rId2"/>
     <sheet name=" 课程表" sheetId="6" r:id="rId3"/>
     <sheet name="大同镍片退换货数量" sheetId="11" state="hidden" r:id="rId4"/>
     <sheet name="冠宇电芯成品索赔-已关闭" sheetId="7" state="hidden" r:id="rId5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="251">
   <si>
     <t>序号</t>
   </si>
@@ -167,6 +167,16 @@
   </si>
   <si>
     <t>前端页面统一认证；环境版本对应关系文档整理</t>
+  </si>
+  <si>
+    <t>1.回测请求参数特殊符号处理
+2.页面报错问题处理
+3.交易图示接口
+4.python端回测日志结束标志</t>
+  </si>
+  <si>
+    <t>1.浙商增值数据方案部署
+2.增值历史数据</t>
   </si>
   <si>
     <t>客户情况跟进-信达-王璇
@@ -285,6 +295,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Java IO和NIO ;三数之和,两数之和|</t>
     </r>
     <r>
@@ -934,12 +951,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="[$-804]aaa;@"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1063,37 +1080,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,44 +1130,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1168,9 +1144,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,13 +1199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,6 +1209,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1309,19 +1326,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,67 +1368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,7 +1386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,19 +1422,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,21 +1894,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1906,17 +1908,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1930,11 +1926,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1963,6 +1965,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1981,148 +1998,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2195,10 +2212,10 @@
     <xf numFmtId="58" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2249,7 +2266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3717,8 +3734,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8474075" y="485775"/>
-        <a:ext cx="4091940" cy="2743200"/>
+        <a:off x="8626475" y="485775"/>
+        <a:ext cx="4171950" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4023,45 +4040,47 @@
   <dimension ref="A2:SS595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.06481481481481" style="144" customWidth="1"/>
-    <col min="2" max="2" width="17.8888888888889" style="145" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" style="145" customWidth="1"/>
-    <col min="4" max="6" width="10.7962962962963" style="144" customWidth="1"/>
+    <col min="1" max="1" width="6.06363636363636" style="144" customWidth="1"/>
+    <col min="2" max="2" width="17.8909090909091" style="145" customWidth="1"/>
+    <col min="3" max="3" width="7.66363636363636" style="145" customWidth="1"/>
+    <col min="4" max="6" width="10.8" style="144" customWidth="1"/>
     <col min="7" max="7" width="9" style="146" customWidth="1"/>
-    <col min="8" max="8" width="10.7314814814815" style="144" customWidth="1"/>
+    <col min="8" max="8" width="10.7272727272727" style="144" customWidth="1"/>
     <col min="9" max="9" width="9" style="146" customWidth="1"/>
     <col min="10" max="12" width="9" style="144" customWidth="1"/>
     <col min="13" max="14" width="9" style="147" customWidth="1"/>
-    <col min="15" max="15" width="22.7777777777778" style="144" customWidth="1"/>
-    <col min="16" max="16" width="12.7777777777778" style="144" customWidth="1"/>
+    <col min="15" max="15" width="22.7818181818182" style="144" customWidth="1"/>
+    <col min="16" max="16" width="12.7818181818182" style="144" customWidth="1"/>
     <col min="17" max="19" width="9" style="144" customWidth="1"/>
     <col min="20" max="21" width="9" style="147" customWidth="1"/>
-    <col min="22" max="22" width="19.8981481481481" style="144" customWidth="1"/>
-    <col min="23" max="23" width="23.6574074074074" style="144" customWidth="1"/>
+    <col min="22" max="22" width="19.9" style="144" customWidth="1"/>
+    <col min="23" max="23" width="23.6545454545455" style="144" customWidth="1"/>
     <col min="24" max="24" width="9" style="144" customWidth="1"/>
-    <col min="25" max="25" width="18.5555555555556" style="144" customWidth="1"/>
+    <col min="25" max="25" width="18.5545454545455" style="144" customWidth="1"/>
     <col min="26" max="26" width="9" style="144" customWidth="1"/>
     <col min="27" max="28" width="9" style="147" customWidth="1"/>
     <col min="29" max="29" width="9" style="146" customWidth="1"/>
     <col min="30" max="30" width="9" style="144" customWidth="1"/>
-    <col min="31" max="31" width="24.7777777777778" style="144" customWidth="1"/>
+    <col min="31" max="31" width="24.7818181818182" style="144" customWidth="1"/>
     <col min="32" max="33" width="9" style="144" customWidth="1"/>
     <col min="34" max="35" width="9" style="147" customWidth="1"/>
-    <col min="36" max="40" width="9" style="144" customWidth="1"/>
+    <col min="36" max="38" width="9" style="144" customWidth="1"/>
+    <col min="39" max="39" width="16.8909090909091" style="144" customWidth="1"/>
+    <col min="40" max="40" width="23.7818181818182" style="144" customWidth="1"/>
     <col min="41" max="42" width="9" style="147" customWidth="1"/>
     <col min="43" max="47" width="9" style="144" customWidth="1"/>
     <col min="48" max="49" width="9" style="147" customWidth="1"/>
     <col min="50" max="52" width="9" style="144" customWidth="1"/>
-    <col min="53" max="53" width="9.33333333333333" style="144" customWidth="1"/>
+    <col min="53" max="53" width="9.33636363636364" style="144" customWidth="1"/>
     <col min="54" max="54" width="9" style="144" customWidth="1"/>
     <col min="55" max="56" width="9" style="147" customWidth="1"/>
     <col min="57" max="61" width="9" style="144" customWidth="1"/>
@@ -4143,7 +4162,7 @@
     <col min="290" max="292" width="9" style="144" customWidth="1"/>
     <col min="293" max="293" width="9" style="147" customWidth="1"/>
     <col min="294" max="294" width="9" style="146" customWidth="1"/>
-    <col min="295" max="295" width="9.33333333333333" style="144" customWidth="1"/>
+    <col min="295" max="295" width="9.33636363636364" style="144" customWidth="1"/>
     <col min="296" max="299" width="9" style="144" customWidth="1"/>
     <col min="300" max="304" width="9" style="147" customWidth="1"/>
     <col min="305" max="307" width="9" style="144" customWidth="1"/>
@@ -4155,7 +4174,7 @@
     <col min="323" max="327" width="9" style="144" customWidth="1"/>
     <col min="328" max="329" width="9" style="147" customWidth="1"/>
     <col min="330" max="331" width="9" style="144" customWidth="1"/>
-    <col min="332" max="332" width="9.33333333333333" style="144" customWidth="1"/>
+    <col min="332" max="332" width="9.33636363636364" style="144" customWidth="1"/>
     <col min="333" max="334" width="9" style="144" customWidth="1"/>
     <col min="335" max="336" width="9" style="147" customWidth="1"/>
     <col min="337" max="341" width="9" style="144" customWidth="1"/>
@@ -4171,7 +4190,7 @@
     <col min="372" max="376" width="9" style="144" customWidth="1"/>
     <col min="377" max="378" width="9" style="147" customWidth="1"/>
     <col min="379" max="379" width="9" style="144" customWidth="1"/>
-    <col min="380" max="380" width="9.33333333333333" style="144" customWidth="1"/>
+    <col min="380" max="380" width="9.33636363636364" style="144" customWidth="1"/>
     <col min="381" max="383" width="9" style="144" customWidth="1"/>
     <col min="384" max="385" width="9" style="147" customWidth="1"/>
     <col min="386" max="390" width="9" style="144" customWidth="1"/>
@@ -5838,14 +5857,84 @@
       <c r="AG3" s="151">
         <v>44533</v>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AO3" s="158"/>
-      <c r="AP3" s="158"/>
-      <c r="AV3" s="158"/>
-      <c r="AW3" s="158"/>
-      <c r="BC3" s="158"/>
-      <c r="BD3" s="158"/>
+      <c r="AH3" s="151">
+        <v>44534</v>
+      </c>
+      <c r="AI3" s="151">
+        <v>44535</v>
+      </c>
+      <c r="AJ3" s="151">
+        <v>44536</v>
+      </c>
+      <c r="AK3" s="151">
+        <v>44537</v>
+      </c>
+      <c r="AL3" s="151">
+        <v>44538</v>
+      </c>
+      <c r="AM3" s="151">
+        <v>44539</v>
+      </c>
+      <c r="AN3" s="151">
+        <v>44540</v>
+      </c>
+      <c r="AO3" s="151">
+        <v>44541</v>
+      </c>
+      <c r="AP3" s="151">
+        <v>44542</v>
+      </c>
+      <c r="AQ3" s="151">
+        <v>44543</v>
+      </c>
+      <c r="AR3" s="151">
+        <v>44544</v>
+      </c>
+      <c r="AS3" s="151">
+        <v>44545</v>
+      </c>
+      <c r="AT3" s="151">
+        <v>44546</v>
+      </c>
+      <c r="AU3" s="151">
+        <v>44547</v>
+      </c>
+      <c r="AV3" s="151">
+        <v>44548</v>
+      </c>
+      <c r="AW3" s="151">
+        <v>44549</v>
+      </c>
+      <c r="AX3" s="151">
+        <v>44550</v>
+      </c>
+      <c r="AY3" s="151">
+        <v>44551</v>
+      </c>
+      <c r="AZ3" s="151">
+        <v>44552</v>
+      </c>
+      <c r="BA3" s="151">
+        <v>44553</v>
+      </c>
+      <c r="BB3" s="151">
+        <v>44554</v>
+      </c>
+      <c r="BC3" s="151">
+        <v>44555</v>
+      </c>
+      <c r="BD3" s="151">
+        <v>44556</v>
+      </c>
+      <c r="BE3" s="151">
+        <v>44557</v>
+      </c>
+      <c r="BF3" s="151">
+        <v>44558</v>
+      </c>
+      <c r="BG3" s="151">
+        <v>44559</v>
+      </c>
       <c r="BJ3" s="158"/>
       <c r="BK3" s="158"/>
       <c r="BM3" s="163"/>
@@ -6069,7 +6158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:75">
+    <row r="5" ht="56" spans="1:75">
       <c r="A5" s="142">
         <v>2</v>
       </c>
@@ -6095,7 +6184,7 @@
       <c r="BP5" s="142"/>
       <c r="BW5" s="142"/>
     </row>
-    <row r="6" ht="43" customHeight="1" spans="1:32">
+    <row r="6" ht="43" customHeight="1" spans="1:40">
       <c r="A6" s="142">
         <v>3</v>
       </c>
@@ -6137,6 +6226,12 @@
       </c>
       <c r="AF6" s="144" t="s">
         <v>38</v>
+      </c>
+      <c r="AM6" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="144" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="40.05" customHeight="1" spans="1:8">
@@ -6157,13 +6252,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="155" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="156">
         <v>44501</v>
@@ -6172,10 +6267,10 @@
         <v>44509</v>
       </c>
       <c r="G9" s="157" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I9" s="157" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M9" s="162"/>
       <c r="N9" s="162"/>
@@ -6371,20 +6466,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="155" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="156">
         <v>44501</v>
       </c>
       <c r="F11" s="156"/>
       <c r="G11" s="157" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" s="157"/>
       <c r="M11" s="162"/>
@@ -6581,23 +6676,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="156">
         <v>44501</v>
       </c>
       <c r="F13" s="156"/>
       <c r="G13" s="157" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I13" s="157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M13" s="162"/>
       <c r="N13" s="162"/>
@@ -7513,49 +7608,49 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.8" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.3333333333333" style="105" customWidth="1"/>
-    <col min="2" max="3" width="10.1296296296296" style="106" customWidth="1"/>
-    <col min="4" max="4" width="51.7962962962963" style="105" customWidth="1"/>
-    <col min="5" max="5" width="20.2037037037037" style="107" customWidth="1"/>
-    <col min="6" max="6" width="13.6018518518519" style="108" customWidth="1"/>
-    <col min="7" max="7" width="21.7962962962963" style="105" customWidth="1"/>
-    <col min="8" max="8" width="28.0648148148148" style="105" customWidth="1"/>
-    <col min="9" max="9" width="30.7314814814815" style="105" customWidth="1"/>
-    <col min="10" max="16384" width="9.7962962962963" style="105"/>
+    <col min="1" max="1" width="21.3363636363636" style="105" customWidth="1"/>
+    <col min="2" max="3" width="10.1272727272727" style="106" customWidth="1"/>
+    <col min="4" max="4" width="51.8" style="105" customWidth="1"/>
+    <col min="5" max="5" width="20.2" style="107" customWidth="1"/>
+    <col min="6" max="6" width="13.6" style="108" customWidth="1"/>
+    <col min="7" max="7" width="21.8" style="105" customWidth="1"/>
+    <col min="8" max="8" width="28.0636363636364" style="105" customWidth="1"/>
+    <col min="9" max="9" width="30.7272727272727" style="105" customWidth="1"/>
+    <col min="10" max="16384" width="9.8" style="105"/>
   </cols>
   <sheetData>
     <row r="1" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="111" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="114" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I1" s="112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
@@ -7571,7 +7666,7 @@
     </row>
     <row r="3" ht="15.85" customHeight="1" spans="1:9">
       <c r="A3" s="118" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="119">
         <v>44501</v>
@@ -7706,7 +7801,7 @@
       <c r="H11" s="128"/>
       <c r="I11" s="135"/>
     </row>
-    <row r="12" ht="43.2" spans="1:9">
+    <row r="12" ht="42" spans="1:9">
       <c r="A12" s="124"/>
       <c r="B12" s="119">
         <v>44510</v>
@@ -7715,16 +7810,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" s="125">
         <v>0.6</v>
       </c>
       <c r="G12" s="123" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="134"/>
@@ -7738,22 +7833,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="126" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>59</v>
       </c>
       <c r="F13" s="125">
         <v>0.4</v>
       </c>
       <c r="G13" s="123" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="15.85" customHeight="1" spans="1:9">
@@ -7810,7 +7905,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="126"/>
       <c r="F17" s="125"/>
@@ -7842,7 +7937,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="126"/>
       <c r="F19" s="125"/>
@@ -7859,14 +7954,14 @@
         <v>9</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="126"/>
       <c r="F20" s="125"/>
       <c r="G20" s="123"/>
       <c r="H20" s="126"/>
       <c r="I20" s="136" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" ht="15.85" customHeight="1" spans="1:9">
@@ -7878,7 +7973,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="126" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="126"/>
       <c r="F21" s="125"/>
@@ -7925,7 +8020,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="126" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="126"/>
       <c r="F24" s="125"/>
@@ -7942,7 +8037,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E25" s="126"/>
       <c r="F25" s="125"/>
@@ -7959,7 +8054,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="126" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" s="126"/>
       <c r="F26" s="125"/>
@@ -7976,7 +8071,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E27" s="126"/>
       <c r="F27" s="125"/>
@@ -7993,7 +8088,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="126"/>
       <c r="F28" s="125"/>
@@ -8055,7 +8150,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="126" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32" s="126"/>
       <c r="F32" s="125"/>
@@ -8640,22 +8735,22 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.8" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.7962962962963" style="58"/>
-    <col min="2" max="2" width="10.0648148148148" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.7314814814815" style="58" customWidth="1"/>
-    <col min="4" max="4" width="9.7962962962963" style="58"/>
-    <col min="5" max="5" width="15.7962962962963" style="58" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" style="58" customWidth="1"/>
-    <col min="7" max="7" width="30.1296296296296" style="58" customWidth="1"/>
-    <col min="8" max="9" width="9.7962962962963" style="58"/>
-    <col min="10" max="10" width="12.7962962962963" style="58" customWidth="1"/>
-    <col min="11" max="11" width="9.7962962962963" style="58"/>
-    <col min="12" max="12" width="12.5277777777778" style="58" customWidth="1"/>
-    <col min="13" max="13" width="24.1296296296296" style="58" customWidth="1"/>
-    <col min="14" max="14" width="30.7962962962963" style="58" customWidth="1"/>
-    <col min="15" max="16384" width="9.7962962962963" style="58"/>
+    <col min="1" max="1" width="9.8" style="58"/>
+    <col min="2" max="2" width="10.0636363636364" style="58" customWidth="1"/>
+    <col min="3" max="3" width="13.7272727272727" style="58" customWidth="1"/>
+    <col min="4" max="4" width="9.8" style="58"/>
+    <col min="5" max="5" width="15.8" style="58" customWidth="1"/>
+    <col min="6" max="6" width="32.3363636363636" style="58" customWidth="1"/>
+    <col min="7" max="7" width="30.1272727272727" style="58" customWidth="1"/>
+    <col min="8" max="9" width="9.8" style="58"/>
+    <col min="10" max="10" width="12.8" style="58" customWidth="1"/>
+    <col min="11" max="11" width="9.8" style="58"/>
+    <col min="12" max="12" width="12.5272727272727" style="58" customWidth="1"/>
+    <col min="13" max="13" width="24.1272727272727" style="58" customWidth="1"/>
+    <col min="14" max="14" width="30.8" style="58" customWidth="1"/>
+    <col min="15" max="16384" width="9.8" style="58"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:7">
@@ -8663,27 +8758,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -8694,7 +8789,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -8708,36 +8803,36 @@
         <v>11</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="66">
         <v>44479</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="70"/>
       <c r="I4" s="65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J4" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>83</v>
-      </c>
       <c r="M4" s="68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N4" s="88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:14">
@@ -8755,14 +8850,14 @@
         <v>44482</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="90" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:14">
@@ -8774,32 +8869,32 @@
         <v>44486</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="89">
         <v>44485</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:14">
@@ -8811,28 +8906,28 @@
         <v>44490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="89">
         <v>44489</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:14">
@@ -8844,32 +8939,32 @@
         <v>44493</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="89">
         <v>44492</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:14">
@@ -8881,28 +8976,28 @@
         <v>44497</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="89">
         <v>44496</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:14">
@@ -8914,32 +9009,32 @@
         <v>44500</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="89">
         <v>44499</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:14">
@@ -8951,28 +9046,28 @@
         <v>44504</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="89">
         <v>44503</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:14">
@@ -8984,32 +9079,32 @@
         <v>44507</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="89">
         <v>44506</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" ht="25.7" customHeight="1" spans="1:14">
@@ -9021,28 +9116,28 @@
         <v>44511</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="89">
         <v>44510</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="98"/>
       <c r="N13" s="99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:14">
@@ -9054,29 +9149,29 @@
         <v>44514</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="89">
         <v>44513</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N14" s="78"/>
     </row>
@@ -9089,54 +9184,54 @@
         <v>44518</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="94">
         <v>44517</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M15" s="100"/>
       <c r="N15" s="101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:7">
       <c r="A16" s="64">
         <v>23</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" s="66">
         <v>44521</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:7">
       <c r="A17" s="64">
         <v>24</v>
       </c>
@@ -9145,17 +9240,17 @@
         <v>44525</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:7">
       <c r="A18" s="64">
         <v>25</v>
       </c>
@@ -9164,19 +9259,19 @@
         <v>44528</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:7">
       <c r="A19" s="64">
         <v>26</v>
       </c>
@@ -9185,17 +9280,17 @@
         <v>44532</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:7">
       <c r="A20" s="64">
         <v>27</v>
       </c>
@@ -9204,19 +9299,19 @@
         <v>44535</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:7">
       <c r="A21" s="64">
         <v>28</v>
       </c>
@@ -9225,17 +9320,17 @@
         <v>44539</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:7">
       <c r="A22" s="64">
         <v>29</v>
       </c>
@@ -9244,19 +9339,19 @@
         <v>44542</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" ht="30.75" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" ht="29.75" spans="1:7">
       <c r="A23" s="64">
         <v>30</v>
       </c>
@@ -9265,17 +9360,17 @@
         <v>44546</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:7">
       <c r="A24" s="64">
         <v>31</v>
       </c>
@@ -9284,15 +9379,15 @@
         <v>44549</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="93"/>
     </row>
-    <row r="25" ht="15.75" spans="1:7">
+    <row r="25" ht="15.25" spans="1:7">
       <c r="A25" s="64">
         <v>32</v>
       </c>
@@ -9301,10 +9396,10 @@
         <v>44556</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="97"/>
@@ -9332,31 +9427,31 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="45"/>
-    <col min="2" max="16" width="11.2685185185185" customWidth="1"/>
-    <col min="17" max="17" width="12.2685185185185" customWidth="1"/>
+    <col min="2" max="16" width="11.2727272727273" customWidth="1"/>
+    <col min="17" max="17" width="12.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -9372,53 +9467,53 @@
     <row r="2" ht="34.05" customHeight="1" spans="1:21">
       <c r="A2" s="39"/>
       <c r="B2" s="46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -9482,7 +9577,7 @@
         <v>-164</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
@@ -9546,7 +9641,7 @@
         <v>-129</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
@@ -9858,7 +9953,7 @@
         <v>-138</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -10158,7 +10253,7 @@
         <v>-166</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10534,20 +10629,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.8611111111111" customWidth="1"/>
+    <col min="1" max="1" width="12.8636363636364" customWidth="1"/>
     <col min="2" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="11.1272727272727" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="16.2685185185185" customWidth="1"/>
-    <col min="12" max="12" width="10.6018518518519" customWidth="1"/>
-    <col min="13" max="13" width="11.8611111111111" customWidth="1"/>
+    <col min="11" max="11" width="16.2727272727273" customWidth="1"/>
+    <col min="12" max="12" width="10.6" customWidth="1"/>
+    <col min="13" max="13" width="11.8636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:15">
       <c r="A1" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="40">
         <v>44264</v>
@@ -10565,29 +10660,29 @@
         <v>44268</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:15">
       <c r="A2" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" s="39">
         <v>6</v>
@@ -10609,13 +10704,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L2" s="39">
         <v>259</v>
@@ -10628,7 +10723,7 @@
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:15">
       <c r="A3" s="39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" s="39">
         <v>10</v>
@@ -10646,16 +10741,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L3" s="39">
         <v>65</v>
@@ -10668,7 +10763,7 @@
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:15">
       <c r="A4" s="39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" s="39">
         <f>B2*B3</f>
@@ -10702,7 +10797,7 @@
         <v>6900</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L4" s="39">
         <f>L2*L3</f>
@@ -10723,13 +10818,13 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:15">
       <c r="A5" s="41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10739,19 +10834,19 @@
       <c r="I5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -10775,68 +10870,68 @@
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:15">
       <c r="A9" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="40">
         <v>44300</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:15">
       <c r="A10" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" s="39">
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G10" s="39">
         <v>1</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" s="44">
         <v>259</v>
@@ -10849,31 +10944,31 @@
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:15">
       <c r="A11" s="39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="39">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G11" s="39">
         <v>8</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L11" s="44">
         <v>65</v>
@@ -10886,7 +10981,7 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:15">
       <c r="A12" s="39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B12" s="39">
         <f>B10*B11</f>
@@ -10900,7 +10995,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G12" s="39">
         <v>8</v>
@@ -10913,7 +11008,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L12" s="44">
         <f>L10*L11</f>
@@ -10935,16 +11030,16 @@
     <row r="13" ht="35" customHeight="1" spans="11:15">
       <c r="K13" s="44"/>
       <c r="L13" s="44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -10966,13 +11061,13 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="5.12962962962963" style="32" customWidth="1"/>
-    <col min="3" max="3" width="18.2685185185185" style="32" customWidth="1"/>
+    <col min="1" max="2" width="5.12727272727273" style="32" customWidth="1"/>
+    <col min="3" max="3" width="18.2727272727273" style="32" customWidth="1"/>
     <col min="4" max="4" width="9" style="32"/>
-    <col min="5" max="5" width="35.7314814814815" style="32" customWidth="1"/>
-    <col min="6" max="6" width="5.12962962962963" style="32" customWidth="1"/>
+    <col min="5" max="5" width="35.7272727272727" style="32" customWidth="1"/>
+    <col min="6" max="6" width="5.12727272727273" style="32" customWidth="1"/>
     <col min="7" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
@@ -10982,37 +11077,37 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:14">
@@ -11020,16 +11115,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -11038,13 +11133,13 @@
         <v>943</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L2" s="33">
         <f>40*6</f>
@@ -11060,19 +11155,19 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F3" s="35">
         <v>3</v>
@@ -11094,19 +11189,19 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B4" s="33">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
@@ -11128,19 +11223,19 @@
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:10">
       <c r="A5" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" s="33">
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>161</v>
-      </c>
       <c r="E5" s="34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F5" s="35">
         <v>1</v>
@@ -11162,19 +11257,19 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -11184,30 +11279,30 @@
         <v>1886</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:10">
       <c r="A7" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="35">
         <v>1</v>
@@ -11217,30 +11312,30 @@
         <v>943</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:10">
       <c r="A8" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F8" s="35">
         <v>1</v>
@@ -11250,30 +11345,30 @@
         <v>943</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:10">
       <c r="A9" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B9" s="33">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -11295,7 +11390,7 @@
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11329,29 +11424,29 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="4" width="8.7962962962963" customWidth="1"/>
-    <col min="5" max="5" width="8.7962962962963" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="12.6018518518519" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.8" customWidth="1"/>
+    <col min="5" max="5" width="8.8" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6018518518519" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.5" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" ht="14.5" spans="1:5">
       <c r="A2" s="15">
         <v>44501</v>
       </c>
@@ -11362,7 +11457,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" ht="14.5" spans="1:5">
       <c r="A3" s="15">
         <v>44502</v>
       </c>
@@ -11373,7 +11468,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" ht="14.5" spans="1:5">
       <c r="A4" s="15">
         <v>44503</v>
       </c>
@@ -11384,7 +11479,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" ht="15" spans="1:5">
+    <row r="5" ht="14.5" spans="1:5">
       <c r="A5" s="15">
         <v>44504</v>
       </c>
@@ -11395,7 +11490,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" ht="14.5" spans="1:5">
       <c r="A6" s="15">
         <v>44505</v>
       </c>
@@ -11406,7 +11501,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" ht="14.5" spans="1:5">
       <c r="A7" s="15">
         <v>44506</v>
       </c>
@@ -11417,7 +11512,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" ht="14.5" spans="1:5">
       <c r="A8" s="15">
         <v>44507</v>
       </c>
@@ -11428,7 +11523,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" ht="14.5" spans="1:5">
       <c r="A9" s="15">
         <v>44508</v>
       </c>
@@ -11439,7 +11534,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" ht="15" spans="1:5">
+    <row r="10" ht="14.5" spans="1:5">
       <c r="A10" s="15">
         <v>44509</v>
       </c>
@@ -11450,7 +11545,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" ht="15" spans="1:5">
+    <row r="11" ht="14.5" spans="1:5">
       <c r="A11" s="15">
         <v>44510</v>
       </c>
@@ -11461,7 +11556,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" ht="14.5" spans="1:5">
       <c r="A12" s="15">
         <v>44511</v>
       </c>
@@ -11472,7 +11567,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" ht="15" spans="1:5">
+    <row r="13" ht="14.5" spans="1:5">
       <c r="A13" s="15">
         <v>44512</v>
       </c>
@@ -11483,7 +11578,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" ht="15" spans="1:5">
+    <row r="14" ht="14.5" spans="1:5">
       <c r="A14" s="15">
         <v>44513</v>
       </c>
@@ -11494,7 +11589,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" ht="15" spans="1:5">
+    <row r="15" ht="14.5" spans="1:5">
       <c r="A15" s="15">
         <v>44514</v>
       </c>
@@ -11505,7 +11600,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" ht="15.6" spans="1:13">
+    <row r="16" ht="16.5" spans="1:13">
       <c r="A16" s="15">
         <v>44515</v>
       </c>
@@ -11520,7 +11615,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" ht="15.6" spans="1:13">
+    <row r="17" ht="16.5" spans="1:13">
       <c r="A17" s="15">
         <v>44516</v>
       </c>
@@ -11535,7 +11630,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" ht="15.6" spans="1:13">
+    <row r="18" ht="16.5" spans="1:13">
       <c r="A18" s="15">
         <v>44517</v>
       </c>
@@ -11550,7 +11645,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" ht="15.6" spans="1:13">
+    <row r="19" ht="16.5" spans="1:13">
       <c r="A19" s="15">
         <v>44518</v>
       </c>
@@ -11565,7 +11660,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" ht="15.6" spans="1:13">
+    <row r="20" ht="16.5" spans="1:13">
       <c r="A20" s="15">
         <v>44519</v>
       </c>
@@ -11580,7 +11675,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" ht="15" spans="1:5">
+    <row r="21" ht="14.5" spans="1:5">
       <c r="A21" s="15">
         <v>44520</v>
       </c>
@@ -11591,7 +11686,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" ht="15" spans="1:5">
+    <row r="22" ht="14.5" spans="1:5">
       <c r="A22" s="15">
         <v>44521</v>
       </c>
@@ -11602,7 +11697,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" ht="15" spans="1:5">
+    <row r="23" ht="14.5" spans="1:5">
       <c r="A23" s="15">
         <v>44522</v>
       </c>
@@ -11613,7 +11708,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" ht="15" spans="1:5">
+    <row r="24" ht="14.5" spans="1:5">
       <c r="A24" s="15">
         <v>44523</v>
       </c>
@@ -11624,7 +11719,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" ht="15" spans="1:5">
+    <row r="25" ht="14.5" spans="1:5">
       <c r="A25" s="15">
         <v>44524</v>
       </c>
@@ -11635,7 +11730,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" ht="15" spans="1:5">
+    <row r="26" ht="14.5" spans="1:5">
       <c r="A26" s="15">
         <v>44525</v>
       </c>
@@ -11646,7 +11741,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" ht="15" spans="1:5">
+    <row r="27" ht="14.5" spans="1:5">
       <c r="A27" s="15">
         <v>44526</v>
       </c>
@@ -11657,7 +11752,7 @@
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" ht="15" spans="1:5">
+    <row r="28" ht="14.5" spans="1:5">
       <c r="A28" s="15">
         <v>44527</v>
       </c>
@@ -11668,7 +11763,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" ht="15" spans="1:5">
+    <row r="29" ht="14.5" spans="1:5">
       <c r="A29" s="15">
         <v>44528</v>
       </c>
@@ -11679,7 +11774,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" ht="15" spans="1:5">
+    <row r="30" ht="14.5" spans="1:5">
       <c r="A30" s="15">
         <v>44529</v>
       </c>
@@ -11690,7 +11785,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
     </row>
-    <row r="31" ht="15" spans="1:5">
+    <row r="31" ht="14.5" spans="1:5">
       <c r="A31" s="15">
         <v>44530</v>
       </c>
@@ -11701,30 +11796,30 @@
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" ht="15" spans="1:5">
+    <row r="32" ht="14.5" spans="1:5">
       <c r="A32" s="15"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" ht="15" spans="1:5">
+    <row r="33" ht="14.5" spans="1:5">
       <c r="A33" s="18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" ht="15" spans="1:5">
+    <row r="34" ht="14.5" spans="1:5">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" ht="15" spans="1:7">
+    <row r="35" ht="14.5" spans="1:7">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -11733,7 +11828,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" ht="15" spans="1:7">
+    <row r="36" ht="14.5" spans="1:7">
       <c r="A36" s="24"/>
       <c r="B36" s="25"/>
       <c r="C36" s="22"/>
@@ -11753,12 +11848,12 @@
     </row>
     <row r="506" spans="452:452">
       <c r="QJ506" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="537" spans="452:452">
       <c r="QJ537" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="539" spans="452:452">
@@ -11800,47 +11895,47 @@
       <selection activeCell="KV296" sqref="KV296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.2685185185185" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.1296296296296" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6018518518519" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.2727272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.1272727272727" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6" style="3" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="8.86111111111111" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.8611111111111" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.86363636363636" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.8636363636364" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="9">
         <v>176</v>
@@ -11852,13 +11947,13 @@
     <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F3" s="9">
         <v>71</v>
@@ -11870,13 +11965,13 @@
     <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F4" s="9">
         <v>48</v>
@@ -11888,13 +11983,13 @@
     <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F5" s="9">
         <f>SUBTOTAL(9,F2:F4)</f>
@@ -11908,71 +12003,71 @@
     <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="9">
         <v>10</v>
@@ -11991,13 +12086,13 @@
     <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F12" s="9">
         <v>7</v>
@@ -12016,13 +12111,13 @@
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F13" s="9">
         <v>6</v>
@@ -12041,257 +12136,257 @@
     <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F15" s="9">
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A19" s="9"/>
       <c r="B19" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A27" s="9"/>
       <c r="B27" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A33" s="9"/>
       <c r="B33" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7270"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="254">
   <si>
     <t>序号</t>
   </si>
@@ -177,6 +177,12 @@
   <si>
     <t>1.浙商增值数据方案部署
 2.增值历史数据</t>
+  </si>
+  <si>
+    <t>1.行情中心服务适配开发</t>
+  </si>
+  <si>
+    <t>浙商估值数据部署</t>
   </si>
   <si>
     <t>客户情况跟进-信达-王璇
@@ -328,6 +334,10 @@
   </si>
   <si>
     <t>最小栈；队列以及栈课程；bigthing内容回顾，思考场景话术，并且思考是否有其他的有价值的场景</t>
+  </si>
+  <si>
+    <t>12月OKR
+面试题刷完</t>
   </si>
   <si>
     <t>模块</t>
@@ -951,12 +961,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="[$-804]aaa;@"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1073,7 +1083,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,13 +1111,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,54 +1169,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,22 +1194,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1193,14 +1203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,6 +1219,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,36 +1336,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1368,7 +1348,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,13 +1432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,67 +1456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,7 +1922,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1920,8 +1930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1944,8 +1954,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1965,21 +1990,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1998,10 +2008,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2010,136 +2020,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2212,10 +2222,10 @@
     <xf numFmtId="58" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2266,7 +2276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3734,8 +3744,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8626475" y="485775"/>
-        <a:ext cx="4171950" cy="2743200"/>
+        <a:off x="8474075" y="485775"/>
+        <a:ext cx="4091940" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4040,47 +4050,47 @@
   <dimension ref="A2:SS595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.06363636363636" style="144" customWidth="1"/>
-    <col min="2" max="2" width="17.8909090909091" style="145" customWidth="1"/>
-    <col min="3" max="3" width="7.66363636363636" style="145" customWidth="1"/>
-    <col min="4" max="6" width="10.8" style="144" customWidth="1"/>
+    <col min="1" max="1" width="6.06481481481481" style="144" customWidth="1"/>
+    <col min="2" max="2" width="17.8888888888889" style="145" customWidth="1"/>
+    <col min="3" max="3" width="7.66666666666667" style="145" customWidth="1"/>
+    <col min="4" max="6" width="10.7962962962963" style="144" customWidth="1"/>
     <col min="7" max="7" width="9" style="146" customWidth="1"/>
-    <col min="8" max="8" width="10.7272727272727" style="144" customWidth="1"/>
+    <col min="8" max="8" width="10.7314814814815" style="144" customWidth="1"/>
     <col min="9" max="9" width="9" style="146" customWidth="1"/>
     <col min="10" max="12" width="9" style="144" customWidth="1"/>
     <col min="13" max="14" width="9" style="147" customWidth="1"/>
-    <col min="15" max="15" width="22.7818181818182" style="144" customWidth="1"/>
-    <col min="16" max="16" width="12.7818181818182" style="144" customWidth="1"/>
+    <col min="15" max="15" width="22.7777777777778" style="144" customWidth="1"/>
+    <col min="16" max="16" width="12.7777777777778" style="144" customWidth="1"/>
     <col min="17" max="19" width="9" style="144" customWidth="1"/>
     <col min="20" max="21" width="9" style="147" customWidth="1"/>
-    <col min="22" max="22" width="19.9" style="144" customWidth="1"/>
-    <col min="23" max="23" width="23.6545454545455" style="144" customWidth="1"/>
+    <col min="22" max="22" width="19.8981481481481" style="144" customWidth="1"/>
+    <col min="23" max="23" width="23.6574074074074" style="144" customWidth="1"/>
     <col min="24" max="24" width="9" style="144" customWidth="1"/>
-    <col min="25" max="25" width="18.5545454545455" style="144" customWidth="1"/>
+    <col min="25" max="25" width="18.5555555555556" style="144" customWidth="1"/>
     <col min="26" max="26" width="9" style="144" customWidth="1"/>
     <col min="27" max="28" width="9" style="147" customWidth="1"/>
     <col min="29" max="29" width="9" style="146" customWidth="1"/>
     <col min="30" max="30" width="9" style="144" customWidth="1"/>
-    <col min="31" max="31" width="24.7818181818182" style="144" customWidth="1"/>
+    <col min="31" max="31" width="24.7777777777778" style="144" customWidth="1"/>
     <col min="32" max="33" width="9" style="144" customWidth="1"/>
     <col min="34" max="35" width="9" style="147" customWidth="1"/>
     <col min="36" max="38" width="9" style="144" customWidth="1"/>
-    <col min="39" max="39" width="16.8909090909091" style="144" customWidth="1"/>
-    <col min="40" max="40" width="23.7818181818182" style="144" customWidth="1"/>
+    <col min="39" max="39" width="16.8888888888889" style="144" customWidth="1"/>
+    <col min="40" max="40" width="23.7777777777778" style="144" customWidth="1"/>
     <col min="41" max="42" width="9" style="147" customWidth="1"/>
     <col min="43" max="47" width="9" style="144" customWidth="1"/>
     <col min="48" max="49" width="9" style="147" customWidth="1"/>
     <col min="50" max="52" width="9" style="144" customWidth="1"/>
-    <col min="53" max="53" width="9.33636363636364" style="144" customWidth="1"/>
+    <col min="53" max="53" width="9.33333333333333" style="144" customWidth="1"/>
     <col min="54" max="54" width="9" style="144" customWidth="1"/>
     <col min="55" max="56" width="9" style="147" customWidth="1"/>
     <col min="57" max="61" width="9" style="144" customWidth="1"/>
@@ -4162,7 +4172,7 @@
     <col min="290" max="292" width="9" style="144" customWidth="1"/>
     <col min="293" max="293" width="9" style="147" customWidth="1"/>
     <col min="294" max="294" width="9" style="146" customWidth="1"/>
-    <col min="295" max="295" width="9.33636363636364" style="144" customWidth="1"/>
+    <col min="295" max="295" width="9.33333333333333" style="144" customWidth="1"/>
     <col min="296" max="299" width="9" style="144" customWidth="1"/>
     <col min="300" max="304" width="9" style="147" customWidth="1"/>
     <col min="305" max="307" width="9" style="144" customWidth="1"/>
@@ -4174,7 +4184,7 @@
     <col min="323" max="327" width="9" style="144" customWidth="1"/>
     <col min="328" max="329" width="9" style="147" customWidth="1"/>
     <col min="330" max="331" width="9" style="144" customWidth="1"/>
-    <col min="332" max="332" width="9.33636363636364" style="144" customWidth="1"/>
+    <col min="332" max="332" width="9.33333333333333" style="144" customWidth="1"/>
     <col min="333" max="334" width="9" style="144" customWidth="1"/>
     <col min="335" max="336" width="9" style="147" customWidth="1"/>
     <col min="337" max="341" width="9" style="144" customWidth="1"/>
@@ -4190,7 +4200,7 @@
     <col min="372" max="376" width="9" style="144" customWidth="1"/>
     <col min="377" max="378" width="9" style="147" customWidth="1"/>
     <col min="379" max="379" width="9" style="144" customWidth="1"/>
-    <col min="380" max="380" width="9.33636363636364" style="144" customWidth="1"/>
+    <col min="380" max="380" width="9.33333333333333" style="144" customWidth="1"/>
     <col min="381" max="383" width="9" style="144" customWidth="1"/>
     <col min="384" max="385" width="9" style="147" customWidth="1"/>
     <col min="386" max="390" width="9" style="144" customWidth="1"/>
@@ -6158,7 +6168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="56" spans="1:75">
+    <row r="5" ht="57.6" spans="1:75">
       <c r="A5" s="142">
         <v>2</v>
       </c>
@@ -6184,7 +6194,7 @@
       <c r="BP5" s="142"/>
       <c r="BW5" s="142"/>
     </row>
-    <row r="6" ht="43" customHeight="1" spans="1:40">
+    <row r="6" ht="43" customHeight="1" spans="1:44">
       <c r="A6" s="142">
         <v>3</v>
       </c>
@@ -6232,6 +6242,12 @@
       </c>
       <c r="AN6" s="144" t="s">
         <v>40</v>
+      </c>
+      <c r="AQ6" s="144" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR6" s="144" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="40.05" customHeight="1" spans="1:8">
@@ -6252,13 +6268,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="155" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="156">
         <v>44501</v>
@@ -6267,10 +6283,10 @@
         <v>44509</v>
       </c>
       <c r="G9" s="157" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I9" s="157" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M9" s="162"/>
       <c r="N9" s="162"/>
@@ -6466,20 +6482,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="156">
         <v>44501</v>
       </c>
       <c r="F11" s="156"/>
       <c r="G11" s="157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I11" s="157"/>
       <c r="M11" s="162"/>
@@ -6676,23 +6692,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="156">
         <v>44501</v>
       </c>
       <c r="F13" s="156"/>
       <c r="G13" s="157" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I13" s="157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M13" s="162"/>
       <c r="N13" s="162"/>
@@ -7607,50 +7623,50 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.3363636363636" style="105" customWidth="1"/>
-    <col min="2" max="3" width="10.1272727272727" style="106" customWidth="1"/>
-    <col min="4" max="4" width="51.8" style="105" customWidth="1"/>
-    <col min="5" max="5" width="20.2" style="107" customWidth="1"/>
-    <col min="6" max="6" width="13.6" style="108" customWidth="1"/>
-    <col min="7" max="7" width="21.8" style="105" customWidth="1"/>
-    <col min="8" max="8" width="28.0636363636364" style="105" customWidth="1"/>
-    <col min="9" max="9" width="30.7272727272727" style="105" customWidth="1"/>
-    <col min="10" max="16384" width="9.8" style="105"/>
+    <col min="1" max="1" width="21.3333333333333" style="105" customWidth="1"/>
+    <col min="2" max="3" width="10.1296296296296" style="106" customWidth="1"/>
+    <col min="4" max="4" width="51.7962962962963" style="105" customWidth="1"/>
+    <col min="5" max="5" width="20.2037037037037" style="107" customWidth="1"/>
+    <col min="6" max="6" width="13.6018518518519" style="108" customWidth="1"/>
+    <col min="7" max="7" width="21.7962962962963" style="105" customWidth="1"/>
+    <col min="8" max="8" width="28.0648148148148" style="105" customWidth="1"/>
+    <col min="9" max="9" width="30.7314814814815" style="105" customWidth="1"/>
+    <col min="10" max="16384" width="9.7962962962963" style="105"/>
   </cols>
   <sheetData>
     <row r="1" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="109" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="114" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="112" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
@@ -7666,7 +7682,7 @@
     </row>
     <row r="3" ht="15.85" customHeight="1" spans="1:9">
       <c r="A3" s="118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="119">
         <v>44501</v>
@@ -7801,7 +7817,7 @@
       <c r="H11" s="128"/>
       <c r="I11" s="135"/>
     </row>
-    <row r="12" ht="42" spans="1:9">
+    <row r="12" ht="43.2" spans="1:9">
       <c r="A12" s="124"/>
       <c r="B12" s="119">
         <v>44510</v>
@@ -7810,16 +7826,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="125">
         <v>0.6</v>
       </c>
       <c r="G12" s="123" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="134"/>
@@ -7833,22 +7849,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="126" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="125">
         <v>0.4</v>
       </c>
       <c r="G13" s="123" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" ht="15.85" customHeight="1" spans="1:9">
@@ -7905,7 +7921,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" s="126"/>
       <c r="F17" s="125"/>
@@ -7937,7 +7953,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="126"/>
       <c r="F19" s="125"/>
@@ -7954,14 +7970,14 @@
         <v>9</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="126"/>
       <c r="F20" s="125"/>
       <c r="G20" s="123"/>
       <c r="H20" s="126"/>
       <c r="I20" s="136" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="15.85" customHeight="1" spans="1:9">
@@ -7973,7 +7989,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="126" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="126"/>
       <c r="F21" s="125"/>
@@ -8020,7 +8036,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="126" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" s="126"/>
       <c r="F24" s="125"/>
@@ -8037,7 +8053,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" s="126"/>
       <c r="F25" s="125"/>
@@ -8054,7 +8070,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="126" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="126"/>
       <c r="F26" s="125"/>
@@ -8071,7 +8087,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="126"/>
       <c r="F27" s="125"/>
@@ -8088,7 +8104,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E28" s="126"/>
       <c r="F28" s="125"/>
@@ -8150,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="126" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" s="126"/>
       <c r="F32" s="125"/>
@@ -8181,7 +8197,9 @@
       <c r="I34" s="134"/>
     </row>
     <row r="35" ht="15.85" customHeight="1" spans="1:9">
-      <c r="A35" s="131"/>
+      <c r="A35" s="131" t="s">
+        <v>79</v>
+      </c>
       <c r="B35" s="119">
         <v>44531</v>
       </c>
@@ -8735,22 +8753,22 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.7962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.8" style="58"/>
-    <col min="2" max="2" width="10.0636363636364" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.7272727272727" style="58" customWidth="1"/>
-    <col min="4" max="4" width="9.8" style="58"/>
-    <col min="5" max="5" width="15.8" style="58" customWidth="1"/>
-    <col min="6" max="6" width="32.3363636363636" style="58" customWidth="1"/>
-    <col min="7" max="7" width="30.1272727272727" style="58" customWidth="1"/>
-    <col min="8" max="9" width="9.8" style="58"/>
-    <col min="10" max="10" width="12.8" style="58" customWidth="1"/>
-    <col min="11" max="11" width="9.8" style="58"/>
-    <col min="12" max="12" width="12.5272727272727" style="58" customWidth="1"/>
-    <col min="13" max="13" width="24.1272727272727" style="58" customWidth="1"/>
-    <col min="14" max="14" width="30.8" style="58" customWidth="1"/>
-    <col min="15" max="16384" width="9.8" style="58"/>
+    <col min="1" max="1" width="9.7962962962963" style="58"/>
+    <col min="2" max="2" width="10.0648148148148" style="58" customWidth="1"/>
+    <col min="3" max="3" width="13.7314814814815" style="58" customWidth="1"/>
+    <col min="4" max="4" width="9.7962962962963" style="58"/>
+    <col min="5" max="5" width="15.7962962962963" style="58" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" style="58" customWidth="1"/>
+    <col min="7" max="7" width="30.1296296296296" style="58" customWidth="1"/>
+    <col min="8" max="9" width="9.7962962962963" style="58"/>
+    <col min="10" max="10" width="12.7962962962963" style="58" customWidth="1"/>
+    <col min="11" max="11" width="9.7962962962963" style="58"/>
+    <col min="12" max="12" width="12.5277777777778" style="58" customWidth="1"/>
+    <col min="13" max="13" width="24.1296296296296" style="58" customWidth="1"/>
+    <col min="14" max="14" width="30.7962962962963" style="58" customWidth="1"/>
+    <col min="15" max="16384" width="9.7962962962963" style="58"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:7">
@@ -8758,27 +8776,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -8789,7 +8807,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -8803,36 +8821,36 @@
         <v>11</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="66">
         <v>44479</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="70"/>
       <c r="I4" s="65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K4" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="87" t="s">
-        <v>85</v>
-      </c>
       <c r="M4" s="68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N4" s="88" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:14">
@@ -8850,14 +8868,14 @@
         <v>44482</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="90" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:14">
@@ -8869,32 +8887,32 @@
         <v>44486</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="89">
         <v>44485</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:14">
@@ -8906,28 +8924,28 @@
         <v>44490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="89">
         <v>44489</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="79" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:14">
@@ -8939,32 +8957,32 @@
         <v>44493</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="89">
         <v>44492</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:14">
@@ -8976,28 +8994,28 @@
         <v>44497</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="89">
         <v>44496</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="79" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:14">
@@ -9009,32 +9027,32 @@
         <v>44500</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="89">
         <v>44499</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:14">
@@ -9046,28 +9064,28 @@
         <v>44504</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="89">
         <v>44503</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:14">
@@ -9079,32 +9097,32 @@
         <v>44507</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="89">
         <v>44506</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="25.7" customHeight="1" spans="1:14">
@@ -9116,28 +9134,28 @@
         <v>44511</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="89">
         <v>44510</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M13" s="98"/>
       <c r="N13" s="99" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:14">
@@ -9149,29 +9167,29 @@
         <v>44514</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="89">
         <v>44513</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N14" s="78"/>
     </row>
@@ -9184,54 +9202,54 @@
         <v>44518</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="85" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="94">
         <v>44517</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M15" s="100"/>
       <c r="N15" s="101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:7">
       <c r="A16" s="64">
         <v>23</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C16" s="66">
         <v>44521</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:7">
       <c r="A17" s="64">
         <v>24</v>
       </c>
@@ -9240,17 +9258,17 @@
         <v>44525</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:7">
       <c r="A18" s="64">
         <v>25</v>
       </c>
@@ -9259,19 +9277,19 @@
         <v>44528</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:7">
       <c r="A19" s="64">
         <v>26</v>
       </c>
@@ -9280,17 +9298,17 @@
         <v>44532</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:7">
       <c r="A20" s="64">
         <v>27</v>
       </c>
@@ -9299,19 +9317,19 @@
         <v>44535</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:7">
       <c r="A21" s="64">
         <v>28</v>
       </c>
@@ -9320,17 +9338,17 @@
         <v>44539</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:7">
       <c r="A22" s="64">
         <v>29</v>
       </c>
@@ -9339,19 +9357,19 @@
         <v>44542</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" ht="29.75" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" ht="30.75" spans="1:7">
       <c r="A23" s="64">
         <v>30</v>
       </c>
@@ -9360,17 +9378,17 @@
         <v>44546</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:7">
       <c r="A24" s="64">
         <v>31</v>
       </c>
@@ -9379,15 +9397,15 @@
         <v>44549</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="93"/>
     </row>
-    <row r="25" ht="15.25" spans="1:7">
+    <row r="25" ht="15.75" spans="1:7">
       <c r="A25" s="64">
         <v>32</v>
       </c>
@@ -9396,10 +9414,10 @@
         <v>44556</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="97"/>
@@ -9427,31 +9445,31 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="45"/>
-    <col min="2" max="16" width="11.2727272727273" customWidth="1"/>
-    <col min="17" max="17" width="12.2727272727273" customWidth="1"/>
+    <col min="2" max="16" width="11.2685185185185" customWidth="1"/>
+    <col min="17" max="17" width="12.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -9467,53 +9485,53 @@
     <row r="2" ht="34.05" customHeight="1" spans="1:21">
       <c r="A2" s="39"/>
       <c r="B2" s="46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -9577,7 +9595,7 @@
         <v>-164</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
@@ -9641,7 +9659,7 @@
         <v>-129</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
@@ -9953,7 +9971,7 @@
         <v>-138</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -10253,7 +10271,7 @@
         <v>-166</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10629,20 +10647,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.8636363636364" customWidth="1"/>
+    <col min="1" max="1" width="12.8611111111111" customWidth="1"/>
     <col min="2" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.1272727272727" customWidth="1"/>
+    <col min="8" max="8" width="11.1296296296296" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="16.2727272727273" customWidth="1"/>
-    <col min="12" max="12" width="10.6" customWidth="1"/>
-    <col min="13" max="13" width="11.8636363636364" customWidth="1"/>
+    <col min="11" max="11" width="16.2685185185185" customWidth="1"/>
+    <col min="12" max="12" width="10.6018518518519" customWidth="1"/>
+    <col min="13" max="13" width="11.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:15">
       <c r="A1" s="39" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="40">
         <v>44264</v>
@@ -10660,29 +10678,29 @@
         <v>44268</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:15">
       <c r="A2" s="39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B2" s="39">
         <v>6</v>
@@ -10704,13 +10722,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L2" s="39">
         <v>259</v>
@@ -10723,7 +10741,7 @@
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:15">
       <c r="A3" s="39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" s="39">
         <v>10</v>
@@ -10741,16 +10759,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L3" s="39">
         <v>65</v>
@@ -10763,7 +10781,7 @@
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:15">
       <c r="A4" s="39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B4" s="39">
         <f>B2*B3</f>
@@ -10797,7 +10815,7 @@
         <v>6900</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L4" s="39">
         <f>L2*L3</f>
@@ -10818,13 +10836,13 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:15">
       <c r="A5" s="41" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10834,19 +10852,19 @@
       <c r="I5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -10870,68 +10888,68 @@
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:15">
       <c r="A9" s="39" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B9" s="40">
         <v>44300</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:15">
       <c r="A10" s="39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B10" s="39">
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G10" s="39">
         <v>1</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L10" s="44">
         <v>259</v>
@@ -10944,31 +10962,31 @@
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:15">
       <c r="A11" s="39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B11" s="39">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G11" s="39">
         <v>8</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L11" s="44">
         <v>65</v>
@@ -10981,7 +10999,7 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:15">
       <c r="A12" s="39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" s="39">
         <f>B10*B11</f>
@@ -10995,7 +11013,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G12" s="39">
         <v>8</v>
@@ -11008,7 +11026,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L12" s="44">
         <f>L10*L11</f>
@@ -11030,16 +11048,16 @@
     <row r="13" ht="35" customHeight="1" spans="11:15">
       <c r="K13" s="44"/>
       <c r="L13" s="44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -11061,13 +11079,13 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="5.12727272727273" style="32" customWidth="1"/>
-    <col min="3" max="3" width="18.2727272727273" style="32" customWidth="1"/>
+    <col min="1" max="2" width="5.12962962962963" style="32" customWidth="1"/>
+    <col min="3" max="3" width="18.2685185185185" style="32" customWidth="1"/>
     <col min="4" max="4" width="9" style="32"/>
-    <col min="5" max="5" width="35.7272727272727" style="32" customWidth="1"/>
-    <col min="6" max="6" width="5.12727272727273" style="32" customWidth="1"/>
+    <col min="5" max="5" width="35.7314814814815" style="32" customWidth="1"/>
+    <col min="6" max="6" width="5.12962962962963" style="32" customWidth="1"/>
     <col min="7" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
@@ -11077,37 +11095,37 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:14">
@@ -11115,16 +11133,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -11133,13 +11151,13 @@
         <v>943</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L2" s="33">
         <f>40*6</f>
@@ -11155,19 +11173,19 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F3" s="35">
         <v>3</v>
@@ -11189,19 +11207,19 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B4" s="33">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
@@ -11223,19 +11241,19 @@
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:10">
       <c r="A5" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B5" s="33">
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" s="35">
         <v>1</v>
@@ -11257,19 +11275,19 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -11279,30 +11297,30 @@
         <v>1886</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:10">
       <c r="A7" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F7" s="35">
         <v>1</v>
@@ -11312,30 +11330,30 @@
         <v>943</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:10">
       <c r="A8" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F8" s="35">
         <v>1</v>
@@ -11345,30 +11363,30 @@
         <v>943</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:10">
       <c r="A9" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9" s="33">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -11390,7 +11408,7 @@
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11424,29 +11442,29 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="8.8" customWidth="1"/>
-    <col min="5" max="5" width="8.8" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="12.6" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="8.7962962962963" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6018518518519" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6018518518519" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" ht="14.5" spans="1:5">
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="15">
         <v>44501</v>
       </c>
@@ -11457,7 +11475,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" ht="14.5" spans="1:5">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="15">
         <v>44502</v>
       </c>
@@ -11468,7 +11486,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" ht="14.5" spans="1:5">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="15">
         <v>44503</v>
       </c>
@@ -11479,7 +11497,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" ht="14.5" spans="1:5">
+    <row r="5" ht="15" spans="1:5">
       <c r="A5" s="15">
         <v>44504</v>
       </c>
@@ -11490,7 +11508,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" ht="14.5" spans="1:5">
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" s="15">
         <v>44505</v>
       </c>
@@ -11501,7 +11519,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" ht="14.5" spans="1:5">
+    <row r="7" ht="15" spans="1:5">
       <c r="A7" s="15">
         <v>44506</v>
       </c>
@@ -11512,7 +11530,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" ht="14.5" spans="1:5">
+    <row r="8" ht="15" spans="1:5">
       <c r="A8" s="15">
         <v>44507</v>
       </c>
@@ -11523,7 +11541,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" ht="14.5" spans="1:5">
+    <row r="9" ht="15" spans="1:5">
       <c r="A9" s="15">
         <v>44508</v>
       </c>
@@ -11534,7 +11552,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" ht="14.5" spans="1:5">
+    <row r="10" ht="15" spans="1:5">
       <c r="A10" s="15">
         <v>44509</v>
       </c>
@@ -11545,7 +11563,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" ht="14.5" spans="1:5">
+    <row r="11" ht="15" spans="1:5">
       <c r="A11" s="15">
         <v>44510</v>
       </c>
@@ -11556,7 +11574,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" ht="14.5" spans="1:5">
+    <row r="12" ht="15" spans="1:5">
       <c r="A12" s="15">
         <v>44511</v>
       </c>
@@ -11567,7 +11585,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" ht="14.5" spans="1:5">
+    <row r="13" ht="15" spans="1:5">
       <c r="A13" s="15">
         <v>44512</v>
       </c>
@@ -11578,7 +11596,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" ht="14.5" spans="1:5">
+    <row r="14" ht="15" spans="1:5">
       <c r="A14" s="15">
         <v>44513</v>
       </c>
@@ -11589,7 +11607,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" ht="14.5" spans="1:5">
+    <row r="15" ht="15" spans="1:5">
       <c r="A15" s="15">
         <v>44514</v>
       </c>
@@ -11600,7 +11618,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" ht="16.5" spans="1:13">
+    <row r="16" ht="15.6" spans="1:13">
       <c r="A16" s="15">
         <v>44515</v>
       </c>
@@ -11615,7 +11633,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:13">
+    <row r="17" ht="15.6" spans="1:13">
       <c r="A17" s="15">
         <v>44516</v>
       </c>
@@ -11630,7 +11648,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" ht="16.5" spans="1:13">
+    <row r="18" ht="15.6" spans="1:13">
       <c r="A18" s="15">
         <v>44517</v>
       </c>
@@ -11645,7 +11663,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" ht="16.5" spans="1:13">
+    <row r="19" ht="15.6" spans="1:13">
       <c r="A19" s="15">
         <v>44518</v>
       </c>
@@ -11660,7 +11678,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" ht="16.5" spans="1:13">
+    <row r="20" ht="15.6" spans="1:13">
       <c r="A20" s="15">
         <v>44519</v>
       </c>
@@ -11675,7 +11693,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" ht="14.5" spans="1:5">
+    <row r="21" ht="15" spans="1:5">
       <c r="A21" s="15">
         <v>44520</v>
       </c>
@@ -11686,7 +11704,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" ht="14.5" spans="1:5">
+    <row r="22" ht="15" spans="1:5">
       <c r="A22" s="15">
         <v>44521</v>
       </c>
@@ -11697,7 +11715,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" ht="14.5" spans="1:5">
+    <row r="23" ht="15" spans="1:5">
       <c r="A23" s="15">
         <v>44522</v>
       </c>
@@ -11708,7 +11726,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" ht="14.5" spans="1:5">
+    <row r="24" ht="15" spans="1:5">
       <c r="A24" s="15">
         <v>44523</v>
       </c>
@@ -11719,7 +11737,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" ht="14.5" spans="1:5">
+    <row r="25" ht="15" spans="1:5">
       <c r="A25" s="15">
         <v>44524</v>
       </c>
@@ -11730,7 +11748,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" ht="14.5" spans="1:5">
+    <row r="26" ht="15" spans="1:5">
       <c r="A26" s="15">
         <v>44525</v>
       </c>
@@ -11741,7 +11759,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" ht="14.5" spans="1:5">
+    <row r="27" ht="15" spans="1:5">
       <c r="A27" s="15">
         <v>44526</v>
       </c>
@@ -11752,7 +11770,7 @@
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" ht="14.5" spans="1:5">
+    <row r="28" ht="15" spans="1:5">
       <c r="A28" s="15">
         <v>44527</v>
       </c>
@@ -11763,7 +11781,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" ht="14.5" spans="1:5">
+    <row r="29" ht="15" spans="1:5">
       <c r="A29" s="15">
         <v>44528</v>
       </c>
@@ -11774,7 +11792,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" ht="14.5" spans="1:5">
+    <row r="30" ht="15" spans="1:5">
       <c r="A30" s="15">
         <v>44529</v>
       </c>
@@ -11785,7 +11803,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
     </row>
-    <row r="31" ht="14.5" spans="1:5">
+    <row r="31" ht="15" spans="1:5">
       <c r="A31" s="15">
         <v>44530</v>
       </c>
@@ -11796,30 +11814,30 @@
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" ht="14.5" spans="1:5">
+    <row r="32" ht="15" spans="1:5">
       <c r="A32" s="15"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" ht="14.5" spans="1:5">
+    <row r="33" ht="15" spans="1:5">
       <c r="A33" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" ht="14.5" spans="1:5">
+    <row r="34" ht="15" spans="1:5">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" ht="14.5" spans="1:7">
+    <row r="35" ht="15" spans="1:7">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -11828,7 +11846,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" ht="14.5" spans="1:7">
+    <row r="36" ht="15" spans="1:7">
       <c r="A36" s="24"/>
       <c r="B36" s="25"/>
       <c r="C36" s="22"/>
@@ -11848,12 +11866,12 @@
     </row>
     <row r="506" spans="452:452">
       <c r="QJ506" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="537" spans="452:452">
       <c r="QJ537" s="31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="539" spans="452:452">
@@ -11895,47 +11913,47 @@
       <selection activeCell="KV296" sqref="KV296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.2727272727273" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.1272727272727" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.2685185185185" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.1296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6018518518519" style="3" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="8.86363636363636" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.8636363636364" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.86111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.8611111111111" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" s="9">
         <v>176</v>
@@ -11947,13 +11965,13 @@
     <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F3" s="9">
         <v>71</v>
@@ -11965,13 +11983,13 @@
     <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F4" s="9">
         <v>48</v>
@@ -11983,13 +12001,13 @@
     <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F5" s="9">
         <f>SUBTOTAL(9,F2:F4)</f>
@@ -12003,71 +12021,71 @@
     <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F11" s="9">
         <v>10</v>
@@ -12086,13 +12104,13 @@
     <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F12" s="9">
         <v>7</v>
@@ -12111,13 +12129,13 @@
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F13" s="9">
         <v>6</v>
@@ -12136,257 +12154,257 @@
     <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F15" s="9">
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A19" s="9"/>
       <c r="B19" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A27" s="9"/>
       <c r="B27" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A33" s="9"/>
       <c r="B33" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/ToDo/工作台.xlsx
+++ b/notebook/ToDo/工作台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="13620"/>
+    <workbookView windowWidth="14628" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -4249,11 +4249,11 @@
   <dimension ref="A2:SS595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AO4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AP5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
+      <selection pane="bottomRight" activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
